--- a/inputs/0 - GRS II/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - GRS II/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29012"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1368" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2399EF9F-9F40-4060-A729-F4D49ABB9A7D}"/>
+  <xr:revisionPtr revIDLastSave="1375" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D2ABC09-A5E1-4E24-ACB9-9E293F9AB3F5}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="4" r:id="rId1"/>
@@ -4433,8 +4433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E5F92E-657E-4E0C-B143-933F3F776E4E}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4811,7 +4811,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="K23" sqref="K23:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6700,8 +6700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E66"/>
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8709,8 +8709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53CABED-B458-4A21-8986-65D0CBE5BB71}">
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10942,7 +10942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598A44A9-DD54-46F2-AC66-F4A29C2E67B7}">
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>

--- a/inputs/0 - GRS II/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - GRS II/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29016"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="188" documentId="11_8CE891D381D1C2AFB035B33A635BDD169644F1B8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EC69173-81F3-499D-A837-0ECB0062E7B3}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_DB4073CDE999887BCBB27993871AC61696441D5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D9136AF-E07C-4FF8-A8E1-DB38A6AEB023}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="5" r:id="rId1"/>
@@ -1194,7 +1194,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="55">
     <dxf>
       <font>
         <sz val="11"/>
@@ -1257,6 +1257,14 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF006400"/>
           <bgColor rgb="FF006400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA500"/>
+          <bgColor rgb="FFFFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1360,6 +1368,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFA500"/>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFF6666"/>
           <bgColor rgb="FFFF6666"/>
         </patternFill>
@@ -1451,6 +1467,14 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF006400"/>
           <bgColor rgb="FF006400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA500"/>
+          <bgColor rgb="FFFFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2033,12 +2057,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42289061-CBC5-4128-9568-D19556835563}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02319B22-0625-4DE0-A2AA-14E5900AE8CE}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2455,12 +2477,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF2A687-764E-409A-8F77-F4D7745A5AA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A8C76C-5214-4005-B952-C38EACF4D627}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7752,115 +7772,115 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="51" priority="73" operator="containsText" text="Atrasado">
+    <cfRule type="containsText" dxfId="54" priority="25" operator="containsText" text="Atrasado">
       <formula>NOT(ISERROR(SEARCH("Atrasado",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:F15 K2:M14">
-    <cfRule type="cellIs" dxfId="50" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="24" operator="equal">
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:F15 K2:M14">
-    <cfRule type="cellIs" dxfId="49" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="21" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="22" operator="equal">
       <formula>"Sem Técnico"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:F15 K2:M14">
-    <cfRule type="cellIs" dxfId="47" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="23" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E15">
-    <cfRule type="cellIs" dxfId="46" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="20" operator="equal">
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E15">
-    <cfRule type="cellIs" dxfId="45" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="17" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="18" operator="equal">
       <formula>"Sem Técnico"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E15">
-    <cfRule type="cellIs" dxfId="43" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="19" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F15">
-    <cfRule type="cellIs" dxfId="42" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="16" operator="equal">
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F15">
-    <cfRule type="cellIs" dxfId="41" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="13" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="14" operator="equal">
       <formula>"Sem Técnico"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F15">
-    <cfRule type="cellIs" dxfId="39" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="15" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:F31">
-    <cfRule type="cellIs" dxfId="38" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="12" operator="equal">
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:F31">
-    <cfRule type="cellIs" dxfId="37" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="9" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
       <formula>"Sem Técnico"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:F31">
-    <cfRule type="cellIs" dxfId="35" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:F46">
-    <cfRule type="cellIs" dxfId="34" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:F46">
-    <cfRule type="cellIs" dxfId="33" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>"Sem Técnico"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:F46">
-    <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:M31">
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:M31">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>"Sem Técnico"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:M31">
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7872,15 +7892,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:F30"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="87" customWidth="1"/>
@@ -9838,45 +9859,51 @@
       <c r="K68" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G68" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="G2:G68">
-    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J68">
-    <cfRule type="cellIs" dxfId="24" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E68">
-    <cfRule type="cellIs" dxfId="22" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>"Sim,Não, Em Análise"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Enviado, Atrasado, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9888,7 +9915,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="H56" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I60" sqref="I60:J60"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11866,43 +11896,49 @@
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <conditionalFormatting sqref="G2:G68">
-    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J68">
-    <cfRule type="cellIs" dxfId="15" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E68">
-    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" xr:uid="{00000000-0002-0000-0100-000001000000}">
+      <formula1>"Sim,Não,Em Análise"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Enviado, Atrasado, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11914,8 +11950,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="I71" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13874,45 +13911,51 @@
       <c r="K68" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G68" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <conditionalFormatting sqref="G2:G68">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J68">
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E68">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" xr:uid="{00000000-0002-0000-0200-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" xr:uid="{00000000-0002-0000-0200-000001000000}">
+      <formula1>"Sim,Não,Em Análise"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Enviado, Atrasado, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>

--- a/inputs/0 - GRS II/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - GRS II/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29101"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29103"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_E86F17C94BB7F56C202EC64E2FD9D01E4607B083" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5E0F62B-7D70-4A49-B661-9CB9437F14EA}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="11_E86F17C94BC7731F54AFDE4E2FD9D01E4607B083" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{221CF3A3-DE14-4544-879D-CC64F4EF1B8B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,9 @@
     <sheet name="Form 3 - Empreendimento" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Form 1 - Município'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Form 2 - UVR'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Form 3 - Empreendimento'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Form 1 - Município'!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="247">
   <si>
     <t>Formulário</t>
   </si>
@@ -303,6 +303,12 @@
     <t>Atrasado</t>
   </si>
   <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>correções em: Qual a despesa anual com os serviços de coleta (convencional, seletiva) no município? se não ok</t>
+  </si>
+  <si>
     <t>Não</t>
   </si>
   <si>
@@ -321,9 +327,6 @@
     <t>21/03/2025</t>
   </si>
   <si>
-    <t>Sim</t>
-  </si>
-  <si>
     <t>Geni Rodrigues Morais / Chayla Bianca Gazoli</t>
   </si>
   <si>
@@ -334,6 +337,9 @@
   </si>
   <si>
     <t>20/03/2025</t>
+  </si>
+  <si>
+    <t>Preencher Qual a despesa anual com os serviços de coleta</t>
   </si>
   <si>
     <t>Cristiane Petry Vieira</t>
@@ -529,6 +535,9 @@
     <t>31/03/2025</t>
   </si>
   <si>
+    <t>formulário ok</t>
+  </si>
+  <si>
     <t>Gabriela Carvalho / Ivan Gonçalves da Silva</t>
   </si>
   <si>
@@ -553,6 +562,9 @@
     <t>01/04/2025</t>
   </si>
   <si>
+    <t>revisar valor das despesas com coleta, está o mesmo para ambas e só a seletiva</t>
+  </si>
+  <si>
     <t>Ana Paula Romagnoli</t>
   </si>
   <si>
@@ -637,6 +649,9 @@
     <t>06/02/2025</t>
   </si>
   <si>
+    <t xml:space="preserve">revisar dados, pois então incondizentes com a realidade. não tem prensa horizontal, falar comigo sobre. </t>
+  </si>
+  <si>
     <t>nº banheiros 5?</t>
   </si>
   <si>
@@ -646,6 +661,9 @@
     <t>09/04/2025</t>
   </si>
   <si>
+    <t xml:space="preserve">revisar as fotos, caminhão para semi compactador, </t>
+  </si>
+  <si>
     <t>07/03/2025</t>
   </si>
   <si>
@@ -682,7 +700,16 @@
     <t>16/04/2025, 30/05/2025</t>
   </si>
   <si>
+    <t>revisar empilhadeiras</t>
+  </si>
+  <si>
+    <t>atualizar dimensões do terreno e construção</t>
+  </si>
+  <si>
     <t>05/03/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revisar valor das despesas com coleta, está o mesmo para ambas e só a seletiva, </t>
   </si>
   <si>
     <t>03/04/2025</t>
@@ -713,6 +740,9 @@
     <t>Verificar pág 3 (falta de documentação)</t>
   </si>
   <si>
+    <t>apenas revisar docs</t>
+  </si>
+  <si>
     <t>06/03/2025, 05/03/2025</t>
   </si>
   <si>
@@ -732,6 +762,15 @@
   </si>
   <si>
     <t>26/03/2025</t>
+  </si>
+  <si>
+    <t>tudo ok</t>
+  </si>
+  <si>
+    <t>atualizar alvará, nova ata de eleição</t>
+  </si>
+  <si>
+    <t>apenas revisar os docs</t>
   </si>
   <si>
     <t>12/06/2025</t>
@@ -750,7 +789,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -804,8 +843,20 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -944,6 +995,12 @@
         <bgColor rgb="FFA020F0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -1046,7 +1103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1157,6 +1214,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2035,9 +2104,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2226,11 +2297,11 @@
       </c>
       <c r="B10" s="25">
         <f ca="1">COUNTIF(INDIRECT("'Form 1 - Município'!G2:G100"),"Sim")</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C10" s="28">
         <f ca="1">$B$10/$B$2</f>
-        <v>0.53125</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
@@ -2239,11 +2310,11 @@
       </c>
       <c r="B11" s="25">
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!G2:G100"),"Sim")</f>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C11" s="28">
         <f ca="1">$B$11/$B$3</f>
-        <v>0.46666666666666667</v>
+        <v>0.57777777777777772</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
@@ -2252,32 +2323,32 @@
       </c>
       <c r="B12" s="25">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!G2:G100"),"Sim")</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C12" s="28">
         <f ca="1">$B$12/$B$4</f>
-        <v>0.42857142857142855</v>
+        <v>0.52380952380952384</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="39" t="s">
+      <c r="C15" s="44"/>
+      <c r="D15" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="39" t="s">
+      <c r="E15" s="44"/>
+      <c r="F15" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="40"/>
+      <c r="G15" s="44"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="41"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2314,8 +2385,8 @@
         <v>10</v>
       </c>
       <c r="E17" s="28">
-        <f ca="1">B17/B3</f>
-        <v>0.13333333333333333</v>
+        <f ca="1">D17/B3</f>
+        <v>0.22222222222222221</v>
       </c>
       <c r="F17" s="29">
         <f t="array" aca="1" ref="F17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
@@ -2332,27 +2403,27 @@
       </c>
       <c r="B18" s="29">
         <f t="array" aca="1" ref="B18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C18" s="28">
         <f ca="1">B18/B2</f>
-        <v>0</v>
+        <v>0.15625</v>
       </c>
       <c r="D18" s="29">
         <f t="array" aca="1" ref="D18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E18" s="28">
-        <f ca="1">B18/B3</f>
-        <v>0</v>
+        <f ca="1">D18/B3</f>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F18" s="29">
         <f t="array" aca="1" ref="F18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G18" s="28">
         <f ca="1">F18/B5</f>
-        <v>0</v>
+        <v>3.3613445378151259E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2372,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="28">
-        <f ca="1">B19/B3</f>
+        <f ca="1">D19/B3</f>
         <v>0</v>
       </c>
       <c r="F19" s="29">
@@ -2401,8 +2472,8 @@
         <v>6</v>
       </c>
       <c r="E20" s="28">
-        <f ca="1">B20/B3</f>
-        <v>0.1111111111111111</v>
+        <f ca="1">D20/B3</f>
+        <v>0.13333333333333333</v>
       </c>
       <c r="F20" s="29">
         <f t="array" aca="1" ref="F20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
@@ -2430,8 +2501,8 @@
         <v>5</v>
       </c>
       <c r="E21" s="28">
-        <f ca="1">B21/B3</f>
-        <v>0.13333333333333333</v>
+        <f ca="1">D21/B3</f>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F21" s="29">
         <f t="array" aca="1" ref="F21" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
@@ -2440,6 +2511,35 @@
       <c r="G21" s="28">
         <f ca="1">F21/B5</f>
         <v>4.2016806722689079E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="39">
+        <f ca="1">SUM(B17:B21)</f>
+        <v>22</v>
+      </c>
+      <c r="C22" s="40">
+        <f ca="1">SUM(C17:C21)</f>
+        <v>0.6875</v>
+      </c>
+      <c r="D22" s="39">
+        <f ca="1">SUM(D17:D21)</f>
+        <v>26</v>
+      </c>
+      <c r="E22" s="40">
+        <f ca="1">SUM(E17:E21)</f>
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="F22" s="39">
+        <f ca="1">SUM(F17:F21)</f>
+        <v>22</v>
+      </c>
+      <c r="G22" s="40">
+        <f ca="1">SUM(G17:G21)</f>
+        <v>0.29271708683473391</v>
       </c>
     </row>
   </sheetData>
@@ -2457,7 +2557,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7847,11 +7949,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7924,14 +8027,16 @@
       <c r="G2" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="15"/>
+      <c r="H2" s="15" t="s">
+        <v>88</v>
+      </c>
       <c r="I2" s="15"/>
       <c r="J2" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
@@ -7942,19 +8047,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K3" s="15"/>
     </row>
@@ -7969,23 +8074,23 @@
         <v>1</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" s="18" t="s">
         <v>14</v>
       </c>
@@ -7996,25 +8101,25 @@
         <v>1</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -8025,21 +8130,21 @@
         <v>1</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K6" s="15"/>
     </row>
@@ -8054,25 +8159,27 @@
         <v>1</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="15"/>
+      <c r="H7" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" hidden="1">
       <c r="A8" s="21" t="s">
         <v>16</v>
       </c>
@@ -8083,27 +8190,27 @@
         <v>1</v>
       </c>
       <c r="D8" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>97</v>
-      </c>
       <c r="G8" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
@@ -8114,23 +8221,23 @@
         <v>1</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -8141,25 +8248,25 @@
         <v>1</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" s="21" t="s">
         <v>16</v>
       </c>
@@ -8170,25 +8277,25 @@
         <v>1</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" s="21" t="s">
         <v>16</v>
       </c>
@@ -8199,25 +8306,25 @@
         <v>2</v>
       </c>
       <c r="D12" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>104</v>
-      </c>
       <c r="F12" s="15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" s="21" t="s">
         <v>16</v>
       </c>
@@ -8228,25 +8335,25 @@
         <v>3</v>
       </c>
       <c r="D13" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>105</v>
-      </c>
       <c r="G13" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" s="21" t="s">
         <v>16</v>
       </c>
@@ -8257,25 +8364,25 @@
         <v>4</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
@@ -8287,22 +8394,22 @@
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" s="21" t="s">
         <v>16</v>
       </c>
@@ -8314,22 +8421,22 @@
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" s="18" t="s">
         <v>14</v>
       </c>
@@ -8340,25 +8447,25 @@
         <v>1</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" s="23" t="s">
         <v>18</v>
       </c>
@@ -8369,25 +8476,25 @@
         <v>1</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" s="18" t="s">
         <v>14</v>
       </c>
@@ -8398,23 +8505,23 @@
         <v>1</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="23" t="s">
         <v>18</v>
       </c>
@@ -8425,25 +8532,25 @@
         <v>1</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" s="18" t="s">
         <v>14</v>
       </c>
@@ -8454,25 +8561,25 @@
         <v>1</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K21" s="15"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22" s="23" t="s">
         <v>18</v>
       </c>
@@ -8483,23 +8590,23 @@
         <v>1</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" s="21" t="s">
         <v>16</v>
       </c>
@@ -8510,25 +8617,25 @@
         <v>1</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K23" s="15"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="24" t="s">
         <v>17</v>
       </c>
@@ -8539,23 +8646,23 @@
         <v>2</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="24" t="s">
         <v>17</v>
       </c>
@@ -8566,23 +8673,23 @@
         <v>3</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
       <c r="J25" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K25" s="15"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26" s="24" t="s">
         <v>17</v>
       </c>
@@ -8593,23 +8700,23 @@
         <v>4</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
       <c r="J26" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K26" s="15"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" hidden="1">
       <c r="A27" s="24" t="s">
         <v>17</v>
       </c>
@@ -8620,23 +8727,23 @@
         <v>5</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K27" s="15"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" hidden="1">
       <c r="A28" s="24" t="s">
         <v>17</v>
       </c>
@@ -8647,23 +8754,23 @@
         <v>6</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
       <c r="J28" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K28" s="15"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29" s="24" t="s">
         <v>17</v>
       </c>
@@ -8674,23 +8781,23 @@
         <v>7</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
       <c r="J29" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K29" s="15"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="24" t="s">
         <v>17</v>
       </c>
@@ -8701,23 +8808,23 @@
         <v>8</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
       <c r="J30" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K30" s="15"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31" s="24" t="s">
         <v>17</v>
       </c>
@@ -8728,19 +8835,19 @@
         <v>9</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
       <c r="J31" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K31" s="15"/>
     </row>
@@ -8755,19 +8862,19 @@
         <v>1</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K32" s="15"/>
     </row>
@@ -8782,23 +8889,23 @@
         <v>1</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
       <c r="J33" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K33" s="15"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" s="18" t="s">
         <v>14</v>
       </c>
@@ -8809,27 +8916,27 @@
         <v>1</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I34" s="15"/>
       <c r="J34" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K34" s="15"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="18" t="s">
         <v>14</v>
       </c>
@@ -8840,27 +8947,27 @@
         <v>1</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36" s="18" t="s">
         <v>14</v>
       </c>
@@ -8871,27 +8978,27 @@
         <v>1</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I36" s="15"/>
       <c r="J36" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="21" t="s">
         <v>16</v>
       </c>
@@ -8902,27 +9009,27 @@
         <v>1</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I37" s="15"/>
       <c r="J37" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" hidden="1">
       <c r="A38" s="23" t="s">
         <v>18</v>
       </c>
@@ -8933,25 +9040,25 @@
         <v>1</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" s="21" t="s">
         <v>16</v>
       </c>
@@ -8962,23 +9069,23 @@
         <v>1</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
       <c r="J39" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" hidden="1">
       <c r="A40" s="18" t="s">
         <v>14</v>
       </c>
@@ -8989,23 +9096,23 @@
         <v>1</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
       <c r="J40" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" s="23" t="s">
         <v>18</v>
       </c>
@@ -9016,25 +9123,25 @@
         <v>1</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
       <c r="J41" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42" s="23" t="s">
         <v>18</v>
       </c>
@@ -9045,21 +9152,21 @@
         <v>2</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
       <c r="J42" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K42" s="15"/>
     </row>
@@ -9074,23 +9181,23 @@
         <v>1</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F43" s="15"/>
       <c r="G43" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
       <c r="J43" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" hidden="1">
       <c r="A44" s="24" t="s">
         <v>17</v>
       </c>
@@ -9101,25 +9208,25 @@
         <v>1</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
       <c r="J44" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" hidden="1">
       <c r="A45" s="24" t="s">
         <v>17</v>
       </c>
@@ -9130,23 +9237,23 @@
         <v>1</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I45" s="15"/>
       <c r="J45" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K45" s="15"/>
     </row>
@@ -9161,23 +9268,23 @@
         <v>1</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F46" s="15"/>
       <c r="G46" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
       <c r="J46" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" hidden="1">
       <c r="A47" s="23" t="s">
         <v>18</v>
       </c>
@@ -9188,21 +9295,21 @@
         <v>1</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
       <c r="J47" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K47" s="15"/>
     </row>
@@ -9217,23 +9324,23 @@
         <v>1</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
       <c r="J48" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K48" s="15"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49" s="21" t="s">
         <v>16</v>
       </c>
@@ -9244,21 +9351,21 @@
         <v>1</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
       <c r="J49" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K49" s="15"/>
     </row>
@@ -9273,21 +9380,23 @@
         <v>1</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="H50" s="15"/>
+      <c r="H50" s="15" t="s">
+        <v>164</v>
+      </c>
       <c r="I50" s="15"/>
       <c r="J50" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K50" s="15"/>
     </row>
@@ -9302,21 +9411,23 @@
         <v>1</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="H51" s="15"/>
+      <c r="H51" s="15" t="s">
+        <v>164</v>
+      </c>
       <c r="I51" s="15"/>
       <c r="J51" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K51" s="15"/>
     </row>
@@ -9331,23 +9442,23 @@
         <v>1</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F52" s="15"/>
       <c r="G52" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
       <c r="J52" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" hidden="1">
       <c r="A53" s="23" t="s">
         <v>18</v>
       </c>
@@ -9358,23 +9469,23 @@
         <v>1</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I53" s="15"/>
       <c r="J53" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K53" s="15"/>
     </row>
@@ -9389,25 +9500,27 @@
         <v>1</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G54" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="H54" s="15"/>
+      <c r="H54" s="38" t="s">
+        <v>173</v>
+      </c>
       <c r="I54" s="15"/>
       <c r="J54" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" s="23" t="s">
         <v>18</v>
       </c>
@@ -9418,25 +9531,25 @@
         <v>1</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
       <c r="J55" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" s="23" t="s">
         <v>18</v>
       </c>
@@ -9447,25 +9560,25 @@
         <v>1</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
       <c r="J56" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57" s="18" t="s">
         <v>14</v>
       </c>
@@ -9476,23 +9589,23 @@
         <v>1</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
       <c r="J57" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58" s="23" t="s">
         <v>18</v>
       </c>
@@ -9503,25 +9616,25 @@
         <v>1</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
       <c r="J58" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" hidden="1">
       <c r="A59" s="24" t="s">
         <v>17</v>
       </c>
@@ -9532,25 +9645,25 @@
         <v>1</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F59" s="15"/>
       <c r="G59" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="I59" s="15"/>
       <c r="J59" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" hidden="1">
       <c r="A60" s="23" t="s">
         <v>18</v>
       </c>
@@ -9561,27 +9674,27 @@
         <v>1</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I60" s="15"/>
       <c r="J60" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" hidden="1">
       <c r="A61" s="24" t="s">
         <v>17</v>
       </c>
@@ -9592,27 +9705,27 @@
         <v>1</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I61" s="15"/>
       <c r="J61" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" hidden="1">
       <c r="A62" s="23" t="s">
         <v>18</v>
       </c>
@@ -9623,25 +9736,25 @@
         <v>1</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
       <c r="J62" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K62" s="15"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" hidden="1">
       <c r="A63" s="24" t="s">
         <v>17</v>
       </c>
@@ -9652,21 +9765,21 @@
         <v>1</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
       <c r="J63" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K63" s="15"/>
     </row>
@@ -9681,21 +9794,21 @@
         <v>1</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
       <c r="J64" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K64" s="15"/>
     </row>
@@ -9710,23 +9823,23 @@
         <v>1</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F65" s="15"/>
       <c r="G65" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
       <c r="J65" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" hidden="1">
       <c r="A66" s="18" t="s">
         <v>14</v>
       </c>
@@ -9737,27 +9850,27 @@
         <v>1</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I66" s="15"/>
       <c r="J66" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" hidden="1">
       <c r="A67" s="21" t="s">
         <v>16</v>
       </c>
@@ -9768,27 +9881,27 @@
         <v>1</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I67" s="15"/>
       <c r="J67" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K67" s="15"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" hidden="1">
       <c r="A68" s="21" t="s">
         <v>16</v>
       </c>
@@ -9799,23 +9912,23 @@
         <v>1</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F68" s="15"/>
       <c r="G68" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H68" s="15"/>
       <c r="I68" s="15"/>
       <c r="J68" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K68" s="15"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" hidden="1">
       <c r="A69" s="23" t="s">
         <v>18</v>
       </c>
@@ -9826,24 +9939,30 @@
         <v>1</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F69" s="15"/>
       <c r="G69" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H69" s="15"/>
       <c r="I69" s="15"/>
       <c r="J69" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K69" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:G69" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Gabriel"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="G2:G69">
     <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -9881,13 +10000,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 G69" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G2:G69" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68 J69" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J69" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Sim,Não, Em Análise"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68 E69" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E69" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Enviado, Atrasado, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9897,11 +10016,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9968,22 +10088,24 @@
         <v>85</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="15"/>
+      <c r="H2" s="15" t="s">
+        <v>202</v>
+      </c>
       <c r="I2" s="15"/>
       <c r="J2" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
@@ -9994,23 +10116,23 @@
         <v>1</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K3" s="15"/>
     </row>
@@ -10025,23 +10147,23 @@
         <v>1</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" s="18" t="s">
         <v>14</v>
       </c>
@@ -10052,27 +10174,27 @@
         <v>1</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -10083,21 +10205,21 @@
         <v>1</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K6" s="15"/>
     </row>
@@ -10112,25 +10234,27 @@
         <v>1</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="15"/>
+      <c r="H7" s="15" t="s">
+        <v>206</v>
+      </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" hidden="1">
       <c r="A8" s="21" t="s">
         <v>16</v>
       </c>
@@ -10141,25 +10265,25 @@
         <v>1</v>
       </c>
       <c r="D8" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>97</v>
-      </c>
       <c r="G8" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
@@ -10170,23 +10294,23 @@
         <v>1</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -10197,25 +10321,25 @@
         <v>1</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" s="21" t="s">
         <v>16</v>
       </c>
@@ -10226,25 +10350,25 @@
         <v>1</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" s="21" t="s">
         <v>16</v>
       </c>
@@ -10255,25 +10379,25 @@
         <v>2</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" s="21" t="s">
         <v>16</v>
       </c>
@@ -10284,23 +10408,23 @@
         <v>3</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" s="21" t="s">
         <v>16</v>
       </c>
@@ -10311,25 +10435,25 @@
         <v>4</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
@@ -10341,22 +10465,22 @@
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" s="21" t="s">
         <v>16</v>
       </c>
@@ -10368,22 +10492,22 @@
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" s="18" t="s">
         <v>14</v>
       </c>
@@ -10394,25 +10518,25 @@
         <v>1</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" s="23" t="s">
         <v>18</v>
       </c>
@@ -10423,23 +10547,23 @@
         <v>1</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" s="18" t="s">
         <v>14</v>
       </c>
@@ -10450,23 +10574,23 @@
         <v>1</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="23" t="s">
         <v>18</v>
       </c>
@@ -10477,25 +10601,25 @@
         <v>1</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" s="18" t="s">
         <v>14</v>
       </c>
@@ -10506,25 +10630,25 @@
         <v>1</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K21" s="15"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22" s="23" t="s">
         <v>18</v>
       </c>
@@ -10535,23 +10659,23 @@
         <v>1</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" s="21" t="s">
         <v>16</v>
       </c>
@@ -10562,25 +10686,25 @@
         <v>1</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K23" s="15"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="24" t="s">
         <v>17</v>
       </c>
@@ -10591,23 +10715,23 @@
         <v>2</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="24" t="s">
         <v>17</v>
       </c>
@@ -10618,25 +10742,25 @@
         <v>3</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
       <c r="J25" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K25" s="15"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26" s="24" t="s">
         <v>17</v>
       </c>
@@ -10647,25 +10771,25 @@
         <v>4</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
       <c r="J26" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K26" s="15"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" hidden="1">
       <c r="A27" s="24" t="s">
         <v>17</v>
       </c>
@@ -10676,25 +10800,25 @@
         <v>5</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K27" s="15"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" hidden="1">
       <c r="A28" s="24" t="s">
         <v>17</v>
       </c>
@@ -10705,27 +10829,27 @@
         <v>6</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K28" s="15"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29" s="24" t="s">
         <v>17</v>
       </c>
@@ -10736,27 +10860,27 @@
         <v>7</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K29" s="15"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="24" t="s">
         <v>17</v>
       </c>
@@ -10767,27 +10891,27 @@
         <v>8</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="I30" s="15"/>
       <c r="J30" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K30" s="15"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31" s="24" t="s">
         <v>17</v>
       </c>
@@ -10798,19 +10922,19 @@
         <v>9</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
       <c r="J31" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K31" s="15"/>
     </row>
@@ -10825,19 +10949,19 @@
         <v>1</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K32" s="15"/>
     </row>
@@ -10852,23 +10976,23 @@
         <v>1</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
       <c r="J33" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K33" s="15"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" s="18" t="s">
         <v>14</v>
       </c>
@@ -10879,25 +11003,25 @@
         <v>1</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K34" s="15"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="18" t="s">
         <v>14</v>
       </c>
@@ -10908,25 +11032,25 @@
         <v>1</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
       <c r="J35" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36" s="18" t="s">
         <v>14</v>
       </c>
@@ -10937,25 +11061,25 @@
         <v>1</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
       <c r="J36" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="21" t="s">
         <v>16</v>
       </c>
@@ -10966,25 +11090,25 @@
         <v>1</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
       <c r="J37" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" hidden="1">
       <c r="A38" s="23" t="s">
         <v>18</v>
       </c>
@@ -10995,25 +11119,25 @@
         <v>1</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" s="21" t="s">
         <v>16</v>
       </c>
@@ -11024,23 +11148,23 @@
         <v>1</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
       <c r="J39" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" hidden="1">
       <c r="A40" s="18" t="s">
         <v>14</v>
       </c>
@@ -11051,23 +11175,23 @@
         <v>1</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
       <c r="J40" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" s="23" t="s">
         <v>18</v>
       </c>
@@ -11078,25 +11202,25 @@
         <v>1</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
       <c r="J41" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42" s="23" t="s">
         <v>18</v>
       </c>
@@ -11107,21 +11231,21 @@
         <v>2</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
       <c r="J42" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K42" s="15"/>
     </row>
@@ -11136,23 +11260,23 @@
         <v>1</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F43" s="15"/>
       <c r="G43" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
       <c r="J43" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" hidden="1">
       <c r="A44" s="24" t="s">
         <v>17</v>
       </c>
@@ -11163,25 +11287,25 @@
         <v>1</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
       <c r="J44" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" hidden="1">
       <c r="A45" s="24" t="s">
         <v>17</v>
       </c>
@@ -11192,23 +11316,23 @@
         <v>1</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="I45" s="15"/>
       <c r="J45" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K45" s="15"/>
     </row>
@@ -11223,23 +11347,23 @@
         <v>1</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F46" s="15"/>
       <c r="G46" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
       <c r="J46" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" hidden="1">
       <c r="A47" s="23" t="s">
         <v>18</v>
       </c>
@@ -11250,21 +11374,21 @@
         <v>1</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
       <c r="J47" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K47" s="15"/>
     </row>
@@ -11279,23 +11403,23 @@
         <v>1</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
       <c r="J48" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K48" s="15"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49" s="21" t="s">
         <v>16</v>
       </c>
@@ -11306,21 +11430,21 @@
         <v>1</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
       <c r="J49" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K49" s="15"/>
     </row>
@@ -11335,21 +11459,23 @@
         <v>1</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="H50" s="15"/>
+      <c r="H50" s="15" t="s">
+        <v>219</v>
+      </c>
       <c r="I50" s="15"/>
       <c r="J50" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K50" s="15"/>
     </row>
@@ -11364,21 +11490,23 @@
         <v>1</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="H51" s="15"/>
+      <c r="H51" s="15" t="s">
+        <v>220</v>
+      </c>
       <c r="I51" s="15"/>
       <c r="J51" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K51" s="15"/>
     </row>
@@ -11393,23 +11521,23 @@
         <v>1</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F52" s="15"/>
       <c r="G52" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
       <c r="J52" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" hidden="1">
       <c r="A53" s="23" t="s">
         <v>18</v>
       </c>
@@ -11420,21 +11548,21 @@
         <v>1</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
       <c r="J53" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K53" s="15"/>
     </row>
@@ -11449,25 +11577,27 @@
         <v>1</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G54" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="H54" s="15"/>
+      <c r="H54" s="15" t="s">
+        <v>222</v>
+      </c>
       <c r="I54" s="15"/>
       <c r="J54" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" s="23" t="s">
         <v>18</v>
       </c>
@@ -11478,23 +11608,23 @@
         <v>1</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
       <c r="J55" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" s="23" t="s">
         <v>18</v>
       </c>
@@ -11505,25 +11635,25 @@
         <v>1</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
       <c r="J56" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57" s="18" t="s">
         <v>14</v>
       </c>
@@ -11534,27 +11664,27 @@
         <v>1</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="I57" s="15"/>
       <c r="J57" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58" s="23" t="s">
         <v>18</v>
       </c>
@@ -11565,25 +11695,25 @@
         <v>1</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
       <c r="J58" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" hidden="1">
       <c r="A59" s="24" t="s">
         <v>17</v>
       </c>
@@ -11594,23 +11724,23 @@
         <v>1</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F59" s="15"/>
       <c r="G59" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
       <c r="J59" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" hidden="1">
       <c r="A60" s="23" t="s">
         <v>18</v>
       </c>
@@ -11621,27 +11751,27 @@
         <v>1</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="I60" s="15"/>
       <c r="J60" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" hidden="1">
       <c r="A61" s="24" t="s">
         <v>17</v>
       </c>
@@ -11652,29 +11782,29 @@
         <v>1</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H61" s="15"/>
       <c r="I61" s="15" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="J61" s="15" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K61" s="15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" hidden="1">
       <c r="A62" s="23" t="s">
         <v>18</v>
       </c>
@@ -11685,25 +11815,25 @@
         <v>1</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
       <c r="J62" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K62" s="15"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" hidden="1">
       <c r="A63" s="24" t="s">
         <v>17</v>
       </c>
@@ -11714,23 +11844,23 @@
         <v>1</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="I63" s="15"/>
       <c r="J63" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K63" s="15"/>
     </row>
@@ -11745,21 +11875,21 @@
         <v>1</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
       <c r="J64" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K64" s="15"/>
     </row>
@@ -11774,23 +11904,23 @@
         <v>1</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F65" s="15"/>
       <c r="G65" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
       <c r="J65" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" hidden="1">
       <c r="A66" s="18" t="s">
         <v>14</v>
       </c>
@@ -11801,27 +11931,27 @@
         <v>1</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="I66" s="15"/>
       <c r="J66" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" hidden="1">
       <c r="A67" s="21" t="s">
         <v>16</v>
       </c>
@@ -11832,25 +11962,25 @@
         <v>1</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
       <c r="J67" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K67" s="15"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" hidden="1">
       <c r="A68" s="21" t="s">
         <v>16</v>
       </c>
@@ -11861,25 +11991,25 @@
         <v>1</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H68" s="15"/>
       <c r="I68" s="15"/>
       <c r="J68" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K68" s="15"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" hidden="1">
       <c r="A69" s="23" t="s">
         <v>18</v>
       </c>
@@ -11890,24 +12020,30 @@
         <v>1</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F69" s="15"/>
       <c r="G69" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H69" s="15"/>
       <c r="I69" s="15"/>
       <c r="J69" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K69" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:G69" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Gabriel"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="G2:G69">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -11961,11 +12097,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12036,16 +12173,16 @@
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
@@ -12056,21 +12193,21 @@
         <v>1</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K3" s="15"/>
     </row>
@@ -12085,23 +12222,23 @@
         <v>1</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" s="18" t="s">
         <v>14</v>
       </c>
@@ -12112,27 +12249,27 @@
         <v>1</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -12143,21 +12280,21 @@
         <v>1</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K6" s="15"/>
     </row>
@@ -12172,25 +12309,27 @@
         <v>1</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="15"/>
+      <c r="H7" s="15" t="s">
+        <v>232</v>
+      </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" hidden="1">
       <c r="A8" s="21" t="s">
         <v>16</v>
       </c>
@@ -12201,23 +12340,23 @@
         <v>1</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
@@ -12228,23 +12367,23 @@
         <v>1</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -12255,25 +12394,25 @@
         <v>1</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" s="21" t="s">
         <v>16</v>
       </c>
@@ -12284,25 +12423,25 @@
         <v>1</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" s="21" t="s">
         <v>16</v>
       </c>
@@ -12313,25 +12452,25 @@
         <v>2</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" s="21" t="s">
         <v>16</v>
       </c>
@@ -12342,23 +12481,23 @@
         <v>3</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" s="21" t="s">
         <v>16</v>
       </c>
@@ -12369,25 +12508,25 @@
         <v>4</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
@@ -12399,22 +12538,22 @@
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" s="21" t="s">
         <v>16</v>
       </c>
@@ -12426,22 +12565,22 @@
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" s="18" t="s">
         <v>14</v>
       </c>
@@ -12452,25 +12591,25 @@
         <v>1</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" s="23" t="s">
         <v>18</v>
       </c>
@@ -12481,23 +12620,23 @@
         <v>1</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" s="18" t="s">
         <v>14</v>
       </c>
@@ -12508,23 +12647,23 @@
         <v>1</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="23" t="s">
         <v>18</v>
       </c>
@@ -12535,25 +12674,25 @@
         <v>1</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" s="18" t="s">
         <v>14</v>
       </c>
@@ -12564,27 +12703,27 @@
         <v>1</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K21" s="15"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22" s="23" t="s">
         <v>18</v>
       </c>
@@ -12595,23 +12734,23 @@
         <v>1</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" s="21" t="s">
         <v>16</v>
       </c>
@@ -12622,25 +12761,25 @@
         <v>1</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K23" s="15"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="24" t="s">
         <v>17</v>
       </c>
@@ -12651,23 +12790,23 @@
         <v>2</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="24" t="s">
         <v>17</v>
       </c>
@@ -12678,25 +12817,25 @@
         <v>3</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
       <c r="J25" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K25" s="15"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26" s="24" t="s">
         <v>17</v>
       </c>
@@ -12707,23 +12846,23 @@
         <v>4</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
       <c r="J26" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K26" s="15"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" hidden="1">
       <c r="A27" s="24" t="s">
         <v>17</v>
       </c>
@@ -12734,25 +12873,25 @@
         <v>5</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K27" s="15"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" hidden="1">
       <c r="A28" s="24" t="s">
         <v>17</v>
       </c>
@@ -12763,27 +12902,27 @@
         <v>6</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K28" s="15"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29" s="24" t="s">
         <v>17</v>
       </c>
@@ -12794,27 +12933,27 @@
         <v>7</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K29" s="15"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="24" t="s">
         <v>17</v>
       </c>
@@ -12825,27 +12964,27 @@
         <v>8</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="I30" s="15"/>
       <c r="J30" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K30" s="15"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31" s="24" t="s">
         <v>17</v>
       </c>
@@ -12856,19 +12995,19 @@
         <v>9</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
       <c r="J31" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K31" s="15"/>
     </row>
@@ -12883,19 +13022,19 @@
         <v>1</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K32" s="15"/>
     </row>
@@ -12910,23 +13049,23 @@
         <v>1</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
       <c r="J33" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K33" s="15"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" s="18" t="s">
         <v>14</v>
       </c>
@@ -12937,25 +13076,25 @@
         <v>1</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K34" s="15"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="18" t="s">
         <v>14</v>
       </c>
@@ -12966,25 +13105,25 @@
         <v>1</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
       <c r="J35" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36" s="18" t="s">
         <v>14</v>
       </c>
@@ -12995,25 +13134,25 @@
         <v>1</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
       <c r="J36" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="21" t="s">
         <v>16</v>
       </c>
@@ -13024,25 +13163,25 @@
         <v>1</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
       <c r="J37" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" hidden="1">
       <c r="A38" s="23" t="s">
         <v>18</v>
       </c>
@@ -13053,25 +13192,25 @@
         <v>1</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" s="21" t="s">
         <v>16</v>
       </c>
@@ -13082,23 +13221,23 @@
         <v>1</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
       <c r="J39" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" hidden="1">
       <c r="A40" s="18" t="s">
         <v>14</v>
       </c>
@@ -13109,23 +13248,23 @@
         <v>1</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
       <c r="J40" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" s="23" t="s">
         <v>18</v>
       </c>
@@ -13136,25 +13275,25 @@
         <v>1</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
       <c r="J41" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42" s="23" t="s">
         <v>18</v>
       </c>
@@ -13165,21 +13304,21 @@
         <v>2</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
       <c r="J42" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K42" s="15"/>
     </row>
@@ -13194,23 +13333,23 @@
         <v>1</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F43" s="15"/>
       <c r="G43" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
       <c r="J43" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" hidden="1">
       <c r="A44" s="24" t="s">
         <v>17</v>
       </c>
@@ -13221,25 +13360,25 @@
         <v>1</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
       <c r="J44" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" hidden="1">
       <c r="A45" s="24" t="s">
         <v>17</v>
       </c>
@@ -13250,23 +13389,23 @@
         <v>1</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="I45" s="15"/>
       <c r="J45" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K45" s="15"/>
     </row>
@@ -13281,23 +13420,23 @@
         <v>1</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F46" s="15"/>
       <c r="G46" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
       <c r="J46" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" hidden="1">
       <c r="A47" s="23" t="s">
         <v>18</v>
       </c>
@@ -13308,21 +13447,21 @@
         <v>1</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
       <c r="J47" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K47" s="15"/>
     </row>
@@ -13337,23 +13476,23 @@
         <v>1</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
       <c r="J48" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K48" s="15"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49" s="21" t="s">
         <v>16</v>
       </c>
@@ -13364,21 +13503,21 @@
         <v>1</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
       <c r="J49" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K49" s="15"/>
     </row>
@@ -13393,21 +13532,23 @@
         <v>1</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="H50" s="15"/>
+      <c r="H50" s="15" t="s">
+        <v>240</v>
+      </c>
       <c r="I50" s="15"/>
       <c r="J50" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K50" s="15"/>
     </row>
@@ -13422,21 +13563,23 @@
         <v>1</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="H51" s="15"/>
+      <c r="H51" s="15" t="s">
+        <v>241</v>
+      </c>
       <c r="I51" s="15"/>
       <c r="J51" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K51" s="15"/>
     </row>
@@ -13451,23 +13594,23 @@
         <v>1</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F52" s="15"/>
       <c r="G52" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
       <c r="J52" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" hidden="1">
       <c r="A53" s="23" t="s">
         <v>18</v>
       </c>
@@ -13478,21 +13621,21 @@
         <v>1</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
       <c r="J53" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K53" s="15"/>
     </row>
@@ -13507,25 +13650,27 @@
         <v>1</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G54" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="H54" s="15"/>
+      <c r="H54" s="15" t="s">
+        <v>242</v>
+      </c>
       <c r="I54" s="15"/>
       <c r="J54" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" s="23" t="s">
         <v>18</v>
       </c>
@@ -13536,23 +13681,23 @@
         <v>1</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
       <c r="J55" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" s="23" t="s">
         <v>18</v>
       </c>
@@ -13563,25 +13708,25 @@
         <v>1</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
       <c r="J56" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57" s="18" t="s">
         <v>14</v>
       </c>
@@ -13592,23 +13737,23 @@
         <v>1</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
       <c r="J57" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58" s="23" t="s">
         <v>18</v>
       </c>
@@ -13619,25 +13764,25 @@
         <v>1</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
       <c r="J58" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" hidden="1">
       <c r="A59" s="24" t="s">
         <v>17</v>
       </c>
@@ -13648,23 +13793,23 @@
         <v>1</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F59" s="15"/>
       <c r="G59" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
       <c r="J59" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" hidden="1">
       <c r="A60" s="23" t="s">
         <v>18</v>
       </c>
@@ -13675,25 +13820,25 @@
         <v>1</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
       <c r="J60" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" hidden="1">
       <c r="A61" s="24" t="s">
         <v>17</v>
       </c>
@@ -13704,25 +13849,25 @@
         <v>1</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
       <c r="J61" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" hidden="1">
       <c r="A62" s="23" t="s">
         <v>18</v>
       </c>
@@ -13733,25 +13878,25 @@
         <v>1</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
       <c r="J62" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K62" s="15"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" hidden="1">
       <c r="A63" s="24" t="s">
         <v>17</v>
       </c>
@@ -13762,21 +13907,21 @@
         <v>1</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
       <c r="J63" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K63" s="15"/>
     </row>
@@ -13791,21 +13936,21 @@
         <v>1</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
       <c r="J64" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K64" s="15"/>
     </row>
@@ -13820,25 +13965,25 @@
         <v>1</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
       <c r="J65" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" hidden="1">
       <c r="A66" s="18" t="s">
         <v>14</v>
       </c>
@@ -13849,25 +13994,25 @@
         <v>1</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
       <c r="J66" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" hidden="1">
       <c r="A67" s="21" t="s">
         <v>16</v>
       </c>
@@ -13878,25 +14023,25 @@
         <v>1</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
       <c r="J67" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K67" s="15"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" hidden="1">
       <c r="A68" s="21" t="s">
         <v>16</v>
       </c>
@@ -13907,25 +14052,25 @@
         <v>1</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H68" s="15"/>
       <c r="I68" s="15"/>
       <c r="J68" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K68" s="15"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" hidden="1">
       <c r="A69" s="23" t="s">
         <v>18</v>
       </c>
@@ -13936,24 +14081,30 @@
         <v>1</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F69" s="15"/>
       <c r="G69" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H69" s="15"/>
       <c r="I69" s="15"/>
       <c r="J69" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K69" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:G69" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Gabriel"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="G2:G69">
     <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>

--- a/inputs/0 - GRS II/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - GRS II/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29113"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_695776339CADB6EA0FAE7CF348DEF5C7DA69C8F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{600BE2AF-2AA1-4352-B672-DF6C8B394C22}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_695776335F3570E8294C7EF348DEF5C7DA69C8D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A3E3645-CA24-4AA1-BE2F-3E34ECFFE820}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -2112,7 +2112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7955,7 +7955,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D69" sqref="D69"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10021,7 +10021,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D16" sqref="D16"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12169,9 +12169,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D56" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D68" sqref="D68"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/inputs/0 - GRS II/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - GRS II/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29122"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_68577633A29D37841D7DFD9DA0BEEAD2C22BE825" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{141BA853-7EFE-4195-8945-EB4FD4F642D8}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_68577633A29DBEEA9DBFF19DA0BEEAD2C22BE825" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF367CF8-D42F-4A76-AC05-2EB56FAFF5B7}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2333,11 +2333,11 @@
       </c>
       <c r="B12" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!G2:G100"),"Sim")</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="29">
         <f ca="1">$B$12/$B$4</f>
-        <v>0.47826086956521741</v>
+        <v>0.45652173913043476</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
@@ -2400,11 +2400,11 @@
       </c>
       <c r="F17" s="30">
         <f t="array" aca="1" ref="F17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G17" s="29">
         <f ca="1">F17/B4</f>
-        <v>0.15217391304347827</v>
+        <v>0.13043478260869565</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2545,11 +2545,11 @@
       </c>
       <c r="F22" s="31">
         <f ca="1">SUM(F17:F21)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G22" s="32">
         <f ca="1">SUM(G17:G21)</f>
-        <v>0.26581027667984192</v>
+        <v>0.2440711462450593</v>
       </c>
     </row>
   </sheetData>
@@ -2567,9 +2567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:F14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7962,8 +7960,8 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D53" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F64" sqref="F64"/>
+      <pane xSplit="3" topLeftCell="D41" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10032,8 +10030,8 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F64" sqref="F64"/>
+      <pane xSplit="3" topLeftCell="D52" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12188,8 +12186,8 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F64" sqref="F64"/>
+      <pane xSplit="3" topLeftCell="D52" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12501,7 +12499,7 @@
         <v>239</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>

--- a/inputs/0 - GRS II/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - GRS II/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29130"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_68577633A29DBEEA9DBFF19DA0BEEAD2C22BE825" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF367CF8-D42F-4A76-AC05-2EB56FAFF5B7}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_68577633CDEDF8B6074FE096D4FDECD2C22BEFEB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37FFF529-1618-4ACE-8227-9F76E35F7C38}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="257">
   <si>
     <t>Formulário</t>
   </si>
@@ -637,6 +637,12 @@
     <t xml:space="preserve">Graziela Gobbato / Suzana Cristina de Almeida </t>
   </si>
   <si>
+    <t>29/07/2025</t>
+  </si>
+  <si>
+    <t>revisar: resíduos são pesados; valor das despesas com coletas</t>
+  </si>
+  <si>
     <t>Alice Cristiane Zancheta</t>
   </si>
   <si>
@@ -795,6 +801,15 @@
   </si>
   <si>
     <t>09/05/2025</t>
+  </si>
+  <si>
+    <t>24/03/2025, 28/07/2025, 29/07/2025</t>
+  </si>
+  <si>
+    <t>Corrigir nome da presidente</t>
+  </si>
+  <si>
+    <t>ID115, ID187</t>
   </si>
   <si>
     <t>17/06/2025</t>
@@ -2164,19 +2179,19 @@
       </c>
       <c r="B2" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 1 - Município'!E2:E100"),"Enviado")</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="27">
         <f ca="1">B2/SUM($B2,$D2,$F2)</f>
-        <v>0.6</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D2" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 1 - Município'!E2:E100"),"Atrasado")</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="27">
         <f ca="1">D2/SUM($B2,$D2,$F2)</f>
-        <v>0.4</v>
+        <v>0.38333333333333336</v>
       </c>
       <c r="F2" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 1 - Município'!E2:E100"),"Sem Técnico")</f>
@@ -2230,11 +2245,11 @@
       </c>
       <c r="B4" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!E2:E100"),"Enviado")</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="27">
         <f ca="1">B4/SUM($B4,$D4,$F4)</f>
-        <v>0.70769230769230773</v>
+        <v>0.703125</v>
       </c>
       <c r="D4" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!E2:E100"),"Atrasado")</f>
@@ -2242,7 +2257,7 @@
       </c>
       <c r="E4" s="27">
         <f ca="1">D4/SUM($B4,$D4,$F4)</f>
-        <v>0.29230769230769232</v>
+        <v>0.296875</v>
       </c>
       <c r="F4" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!E2:E100"),"Sem Técnico")</f>
@@ -2254,7 +2269,7 @@
       </c>
       <c r="H4" s="28">
         <f ca="1">SUM(B4,D4,F4)</f>
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
@@ -2267,15 +2282,15 @@
       </c>
       <c r="C5" s="27">
         <f ca="1">B5/SUM($B5,$D5,$F5)</f>
-        <v>0.69473684210526321</v>
+        <v>0.69841269841269837</v>
       </c>
       <c r="D5" s="28">
         <f ca="1">SUM(D2:D4)</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="27">
         <f ca="1">D5/SUM($B5,$D5,$F5)</f>
-        <v>0.30526315789473685</v>
+        <v>0.30158730158730157</v>
       </c>
       <c r="F5" s="28">
         <f ca="1">SUM(F2:F4)</f>
@@ -2287,7 +2302,7 @@
       </c>
       <c r="H5" s="28">
         <f ca="1">SUM(B5,D5,F5)</f>
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1">
@@ -2307,11 +2322,11 @@
       </c>
       <c r="B10" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 1 - Município'!G2:G100"),"Sim")</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="29">
         <f ca="1">$B$10/$B$2</f>
-        <v>0.61111111111111116</v>
+        <v>0.6216216216216216</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
@@ -2337,7 +2352,7 @@
       </c>
       <c r="C12" s="29">
         <f ca="1">$B$12/$B$4</f>
-        <v>0.45652173913043476</v>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
@@ -2388,7 +2403,7 @@
       </c>
       <c r="C17" s="29">
         <f ca="1">B17/B2</f>
-        <v>0.16666666666666666</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="D17" s="30">
         <f t="array" aca="1" ref="D17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
@@ -2400,11 +2415,11 @@
       </c>
       <c r="F17" s="30">
         <f t="array" aca="1" ref="F17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G17" s="29">
         <f ca="1">F17/B4</f>
-        <v>0.13043478260869565</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2413,11 +2428,11 @@
       </c>
       <c r="B18" s="30">
         <f t="array" aca="1" ref="B18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="29">
         <f ca="1">B18/B2</f>
-        <v>0.1388888888888889</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="D18" s="30">
         <f t="array" aca="1" ref="D18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
@@ -2429,11 +2444,11 @@
       </c>
       <c r="F18" s="30">
         <f t="array" aca="1" ref="F18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18" s="29">
         <f ca="1">F18/B5</f>
-        <v>3.0303030303030304E-2</v>
+        <v>3.787878787878788E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2475,7 +2490,7 @@
       </c>
       <c r="C20" s="29">
         <f ca="1">B20/B2</f>
-        <v>0.1388888888888889</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="D20" s="30">
         <f t="array" aca="1" ref="D20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
@@ -2504,7 +2519,7 @@
       </c>
       <c r="C21" s="29">
         <f ca="1">B21/B2</f>
-        <v>0.16666666666666666</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="D21" s="30">
         <f t="array" aca="1" ref="D21" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
@@ -2529,11 +2544,11 @@
       </c>
       <c r="B22" s="31">
         <f ca="1">SUM(B17:B21)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="32">
         <f ca="1">SUM(C17:C21)</f>
-        <v>0.61111111111111116</v>
+        <v>0.62162162162162171</v>
       </c>
       <c r="D22" s="31">
         <f ca="1">SUM(D17:D21)</f>
@@ -2549,7 +2564,7 @@
       </c>
       <c r="G22" s="32">
         <f ca="1">SUM(G17:G21)</f>
-        <v>0.2440711462450593</v>
+        <v>0.23232323232323229</v>
       </c>
     </row>
   </sheetData>
@@ -4627,7 +4642,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="E15" s="13" t="str">
         <f t="array" aca="1" ref="E15" ca="1">IF(
@@ -4671,7 +4686,7 @@
         FALSE
     )
 )</f>
-        <v>Enviado</v>
+        <v>Duplicado</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
@@ -7957,11 +7972,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D41" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8045,7 +8061,7 @@
       </c>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
@@ -8101,7 +8117,7 @@
       </c>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" s="19" t="s">
         <v>14</v>
       </c>
@@ -8130,7 +8146,7 @@
       </c>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
@@ -8190,7 +8206,7 @@
       </c>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" hidden="1">
       <c r="A8" s="22" t="s">
         <v>16</v>
       </c>
@@ -8221,7 +8237,7 @@
       </c>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="19" t="s">
         <v>14</v>
       </c>
@@ -8248,7 +8264,7 @@
       </c>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" s="19" t="s">
         <v>14</v>
       </c>
@@ -8277,7 +8293,7 @@
       </c>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" s="22" t="s">
         <v>16</v>
       </c>
@@ -8306,7 +8322,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" s="22" t="s">
         <v>16</v>
       </c>
@@ -8335,7 +8351,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" s="22" t="s">
         <v>16</v>
       </c>
@@ -8364,7 +8380,7 @@
       </c>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" s="22" t="s">
         <v>16</v>
       </c>
@@ -8393,7 +8409,7 @@
       </c>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" s="22" t="s">
         <v>16</v>
       </c>
@@ -8420,7 +8436,7 @@
       </c>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" s="22" t="s">
         <v>16</v>
       </c>
@@ -8449,7 +8465,7 @@
       </c>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" s="19" t="s">
         <v>14</v>
       </c>
@@ -8478,7 +8494,7 @@
       </c>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" s="24" t="s">
         <v>18</v>
       </c>
@@ -8507,7 +8523,7 @@
       </c>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" s="19" t="s">
         <v>14</v>
       </c>
@@ -8534,7 +8550,7 @@
       </c>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="24" t="s">
         <v>18</v>
       </c>
@@ -8563,7 +8579,7 @@
       </c>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" s="19" t="s">
         <v>14</v>
       </c>
@@ -8592,7 +8608,7 @@
       </c>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22" s="24" t="s">
         <v>18</v>
       </c>
@@ -8619,7 +8635,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" s="22" t="s">
         <v>16</v>
       </c>
@@ -8648,7 +8664,7 @@
       </c>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="25" t="s">
         <v>17</v>
       </c>
@@ -8675,7 +8691,7 @@
       </c>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="25" t="s">
         <v>17</v>
       </c>
@@ -8702,7 +8718,7 @@
       </c>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26" s="25" t="s">
         <v>17</v>
       </c>
@@ -8729,7 +8745,7 @@
       </c>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" hidden="1">
       <c r="A27" s="25" t="s">
         <v>17</v>
       </c>
@@ -8756,7 +8772,7 @@
       </c>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" hidden="1">
       <c r="A28" s="25" t="s">
         <v>17</v>
       </c>
@@ -8783,7 +8799,7 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29" s="25" t="s">
         <v>17</v>
       </c>
@@ -8810,7 +8826,7 @@
       </c>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="25" t="s">
         <v>17</v>
       </c>
@@ -8837,7 +8853,7 @@
       </c>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31" s="25" t="s">
         <v>17</v>
       </c>
@@ -8918,7 +8934,7 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" s="19" t="s">
         <v>14</v>
       </c>
@@ -8949,7 +8965,7 @@
       </c>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="19" t="s">
         <v>14</v>
       </c>
@@ -8980,7 +8996,7 @@
       </c>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36" s="19" t="s">
         <v>14</v>
       </c>
@@ -9011,7 +9027,7 @@
       </c>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="22" t="s">
         <v>16</v>
       </c>
@@ -9042,7 +9058,7 @@
       </c>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" hidden="1">
       <c r="A38" s="24" t="s">
         <v>18</v>
       </c>
@@ -9071,7 +9087,7 @@
       </c>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" s="22" t="s">
         <v>16</v>
       </c>
@@ -9100,7 +9116,7 @@
       </c>
       <c r="K39" s="16"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" hidden="1">
       <c r="A40" s="19" t="s">
         <v>14</v>
       </c>
@@ -9127,7 +9143,7 @@
       </c>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" s="24" t="s">
         <v>18</v>
       </c>
@@ -9156,7 +9172,7 @@
       </c>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42" s="24" t="s">
         <v>18</v>
       </c>
@@ -9212,7 +9228,7 @@
       </c>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" hidden="1">
       <c r="A44" s="25" t="s">
         <v>17</v>
       </c>
@@ -9241,7 +9257,7 @@
       </c>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" hidden="1">
       <c r="A45" s="25" t="s">
         <v>17</v>
       </c>
@@ -9299,7 +9315,7 @@
       </c>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" hidden="1">
       <c r="A47" s="24" t="s">
         <v>18</v>
       </c>
@@ -9355,7 +9371,7 @@
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49" s="22" t="s">
         <v>16</v>
       </c>
@@ -9473,7 +9489,7 @@
       </c>
       <c r="K52" s="16"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" hidden="1">
       <c r="A53" s="24" t="s">
         <v>18</v>
       </c>
@@ -9535,7 +9551,7 @@
       </c>
       <c r="K54" s="16"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" s="24" t="s">
         <v>18</v>
       </c>
@@ -9564,7 +9580,7 @@
       </c>
       <c r="K55" s="16"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" s="24" t="s">
         <v>18</v>
       </c>
@@ -9593,7 +9609,7 @@
       </c>
       <c r="K56" s="16"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57" s="19" t="s">
         <v>14</v>
       </c>
@@ -9620,7 +9636,7 @@
       </c>
       <c r="K57" s="16"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58" s="24" t="s">
         <v>18</v>
       </c>
@@ -9649,7 +9665,7 @@
       </c>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" hidden="1">
       <c r="A59" s="25" t="s">
         <v>17</v>
       </c>
@@ -9680,7 +9696,7 @@
       </c>
       <c r="K59" s="16"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" hidden="1">
       <c r="A60" s="24" t="s">
         <v>18</v>
       </c>
@@ -9711,7 +9727,7 @@
       </c>
       <c r="K60" s="16"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" hidden="1">
       <c r="A61" s="25" t="s">
         <v>17</v>
       </c>
@@ -9742,7 +9758,7 @@
       </c>
       <c r="K61" s="16"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" hidden="1">
       <c r="A62" s="24" t="s">
         <v>18</v>
       </c>
@@ -9771,7 +9787,7 @@
       </c>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" hidden="1">
       <c r="A63" s="25" t="s">
         <v>17</v>
       </c>
@@ -9842,21 +9858,25 @@
       <c r="D65" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="E65" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F65" s="16"/>
+      <c r="E65" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>198</v>
+      </c>
       <c r="G65" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H65" s="16"/>
+        <v>88</v>
+      </c>
+      <c r="H65" s="16" t="s">
+        <v>199</v>
+      </c>
       <c r="I65" s="16"/>
       <c r="J65" s="16" t="s">
         <v>90</v>
       </c>
       <c r="K65" s="16"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" hidden="1">
       <c r="A66" s="19" t="s">
         <v>14</v>
       </c>
@@ -9867,7 +9887,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>86</v>
@@ -9879,7 +9899,7 @@
         <v>88</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I66" s="16"/>
       <c r="J66" s="16" t="s">
@@ -9887,7 +9907,7 @@
       </c>
       <c r="K66" s="16"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" hidden="1">
       <c r="A67" s="22" t="s">
         <v>16</v>
       </c>
@@ -9898,19 +9918,19 @@
         <v>1</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E67" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G67" s="21" t="s">
         <v>90</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I67" s="16"/>
       <c r="J67" s="16" t="s">
@@ -9918,7 +9938,7 @@
       </c>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" hidden="1">
       <c r="A68" s="22" t="s">
         <v>16</v>
       </c>
@@ -9929,7 +9949,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E68" s="20" t="s">
         <v>92</v>
@@ -9945,7 +9965,7 @@
       </c>
       <c r="K68" s="16"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" hidden="1">
       <c r="A69" s="24" t="s">
         <v>18</v>
       </c>
@@ -9956,7 +9976,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E69" s="20" t="s">
         <v>92</v>
@@ -9973,7 +9993,13 @@
       <c r="K69" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:G69" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Gabriel"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="G2:G69">
     <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -10027,10 +10053,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D52" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -10102,13 +10129,13 @@
         <v>86</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="16" t="s">
@@ -10116,7 +10143,7 @@
       </c>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
@@ -10140,7 +10167,7 @@
         <v>88</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="16" t="s">
@@ -10166,7 +10193,7 @@
         <v>86</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>90</v>
@@ -10178,7 +10205,7 @@
       </c>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" s="19" t="s">
         <v>14</v>
       </c>
@@ -10202,7 +10229,7 @@
         <v>88</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16" t="s">
@@ -10210,7 +10237,7 @@
       </c>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
@@ -10228,7 +10255,7 @@
         <v>86</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>90</v>
@@ -10264,7 +10291,7 @@
         <v>88</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16" t="s">
@@ -10272,7 +10299,7 @@
       </c>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" hidden="1">
       <c r="A8" s="22" t="s">
         <v>16</v>
       </c>
@@ -10302,7 +10329,7 @@
       </c>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="19" t="s">
         <v>14</v>
       </c>
@@ -10330,7 +10357,7 @@
       </c>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" s="19" t="s">
         <v>14</v>
       </c>
@@ -10348,7 +10375,7 @@
         <v>86</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>88</v>
@@ -10360,7 +10387,7 @@
       </c>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" s="22" t="s">
         <v>16</v>
       </c>
@@ -10390,7 +10417,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" s="22" t="s">
         <v>16</v>
       </c>
@@ -10420,7 +10447,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" s="22" t="s">
         <v>16</v>
       </c>
@@ -10450,7 +10477,7 @@
       </c>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" s="22" t="s">
         <v>16</v>
       </c>
@@ -10468,7 +10495,7 @@
         <v>107</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>90</v>
@@ -10480,7 +10507,7 @@
       </c>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" s="22" t="s">
         <v>16</v>
       </c>
@@ -10498,7 +10525,7 @@
         <v>86</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G15" s="21" t="s">
         <v>90</v>
@@ -10510,7 +10537,7 @@
       </c>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" s="22" t="s">
         <v>16</v>
       </c>
@@ -10528,7 +10555,7 @@
         <v>86</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G16" s="21" t="s">
         <v>90</v>
@@ -10540,7 +10567,7 @@
       </c>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" s="19" t="s">
         <v>14</v>
       </c>
@@ -10570,7 +10597,7 @@
       </c>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" s="24" t="s">
         <v>18</v>
       </c>
@@ -10598,7 +10625,7 @@
       </c>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" s="19" t="s">
         <v>14</v>
       </c>
@@ -10626,7 +10653,7 @@
       </c>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="24" t="s">
         <v>18</v>
       </c>
@@ -10656,7 +10683,7 @@
       </c>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" s="19" t="s">
         <v>14</v>
       </c>
@@ -10686,7 +10713,7 @@
       </c>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22" s="24" t="s">
         <v>18</v>
       </c>
@@ -10704,7 +10731,7 @@
         <v>86</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G22" s="21" t="s">
         <v>90</v>
@@ -10716,7 +10743,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" s="22" t="s">
         <v>16</v>
       </c>
@@ -10734,7 +10761,7 @@
         <v>86</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G23" s="21" t="s">
         <v>90</v>
@@ -10746,7 +10773,7 @@
       </c>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="25" t="s">
         <v>17</v>
       </c>
@@ -10776,7 +10803,7 @@
       </c>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="25" t="s">
         <v>17</v>
       </c>
@@ -10794,7 +10821,7 @@
         <v>86</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G25" s="21" t="s">
         <v>90</v>
@@ -10806,7 +10833,7 @@
       </c>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26" s="25" t="s">
         <v>17</v>
       </c>
@@ -10836,7 +10863,7 @@
       </c>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" hidden="1">
       <c r="A27" s="25" t="s">
         <v>17</v>
       </c>
@@ -10854,7 +10881,7 @@
         <v>86</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G27" s="21" t="s">
         <v>90</v>
@@ -10866,7 +10893,7 @@
       </c>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" hidden="1">
       <c r="A28" s="25" t="s">
         <v>17</v>
       </c>
@@ -10890,7 +10917,7 @@
         <v>88</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I28" s="16"/>
       <c r="J28" s="16" t="s">
@@ -10898,7 +10925,7 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29" s="25" t="s">
         <v>17</v>
       </c>
@@ -10922,7 +10949,7 @@
         <v>88</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I29" s="16"/>
       <c r="J29" s="16" t="s">
@@ -10930,7 +10957,7 @@
       </c>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="25" t="s">
         <v>17</v>
       </c>
@@ -10948,13 +10975,13 @@
         <v>86</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="16" t="s">
@@ -10962,7 +10989,7 @@
       </c>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31" s="25" t="s">
         <v>17</v>
       </c>
@@ -11048,7 +11075,7 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" s="19" t="s">
         <v>14</v>
       </c>
@@ -11066,7 +11093,7 @@
         <v>86</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G34" s="18" t="s">
         <v>88</v>
@@ -11078,7 +11105,7 @@
       </c>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="19" t="s">
         <v>14</v>
       </c>
@@ -11108,7 +11135,7 @@
       </c>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36" s="19" t="s">
         <v>14</v>
       </c>
@@ -11126,7 +11153,7 @@
         <v>86</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>88</v>
@@ -11138,7 +11165,7 @@
       </c>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="22" t="s">
         <v>16</v>
       </c>
@@ -11168,7 +11195,7 @@
       </c>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" hidden="1">
       <c r="A38" s="24" t="s">
         <v>18</v>
       </c>
@@ -11198,7 +11225,7 @@
       </c>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" s="22" t="s">
         <v>16</v>
       </c>
@@ -11226,7 +11253,7 @@
       </c>
       <c r="K39" s="16"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" hidden="1">
       <c r="A40" s="19" t="s">
         <v>14</v>
       </c>
@@ -11254,7 +11281,7 @@
       </c>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" s="24" t="s">
         <v>18</v>
       </c>
@@ -11284,7 +11311,7 @@
       </c>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42" s="24" t="s">
         <v>18</v>
       </c>
@@ -11342,7 +11369,7 @@
       </c>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" hidden="1">
       <c r="A44" s="25" t="s">
         <v>17</v>
       </c>
@@ -11372,7 +11399,7 @@
       </c>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" hidden="1">
       <c r="A45" s="25" t="s">
         <v>17</v>
       </c>
@@ -11396,7 +11423,7 @@
         <v>88</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I45" s="16"/>
       <c r="J45" s="16" t="s">
@@ -11432,7 +11459,7 @@
       </c>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" hidden="1">
       <c r="A47" s="24" t="s">
         <v>18</v>
       </c>
@@ -11450,7 +11477,7 @@
         <v>86</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G47" s="18" t="s">
         <v>88</v>
@@ -11490,7 +11517,7 @@
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49" s="22" t="s">
         <v>16</v>
       </c>
@@ -11508,7 +11535,7 @@
         <v>107</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G49" s="21" t="s">
         <v>90</v>
@@ -11544,7 +11571,7 @@
         <v>88</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I50" s="16"/>
       <c r="J50" s="16" t="s">
@@ -11576,7 +11603,7 @@
         <v>88</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I51" s="16"/>
       <c r="J51" s="16" t="s">
@@ -11612,7 +11639,7 @@
       </c>
       <c r="K52" s="16"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" hidden="1">
       <c r="A53" s="24" t="s">
         <v>18</v>
       </c>
@@ -11630,7 +11657,7 @@
         <v>86</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G53" s="18" t="s">
         <v>88</v>
@@ -11660,13 +11687,13 @@
         <v>86</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G54" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I54" s="16"/>
       <c r="J54" s="16" t="s">
@@ -11674,7 +11701,7 @@
       </c>
       <c r="K54" s="16"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" s="24" t="s">
         <v>18</v>
       </c>
@@ -11702,7 +11729,7 @@
       </c>
       <c r="K55" s="16"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" s="24" t="s">
         <v>18</v>
       </c>
@@ -11720,7 +11747,7 @@
         <v>86</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G56" s="21" t="s">
         <v>90</v>
@@ -11732,7 +11759,7 @@
       </c>
       <c r="K56" s="16"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57" s="19" t="s">
         <v>14</v>
       </c>
@@ -11756,7 +11783,7 @@
         <v>88</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I57" s="16"/>
       <c r="J57" s="16" t="s">
@@ -11764,7 +11791,7 @@
       </c>
       <c r="K57" s="16"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58" s="24" t="s">
         <v>18</v>
       </c>
@@ -11794,7 +11821,7 @@
       </c>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" hidden="1">
       <c r="A59" s="25" t="s">
         <v>17</v>
       </c>
@@ -11822,7 +11849,7 @@
       </c>
       <c r="K59" s="16"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" hidden="1">
       <c r="A60" s="24" t="s">
         <v>18</v>
       </c>
@@ -11846,7 +11873,7 @@
         <v>88</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I60" s="16"/>
       <c r="J60" s="16" t="s">
@@ -11854,7 +11881,7 @@
       </c>
       <c r="K60" s="16"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" hidden="1">
       <c r="A61" s="25" t="s">
         <v>17</v>
       </c>
@@ -11879,16 +11906,16 @@
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="J61" s="16" t="s">
         <v>88</v>
       </c>
       <c r="K61" s="16" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" hidden="1">
       <c r="A62" s="24" t="s">
         <v>18</v>
       </c>
@@ -11918,7 +11945,7 @@
       </c>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" hidden="1">
       <c r="A63" s="25" t="s">
         <v>17</v>
       </c>
@@ -11942,7 +11969,7 @@
         <v>88</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I63" s="16"/>
       <c r="J63" s="16" t="s">
@@ -11968,7 +11995,7 @@
         <v>107</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G64" s="21" t="s">
         <v>90</v>
@@ -12008,7 +12035,7 @@
       </c>
       <c r="K65" s="16"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" hidden="1">
       <c r="A66" s="19" t="s">
         <v>14</v>
       </c>
@@ -12032,7 +12059,7 @@
         <v>88</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I66" s="16"/>
       <c r="J66" s="16" t="s">
@@ -12040,7 +12067,7 @@
       </c>
       <c r="K66" s="16"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" hidden="1">
       <c r="A67" s="22" t="s">
         <v>16</v>
       </c>
@@ -12070,7 +12097,7 @@
       </c>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" hidden="1">
       <c r="A68" s="22" t="s">
         <v>16</v>
       </c>
@@ -12100,7 +12127,7 @@
       </c>
       <c r="K68" s="16"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" hidden="1">
       <c r="A69" s="24" t="s">
         <v>18</v>
       </c>
@@ -12129,7 +12156,13 @@
       <c r="K69" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:G69" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Gabriel"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="G2:G69">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -12186,8 +12219,8 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D52" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G10" sqref="G10"/>
+      <pane xSplit="3" topLeftCell="F50" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12316,7 +12349,7 @@
         <v>86</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>90</v>
@@ -12352,7 +12385,7 @@
         <v>88</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16" t="s">
@@ -12378,7 +12411,7 @@
         <v>86</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>90</v>
@@ -12414,7 +12447,7 @@
         <v>88</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16" t="s">
@@ -12496,9 +12529,9 @@
         <v>107</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="G10" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="G10" s="21" t="s">
         <v>90</v>
       </c>
       <c r="H10" s="16"/>
@@ -12616,7 +12649,7 @@
         <v>107</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>90</v>
@@ -12646,7 +12679,7 @@
         <v>86</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G15" s="21" t="s">
         <v>90</v>
@@ -12676,7 +12709,7 @@
         <v>86</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G16" s="21" t="s">
         <v>90</v>
@@ -12828,7 +12861,7 @@
         <v>88</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="16" t="s">
@@ -13000,7 +13033,7 @@
         <v>86</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G27" s="21" t="s">
         <v>90</v>
@@ -13036,7 +13069,7 @@
         <v>88</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I28" s="16"/>
       <c r="J28" s="16" t="s">
@@ -13068,7 +13101,7 @@
         <v>88</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I29" s="16"/>
       <c r="J29" s="16" t="s">
@@ -13094,13 +13127,13 @@
         <v>86</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="16" t="s">
@@ -13418,7 +13451,7 @@
         <v>86</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G41" s="21" t="s">
         <v>90</v>
@@ -13536,13 +13569,13 @@
         <v>86</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G45" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I45" s="16"/>
       <c r="J45" s="16" t="s">
@@ -13690,7 +13723,7 @@
         <v>88</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I50" s="16"/>
       <c r="J50" s="16" t="s">
@@ -13722,7 +13755,7 @@
         <v>88</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I51" s="16"/>
       <c r="J51" s="16" t="s">
@@ -13776,7 +13809,7 @@
         <v>86</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G53" s="18" t="s">
         <v>88</v>
@@ -13806,13 +13839,13 @@
         <v>86</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G54" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I54" s="16"/>
       <c r="J54" s="16" t="s">
@@ -13866,7 +13899,7 @@
         <v>86</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G56" s="21" t="s">
         <v>90</v>
@@ -14012,7 +14045,7 @@
         <v>86</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G61" s="21" t="s">
         <v>90</v>
@@ -14102,7 +14135,7 @@
         <v>107</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G64" s="21" t="s">
         <v>90</v>
@@ -14128,17 +14161,21 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B65&amp;C65, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B65&amp;C65, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Graziela Gobbato / Suzana Cristina de Almeida </v>
       </c>
-      <c r="E65" s="17" t="s">
-        <v>86</v>
+      <c r="E65" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>139</v>
+        <v>253</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
+        <v>88</v>
+      </c>
+      <c r="H65" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>255</v>
+      </c>
       <c r="J65" s="16" t="s">
         <v>90</v>
       </c>
@@ -14165,7 +14202,7 @@
         <v>99</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H66" s="16"/>
       <c r="I66" s="16"/>
@@ -14222,7 +14259,7 @@
         <v>86</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G68" s="21" t="s">
         <v>90</v>

--- a/inputs/0 - GRS II/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - GRS II/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29130"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_68577633CDEDF8B6074FE096D4FDECD2C22BEFEB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37FFF529-1618-4ACE-8227-9F76E35F7C38}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_68577633DE95BCCE15CE7FDA745FE5D2C22BEF36" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8975AF74-3DA8-49DF-A475-C96252E37178}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -1222,6 +1222,14 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1255,14 +1263,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2133,7 +2133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2356,24 +2356,24 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="42" t="s">
+      <c r="C15" s="32"/>
+      <c r="D15" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="42" t="s">
+      <c r="E15" s="32"/>
+      <c r="F15" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="43"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="44"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2397,7 +2397,7 @@
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="34">
         <f t="array" aca="1" ref="B17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>6</v>
       </c>
@@ -2405,7 +2405,7 @@
         <f ca="1">B17/B2</f>
         <v>0.16216216216216217</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="34">
         <f t="array" aca="1" ref="D17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>10</v>
       </c>
@@ -2413,7 +2413,7 @@
         <f ca="1">D17/B3</f>
         <v>0.2</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="34">
         <f t="array" aca="1" ref="F17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>5</v>
       </c>
@@ -2426,7 +2426,7 @@
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="34">
         <f t="array" aca="1" ref="B18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>6</v>
       </c>
@@ -2434,7 +2434,7 @@
         <f ca="1">B18/B2</f>
         <v>0.16216216216216217</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="34">
         <f t="array" aca="1" ref="D18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>5</v>
       </c>
@@ -2442,7 +2442,7 @@
         <f ca="1">D18/B3</f>
         <v>0.1</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="34">
         <f t="array" aca="1" ref="F18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>5</v>
       </c>
@@ -2455,7 +2455,7 @@
       <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="34">
         <f t="array" aca="1" ref="B19" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>0</v>
       </c>
@@ -2463,7 +2463,7 @@
         <f ca="1">B19/B2</f>
         <v>0</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="34">
         <f t="array" aca="1" ref="D19" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>0</v>
       </c>
@@ -2471,7 +2471,7 @@
         <f ca="1">D19/B3</f>
         <v>0</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="34">
         <f t="array" aca="1" ref="F19" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>0</v>
       </c>
@@ -2484,7 +2484,7 @@
       <c r="A20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="34">
         <f t="array" aca="1" ref="B20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>5</v>
       </c>
@@ -2492,7 +2492,7 @@
         <f ca="1">B20/B2</f>
         <v>0.13513513513513514</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="34">
         <f t="array" aca="1" ref="D20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>6</v>
       </c>
@@ -2500,7 +2500,7 @@
         <f ca="1">D20/B3</f>
         <v>0.12</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="34">
         <f t="array" aca="1" ref="F20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>6</v>
       </c>
@@ -2513,7 +2513,7 @@
       <c r="A21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="34">
         <f t="array" aca="1" ref="B21" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>6</v>
       </c>
@@ -2521,7 +2521,7 @@
         <f ca="1">B21/B2</f>
         <v>0.16216216216216217</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="34">
         <f t="array" aca="1" ref="D21" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>5</v>
       </c>
@@ -2529,7 +2529,7 @@
         <f ca="1">D21/B3</f>
         <v>0.1</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="34">
         <f t="array" aca="1" ref="F21" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>5</v>
       </c>
@@ -2542,27 +2542,27 @@
       <c r="A22" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="35">
         <f ca="1">SUM(B17:B21)</f>
         <v>23</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="36">
         <f ca="1">SUM(C17:C21)</f>
         <v>0.62162162162162171</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="35">
         <f ca="1">SUM(D17:D21)</f>
         <v>26</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="36">
         <f ca="1">SUM(E17:E21)</f>
         <v>0.52</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="35">
         <f ca="1">SUM(F17:F21)</f>
         <v>21</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="36">
         <f ca="1">SUM(G17:G21)</f>
         <v>0.23232323232323229</v>
       </c>
@@ -2617,7 +2617,7 @@
       <c r="F1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="37" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="11" t="s">
@@ -2640,10 +2640,10 @@
       <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="34">
         <v>1</v>
       </c>
       <c r="D2" s="13" t="str">
@@ -2712,13 +2712,13 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="35">
+      <c r="J2" s="39">
         <v>2</v>
       </c>
       <c r="K2" s="13" t="str">
@@ -2792,10 +2792,10 @@
       <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="34">
         <v>1</v>
       </c>
       <c r="D3" s="13" t="str">
@@ -2864,13 +2864,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="39">
         <v>3</v>
       </c>
       <c r="K3" s="13" t="str">
@@ -2944,10 +2944,10 @@
       <c r="A4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="34">
         <v>1</v>
       </c>
       <c r="D4" s="13" t="str">
@@ -3016,13 +3016,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="39">
         <v>4</v>
       </c>
       <c r="K4" s="13" t="str">
@@ -3096,10 +3096,10 @@
       <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="34">
         <v>1</v>
       </c>
       <c r="D5" s="13" t="str">
@@ -3168,13 +3168,13 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="39">
         <v>5</v>
       </c>
       <c r="K5" s="13" t="str">
@@ -3248,10 +3248,10 @@
       <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="34">
         <v>1</v>
       </c>
       <c r="D6" s="13" t="str">
@@ -3320,13 +3320,13 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="39">
         <v>6</v>
       </c>
       <c r="K6" s="13" t="str">
@@ -3400,10 +3400,10 @@
       <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="34">
         <v>1</v>
       </c>
       <c r="D7" s="13" t="str">
@@ -3472,13 +3472,13 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="39">
         <v>7</v>
       </c>
       <c r="K7" s="13" t="str">
@@ -3552,10 +3552,10 @@
       <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="34">
         <v>1</v>
       </c>
       <c r="D8" s="13" t="str">
@@ -3624,13 +3624,13 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="39">
         <v>8</v>
       </c>
       <c r="K8" s="13" t="str">
@@ -3704,10 +3704,10 @@
       <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="34">
         <v>1</v>
       </c>
       <c r="D9" s="13" t="str">
@@ -3776,13 +3776,13 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="39">
         <v>9</v>
       </c>
       <c r="K9" s="13" t="str">
@@ -3856,10 +3856,10 @@
       <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="34">
         <v>1</v>
       </c>
       <c r="D10" s="13" t="str">
@@ -3928,13 +3928,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="39">
         <v>1</v>
       </c>
       <c r="K10" s="13" t="str">
@@ -4008,10 +4008,10 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="34">
         <v>1</v>
       </c>
       <c r="D11" s="13" t="str">
@@ -4080,13 +4080,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="39">
         <v>1</v>
       </c>
       <c r="K11" s="13" t="str">
@@ -4160,10 +4160,10 @@
       <c r="A12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="34">
         <v>1</v>
       </c>
       <c r="D12" s="13" t="str">
@@ -4232,13 +4232,13 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="39">
         <v>1</v>
       </c>
       <c r="K12" s="13" t="str">
@@ -4312,10 +4312,10 @@
       <c r="A13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="34">
         <v>1</v>
       </c>
       <c r="D13" s="13" t="str">
@@ -4384,13 +4384,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="35" t="s">
+      <c r="I13" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="39">
         <v>1</v>
       </c>
       <c r="K13" s="13" t="str">
@@ -4464,10 +4464,10 @@
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="34">
         <v>1</v>
       </c>
       <c r="D14" s="13" t="str">
@@ -4536,13 +4536,13 @@
 )</f>
         <v>Duplicado</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="35" t="s">
+      <c r="I14" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="39">
         <v>1</v>
       </c>
       <c r="K14" s="13" t="str">
@@ -4616,10 +4616,10 @@
       <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="34">
         <v>1</v>
       </c>
       <c r="D15" s="13" t="str">
@@ -4690,7 +4690,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="40" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -4708,7 +4708,7 @@
       <c r="F17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="41" t="s">
         <v>10</v>
       </c>
       <c r="I17" s="11" t="s">
@@ -4728,13 +4728,13 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="34">
         <v>1</v>
       </c>
       <c r="D18" s="13" t="str">
@@ -4803,13 +4803,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="H18" s="39" t="s">
+      <c r="H18" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="35" t="s">
+      <c r="I18" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="39">
         <v>1</v>
       </c>
       <c r="K18" s="13" t="str">
@@ -4880,13 +4880,13 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="34">
         <v>1</v>
       </c>
       <c r="D19" s="13" t="str">
@@ -4955,13 +4955,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="35" t="s">
+      <c r="I19" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="39">
         <v>1</v>
       </c>
       <c r="K19" s="13" t="str">
@@ -5032,13 +5032,13 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="34">
         <v>1</v>
       </c>
       <c r="D20" s="13" t="str">
@@ -5107,13 +5107,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="H20" s="39" t="s">
+      <c r="H20" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="35" t="s">
+      <c r="I20" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="39">
         <v>1</v>
       </c>
       <c r="K20" s="13" t="str">
@@ -5184,13 +5184,13 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="34">
         <v>1</v>
       </c>
       <c r="D21" s="13" t="str">
@@ -5259,13 +5259,13 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="H21" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="35" t="s">
+      <c r="I21" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="39">
         <v>1</v>
       </c>
       <c r="K21" s="13" t="str">
@@ -5336,13 +5336,13 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="34">
         <v>1</v>
       </c>
       <c r="D22" s="13" t="str">
@@ -5411,13 +5411,13 @@
 )</f>
         <v>Duplicado</v>
       </c>
-      <c r="H22" s="39" t="s">
+      <c r="H22" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="35" t="s">
+      <c r="I22" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="39">
         <v>1</v>
       </c>
       <c r="K22" s="13" t="str">
@@ -5488,13 +5488,13 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="34">
         <v>1</v>
       </c>
       <c r="D23" s="13" t="str">
@@ -5563,13 +5563,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="H23" s="39" t="s">
+      <c r="H23" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="35" t="s">
+      <c r="I23" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="39">
         <v>2</v>
       </c>
       <c r="K23" s="13" t="str">
@@ -5640,13 +5640,13 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="34">
         <v>1</v>
       </c>
       <c r="D24" s="13" t="str">
@@ -5715,13 +5715,13 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="H24" s="39" t="s">
+      <c r="H24" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="35" t="s">
+      <c r="I24" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="35">
+      <c r="J24" s="39">
         <v>1</v>
       </c>
       <c r="K24" s="13" t="str">
@@ -5792,13 +5792,13 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="34">
         <v>1</v>
       </c>
       <c r="D25" s="13" t="str">
@@ -5867,13 +5867,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="H25" s="39" t="s">
+      <c r="H25" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="35" t="s">
+      <c r="I25" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25" s="39">
         <v>1</v>
       </c>
       <c r="K25" s="13" t="str">
@@ -5944,13 +5944,13 @@
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="34">
         <v>1</v>
       </c>
       <c r="D26" s="13" t="str">
@@ -6019,13 +6019,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="H26" s="39" t="s">
+      <c r="H26" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="35" t="s">
+      <c r="I26" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J26" s="39">
         <v>1</v>
       </c>
       <c r="K26" s="13" t="str">
@@ -6096,13 +6096,13 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="34">
         <v>1</v>
       </c>
       <c r="D27" s="13" t="str">
@@ -6171,13 +6171,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="H27" s="39" t="s">
+      <c r="H27" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="35" t="s">
+      <c r="I27" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="39">
         <v>1</v>
       </c>
       <c r="K27" s="13" t="str">
@@ -6248,13 +6248,13 @@
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="34">
         <v>1</v>
       </c>
       <c r="D28" s="13" t="str">
@@ -6323,13 +6323,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="H28" s="39" t="s">
+      <c r="H28" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="35" t="s">
+      <c r="I28" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="35">
+      <c r="J28" s="39">
         <v>1</v>
       </c>
       <c r="K28" s="13" t="str">
@@ -6400,13 +6400,13 @@
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="34">
         <v>1</v>
       </c>
       <c r="D29" s="13" t="str">
@@ -6475,13 +6475,13 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="H29" s="39" t="s">
+      <c r="H29" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="35" t="s">
+      <c r="I29" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="J29" s="35">
+      <c r="J29" s="39">
         <v>1</v>
       </c>
       <c r="K29" s="13" t="str">
@@ -6552,13 +6552,13 @@
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="34">
         <v>1</v>
       </c>
       <c r="D30" s="13" t="str">
@@ -6627,13 +6627,13 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="H30" s="39" t="s">
+      <c r="H30" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="35" t="s">
+      <c r="I30" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="J30" s="35">
+      <c r="J30" s="39">
         <v>1</v>
       </c>
       <c r="K30" s="13" t="str">
@@ -6704,13 +6704,13 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="34">
         <v>1</v>
       </c>
       <c r="D31" s="13" t="str">
@@ -6779,13 +6779,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="H31" s="39" t="s">
+      <c r="H31" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="35" t="s">
+      <c r="I31" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="J31" s="35">
+      <c r="J31" s="39">
         <v>1</v>
       </c>
       <c r="K31" s="13" t="str">
@@ -6856,7 +6856,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="44" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -6876,13 +6876,13 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="34">
         <v>1</v>
       </c>
       <c r="D34" s="13" t="str">
@@ -6953,13 +6953,13 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="34">
         <v>1</v>
       </c>
       <c r="D35" s="13" t="str">
@@ -7030,13 +7030,13 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="34">
         <v>2</v>
       </c>
       <c r="D36" s="13" t="str">
@@ -7107,13 +7107,13 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="34">
         <v>3</v>
       </c>
       <c r="D37" s="13" t="str">
@@ -7184,13 +7184,13 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="34">
         <v>4</v>
       </c>
       <c r="D38" s="13" t="str">
@@ -7261,13 +7261,13 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C39" s="34">
         <v>5</v>
       </c>
       <c r="D39" s="13" t="str">
@@ -7338,13 +7338,13 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="34">
         <v>6</v>
       </c>
       <c r="D40" s="13" t="str">
@@ -7415,13 +7415,13 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="30">
+      <c r="C41" s="34">
         <v>1</v>
       </c>
       <c r="D41" s="13" t="str">
@@ -7492,13 +7492,13 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="30">
+      <c r="C42" s="34">
         <v>1</v>
       </c>
       <c r="D42" s="13" t="str">
@@ -7569,13 +7569,13 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="30">
+      <c r="C43" s="34">
         <v>1</v>
       </c>
       <c r="D43" s="13" t="str">
@@ -7646,13 +7646,13 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="30">
+      <c r="C44" s="34">
         <v>1</v>
       </c>
       <c r="D44" s="13" t="str">
@@ -7723,13 +7723,13 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="30">
+      <c r="C45" s="34">
         <v>1</v>
       </c>
       <c r="D45" s="13" t="str">
@@ -7800,13 +7800,13 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="30">
+      <c r="C46" s="34">
         <v>1</v>
       </c>
       <c r="D46" s="13" t="str">
@@ -7972,12 +7972,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F74" sqref="F74"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8061,7 +8060,7 @@
       </c>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11" hidden="1">
+    <row r="3" spans="1:11">
       <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
@@ -8117,7 +8116,7 @@
       </c>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:11" hidden="1">
+    <row r="5" spans="1:11">
       <c r="A5" s="19" t="s">
         <v>14</v>
       </c>
@@ -8146,7 +8145,7 @@
       </c>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11" hidden="1">
+    <row r="6" spans="1:11">
       <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
@@ -8206,7 +8205,7 @@
       </c>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:11" hidden="1">
+    <row r="8" spans="1:11">
       <c r="A8" s="22" t="s">
         <v>16</v>
       </c>
@@ -8237,7 +8236,7 @@
       </c>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11" hidden="1">
+    <row r="9" spans="1:11">
       <c r="A9" s="19" t="s">
         <v>14</v>
       </c>
@@ -8264,7 +8263,7 @@
       </c>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11" hidden="1">
+    <row r="10" spans="1:11">
       <c r="A10" s="19" t="s">
         <v>14</v>
       </c>
@@ -8293,7 +8292,7 @@
       </c>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:11" hidden="1">
+    <row r="11" spans="1:11">
       <c r="A11" s="22" t="s">
         <v>16</v>
       </c>
@@ -8322,7 +8321,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11" hidden="1">
+    <row r="12" spans="1:11">
       <c r="A12" s="22" t="s">
         <v>16</v>
       </c>
@@ -8351,7 +8350,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11" hidden="1">
+    <row r="13" spans="1:11">
       <c r="A13" s="22" t="s">
         <v>16</v>
       </c>
@@ -8380,7 +8379,7 @@
       </c>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:11" hidden="1">
+    <row r="14" spans="1:11">
       <c r="A14" s="22" t="s">
         <v>16</v>
       </c>
@@ -8409,7 +8408,7 @@
       </c>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:11" hidden="1">
+    <row r="15" spans="1:11">
       <c r="A15" s="22" t="s">
         <v>16</v>
       </c>
@@ -8436,7 +8435,7 @@
       </c>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:11" hidden="1">
+    <row r="16" spans="1:11">
       <c r="A16" s="22" t="s">
         <v>16</v>
       </c>
@@ -8465,7 +8464,7 @@
       </c>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" hidden="1">
+    <row r="17" spans="1:11">
       <c r="A17" s="19" t="s">
         <v>14</v>
       </c>
@@ -8494,7 +8493,7 @@
       </c>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11" hidden="1">
+    <row r="18" spans="1:11">
       <c r="A18" s="24" t="s">
         <v>18</v>
       </c>
@@ -8523,7 +8522,7 @@
       </c>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11" hidden="1">
+    <row r="19" spans="1:11">
       <c r="A19" s="19" t="s">
         <v>14</v>
       </c>
@@ -8550,7 +8549,7 @@
       </c>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" hidden="1">
+    <row r="20" spans="1:11">
       <c r="A20" s="24" t="s">
         <v>18</v>
       </c>
@@ -8579,7 +8578,7 @@
       </c>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" hidden="1">
+    <row r="21" spans="1:11">
       <c r="A21" s="19" t="s">
         <v>14</v>
       </c>
@@ -8608,7 +8607,7 @@
       </c>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" hidden="1">
+    <row r="22" spans="1:11">
       <c r="A22" s="24" t="s">
         <v>18</v>
       </c>
@@ -8635,7 +8634,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" hidden="1">
+    <row r="23" spans="1:11">
       <c r="A23" s="22" t="s">
         <v>16</v>
       </c>
@@ -8664,7 +8663,7 @@
       </c>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" hidden="1">
+    <row r="24" spans="1:11">
       <c r="A24" s="25" t="s">
         <v>17</v>
       </c>
@@ -8691,7 +8690,7 @@
       </c>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" hidden="1">
+    <row r="25" spans="1:11">
       <c r="A25" s="25" t="s">
         <v>17</v>
       </c>
@@ -8718,7 +8717,7 @@
       </c>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" hidden="1">
+    <row r="26" spans="1:11">
       <c r="A26" s="25" t="s">
         <v>17</v>
       </c>
@@ -8745,7 +8744,7 @@
       </c>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" hidden="1">
+    <row r="27" spans="1:11">
       <c r="A27" s="25" t="s">
         <v>17</v>
       </c>
@@ -8772,7 +8771,7 @@
       </c>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" hidden="1">
+    <row r="28" spans="1:11">
       <c r="A28" s="25" t="s">
         <v>17</v>
       </c>
@@ -8799,7 +8798,7 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" hidden="1">
+    <row r="29" spans="1:11">
       <c r="A29" s="25" t="s">
         <v>17</v>
       </c>
@@ -8826,7 +8825,7 @@
       </c>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" hidden="1">
+    <row r="30" spans="1:11">
       <c r="A30" s="25" t="s">
         <v>17</v>
       </c>
@@ -8853,7 +8852,7 @@
       </c>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" hidden="1">
+    <row r="31" spans="1:11">
       <c r="A31" s="25" t="s">
         <v>17</v>
       </c>
@@ -8934,7 +8933,7 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:11" hidden="1">
+    <row r="34" spans="1:11">
       <c r="A34" s="19" t="s">
         <v>14</v>
       </c>
@@ -8965,7 +8964,7 @@
       </c>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:11" hidden="1">
+    <row r="35" spans="1:11">
       <c r="A35" s="19" t="s">
         <v>14</v>
       </c>
@@ -8996,7 +8995,7 @@
       </c>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:11" hidden="1">
+    <row r="36" spans="1:11">
       <c r="A36" s="19" t="s">
         <v>14</v>
       </c>
@@ -9027,7 +9026,7 @@
       </c>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:11" hidden="1">
+    <row r="37" spans="1:11">
       <c r="A37" s="22" t="s">
         <v>16</v>
       </c>
@@ -9058,7 +9057,7 @@
       </c>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:11" hidden="1">
+    <row r="38" spans="1:11">
       <c r="A38" s="24" t="s">
         <v>18</v>
       </c>
@@ -9087,7 +9086,7 @@
       </c>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:11" hidden="1">
+    <row r="39" spans="1:11">
       <c r="A39" s="22" t="s">
         <v>16</v>
       </c>
@@ -9116,7 +9115,7 @@
       </c>
       <c r="K39" s="16"/>
     </row>
-    <row r="40" spans="1:11" hidden="1">
+    <row r="40" spans="1:11">
       <c r="A40" s="19" t="s">
         <v>14</v>
       </c>
@@ -9143,7 +9142,7 @@
       </c>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:11" hidden="1">
+    <row r="41" spans="1:11">
       <c r="A41" s="24" t="s">
         <v>18</v>
       </c>
@@ -9172,7 +9171,7 @@
       </c>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:11" hidden="1">
+    <row r="42" spans="1:11">
       <c r="A42" s="24" t="s">
         <v>18</v>
       </c>
@@ -9228,7 +9227,7 @@
       </c>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:11" hidden="1">
+    <row r="44" spans="1:11">
       <c r="A44" s="25" t="s">
         <v>17</v>
       </c>
@@ -9257,7 +9256,7 @@
       </c>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:11" hidden="1">
+    <row r="45" spans="1:11">
       <c r="A45" s="25" t="s">
         <v>17</v>
       </c>
@@ -9315,7 +9314,7 @@
       </c>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:11" hidden="1">
+    <row r="47" spans="1:11">
       <c r="A47" s="24" t="s">
         <v>18</v>
       </c>
@@ -9371,7 +9370,7 @@
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:11" hidden="1">
+    <row r="49" spans="1:11">
       <c r="A49" s="22" t="s">
         <v>16</v>
       </c>
@@ -9489,7 +9488,7 @@
       </c>
       <c r="K52" s="16"/>
     </row>
-    <row r="53" spans="1:11" hidden="1">
+    <row r="53" spans="1:11">
       <c r="A53" s="24" t="s">
         <v>18</v>
       </c>
@@ -9551,7 +9550,7 @@
       </c>
       <c r="K54" s="16"/>
     </row>
-    <row r="55" spans="1:11" hidden="1">
+    <row r="55" spans="1:11">
       <c r="A55" s="24" t="s">
         <v>18</v>
       </c>
@@ -9580,7 +9579,7 @@
       </c>
       <c r="K55" s="16"/>
     </row>
-    <row r="56" spans="1:11" hidden="1">
+    <row r="56" spans="1:11">
       <c r="A56" s="24" t="s">
         <v>18</v>
       </c>
@@ -9609,7 +9608,7 @@
       </c>
       <c r="K56" s="16"/>
     </row>
-    <row r="57" spans="1:11" hidden="1">
+    <row r="57" spans="1:11">
       <c r="A57" s="19" t="s">
         <v>14</v>
       </c>
@@ -9636,7 +9635,7 @@
       </c>
       <c r="K57" s="16"/>
     </row>
-    <row r="58" spans="1:11" hidden="1">
+    <row r="58" spans="1:11">
       <c r="A58" s="24" t="s">
         <v>18</v>
       </c>
@@ -9665,7 +9664,7 @@
       </c>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:11" hidden="1">
+    <row r="59" spans="1:11">
       <c r="A59" s="25" t="s">
         <v>17</v>
       </c>
@@ -9696,7 +9695,7 @@
       </c>
       <c r="K59" s="16"/>
     </row>
-    <row r="60" spans="1:11" hidden="1">
+    <row r="60" spans="1:11">
       <c r="A60" s="24" t="s">
         <v>18</v>
       </c>
@@ -9727,7 +9726,7 @@
       </c>
       <c r="K60" s="16"/>
     </row>
-    <row r="61" spans="1:11" hidden="1">
+    <row r="61" spans="1:11">
       <c r="A61" s="25" t="s">
         <v>17</v>
       </c>
@@ -9758,7 +9757,7 @@
       </c>
       <c r="K61" s="16"/>
     </row>
-    <row r="62" spans="1:11" hidden="1">
+    <row r="62" spans="1:11">
       <c r="A62" s="24" t="s">
         <v>18</v>
       </c>
@@ -9787,7 +9786,7 @@
       </c>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:11" hidden="1">
+    <row r="63" spans="1:11">
       <c r="A63" s="25" t="s">
         <v>17</v>
       </c>
@@ -9864,7 +9863,7 @@
       <c r="F65" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="G65" s="21" t="s">
+      <c r="G65" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H65" s="16" t="s">
@@ -9876,7 +9875,7 @@
       </c>
       <c r="K65" s="16"/>
     </row>
-    <row r="66" spans="1:11" hidden="1">
+    <row r="66" spans="1:11">
       <c r="A66" s="19" t="s">
         <v>14</v>
       </c>
@@ -9907,7 +9906,7 @@
       </c>
       <c r="K66" s="16"/>
     </row>
-    <row r="67" spans="1:11" hidden="1">
+    <row r="67" spans="1:11">
       <c r="A67" s="22" t="s">
         <v>16</v>
       </c>
@@ -9938,7 +9937,7 @@
       </c>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="1:11" hidden="1">
+    <row r="68" spans="1:11">
       <c r="A68" s="22" t="s">
         <v>16</v>
       </c>
@@ -9965,7 +9964,7 @@
       </c>
       <c r="K68" s="16"/>
     </row>
-    <row r="69" spans="1:11" hidden="1">
+    <row r="69" spans="1:11">
       <c r="A69" s="24" t="s">
         <v>18</v>
       </c>
@@ -9993,13 +9992,7 @@
       <c r="K69" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G69" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Gabriel"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <conditionalFormatting sqref="G2:G69">
     <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -10053,7 +10046,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10143,7 +10135,7 @@
       </c>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11" hidden="1">
+    <row r="3" spans="1:11">
       <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
@@ -10205,7 +10197,7 @@
       </c>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:11" hidden="1">
+    <row r="5" spans="1:11">
       <c r="A5" s="19" t="s">
         <v>14</v>
       </c>
@@ -10237,7 +10229,7 @@
       </c>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11" hidden="1">
+    <row r="6" spans="1:11">
       <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
@@ -10299,7 +10291,7 @@
       </c>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:11" hidden="1">
+    <row r="8" spans="1:11">
       <c r="A8" s="22" t="s">
         <v>16</v>
       </c>
@@ -10329,7 +10321,7 @@
       </c>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11" hidden="1">
+    <row r="9" spans="1:11">
       <c r="A9" s="19" t="s">
         <v>14</v>
       </c>
@@ -10357,7 +10349,7 @@
       </c>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11" hidden="1">
+    <row r="10" spans="1:11">
       <c r="A10" s="19" t="s">
         <v>14</v>
       </c>
@@ -10387,7 +10379,7 @@
       </c>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:11" hidden="1">
+    <row r="11" spans="1:11">
       <c r="A11" s="22" t="s">
         <v>16</v>
       </c>
@@ -10417,7 +10409,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11" hidden="1">
+    <row r="12" spans="1:11">
       <c r="A12" s="22" t="s">
         <v>16</v>
       </c>
@@ -10447,7 +10439,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11" hidden="1">
+    <row r="13" spans="1:11">
       <c r="A13" s="22" t="s">
         <v>16</v>
       </c>
@@ -10477,7 +10469,7 @@
       </c>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:11" hidden="1">
+    <row r="14" spans="1:11">
       <c r="A14" s="22" t="s">
         <v>16</v>
       </c>
@@ -10507,7 +10499,7 @@
       </c>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:11" hidden="1">
+    <row r="15" spans="1:11">
       <c r="A15" s="22" t="s">
         <v>16</v>
       </c>
@@ -10537,7 +10529,7 @@
       </c>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:11" hidden="1">
+    <row r="16" spans="1:11">
       <c r="A16" s="22" t="s">
         <v>16</v>
       </c>
@@ -10567,7 +10559,7 @@
       </c>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" hidden="1">
+    <row r="17" spans="1:11">
       <c r="A17" s="19" t="s">
         <v>14</v>
       </c>
@@ -10597,7 +10589,7 @@
       </c>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11" hidden="1">
+    <row r="18" spans="1:11">
       <c r="A18" s="24" t="s">
         <v>18</v>
       </c>
@@ -10625,7 +10617,7 @@
       </c>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11" hidden="1">
+    <row r="19" spans="1:11">
       <c r="A19" s="19" t="s">
         <v>14</v>
       </c>
@@ -10653,7 +10645,7 @@
       </c>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" hidden="1">
+    <row r="20" spans="1:11">
       <c r="A20" s="24" t="s">
         <v>18</v>
       </c>
@@ -10683,7 +10675,7 @@
       </c>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" hidden="1">
+    <row r="21" spans="1:11">
       <c r="A21" s="19" t="s">
         <v>14</v>
       </c>
@@ -10713,7 +10705,7 @@
       </c>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" hidden="1">
+    <row r="22" spans="1:11">
       <c r="A22" s="24" t="s">
         <v>18</v>
       </c>
@@ -10743,7 +10735,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" hidden="1">
+    <row r="23" spans="1:11">
       <c r="A23" s="22" t="s">
         <v>16</v>
       </c>
@@ -10773,7 +10765,7 @@
       </c>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" hidden="1">
+    <row r="24" spans="1:11">
       <c r="A24" s="25" t="s">
         <v>17</v>
       </c>
@@ -10803,7 +10795,7 @@
       </c>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" hidden="1">
+    <row r="25" spans="1:11">
       <c r="A25" s="25" t="s">
         <v>17</v>
       </c>
@@ -10833,7 +10825,7 @@
       </c>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" hidden="1">
+    <row r="26" spans="1:11">
       <c r="A26" s="25" t="s">
         <v>17</v>
       </c>
@@ -10863,7 +10855,7 @@
       </c>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" hidden="1">
+    <row r="27" spans="1:11">
       <c r="A27" s="25" t="s">
         <v>17</v>
       </c>
@@ -10893,7 +10885,7 @@
       </c>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" hidden="1">
+    <row r="28" spans="1:11">
       <c r="A28" s="25" t="s">
         <v>17</v>
       </c>
@@ -10925,7 +10917,7 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" hidden="1">
+    <row r="29" spans="1:11">
       <c r="A29" s="25" t="s">
         <v>17</v>
       </c>
@@ -10957,7 +10949,7 @@
       </c>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" hidden="1">
+    <row r="30" spans="1:11">
       <c r="A30" s="25" t="s">
         <v>17</v>
       </c>
@@ -10989,7 +10981,7 @@
       </c>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" hidden="1">
+    <row r="31" spans="1:11">
       <c r="A31" s="25" t="s">
         <v>17</v>
       </c>
@@ -11075,7 +11067,7 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:11" hidden="1">
+    <row r="34" spans="1:11">
       <c r="A34" s="19" t="s">
         <v>14</v>
       </c>
@@ -11105,7 +11097,7 @@
       </c>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:11" hidden="1">
+    <row r="35" spans="1:11">
       <c r="A35" s="19" t="s">
         <v>14</v>
       </c>
@@ -11135,7 +11127,7 @@
       </c>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:11" hidden="1">
+    <row r="36" spans="1:11">
       <c r="A36" s="19" t="s">
         <v>14</v>
       </c>
@@ -11165,7 +11157,7 @@
       </c>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:11" hidden="1">
+    <row r="37" spans="1:11">
       <c r="A37" s="22" t="s">
         <v>16</v>
       </c>
@@ -11195,7 +11187,7 @@
       </c>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:11" hidden="1">
+    <row r="38" spans="1:11">
       <c r="A38" s="24" t="s">
         <v>18</v>
       </c>
@@ -11225,7 +11217,7 @@
       </c>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:11" hidden="1">
+    <row r="39" spans="1:11">
       <c r="A39" s="22" t="s">
         <v>16</v>
       </c>
@@ -11253,7 +11245,7 @@
       </c>
       <c r="K39" s="16"/>
     </row>
-    <row r="40" spans="1:11" hidden="1">
+    <row r="40" spans="1:11">
       <c r="A40" s="19" t="s">
         <v>14</v>
       </c>
@@ -11281,7 +11273,7 @@
       </c>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:11" hidden="1">
+    <row r="41" spans="1:11">
       <c r="A41" s="24" t="s">
         <v>18</v>
       </c>
@@ -11311,7 +11303,7 @@
       </c>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:11" hidden="1">
+    <row r="42" spans="1:11">
       <c r="A42" s="24" t="s">
         <v>18</v>
       </c>
@@ -11369,7 +11361,7 @@
       </c>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:11" hidden="1">
+    <row r="44" spans="1:11">
       <c r="A44" s="25" t="s">
         <v>17</v>
       </c>
@@ -11399,7 +11391,7 @@
       </c>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:11" hidden="1">
+    <row r="45" spans="1:11">
       <c r="A45" s="25" t="s">
         <v>17</v>
       </c>
@@ -11459,7 +11451,7 @@
       </c>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:11" hidden="1">
+    <row r="47" spans="1:11">
       <c r="A47" s="24" t="s">
         <v>18</v>
       </c>
@@ -11517,7 +11509,7 @@
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:11" hidden="1">
+    <row r="49" spans="1:11">
       <c r="A49" s="22" t="s">
         <v>16</v>
       </c>
@@ -11639,7 +11631,7 @@
       </c>
       <c r="K52" s="16"/>
     </row>
-    <row r="53" spans="1:11" hidden="1">
+    <row r="53" spans="1:11">
       <c r="A53" s="24" t="s">
         <v>18</v>
       </c>
@@ -11701,7 +11693,7 @@
       </c>
       <c r="K54" s="16"/>
     </row>
-    <row r="55" spans="1:11" hidden="1">
+    <row r="55" spans="1:11">
       <c r="A55" s="24" t="s">
         <v>18</v>
       </c>
@@ -11729,7 +11721,7 @@
       </c>
       <c r="K55" s="16"/>
     </row>
-    <row r="56" spans="1:11" hidden="1">
+    <row r="56" spans="1:11">
       <c r="A56" s="24" t="s">
         <v>18</v>
       </c>
@@ -11759,7 +11751,7 @@
       </c>
       <c r="K56" s="16"/>
     </row>
-    <row r="57" spans="1:11" hidden="1">
+    <row r="57" spans="1:11">
       <c r="A57" s="19" t="s">
         <v>14</v>
       </c>
@@ -11791,7 +11783,7 @@
       </c>
       <c r="K57" s="16"/>
     </row>
-    <row r="58" spans="1:11" hidden="1">
+    <row r="58" spans="1:11">
       <c r="A58" s="24" t="s">
         <v>18</v>
       </c>
@@ -11821,7 +11813,7 @@
       </c>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:11" hidden="1">
+    <row r="59" spans="1:11">
       <c r="A59" s="25" t="s">
         <v>17</v>
       </c>
@@ -11849,7 +11841,7 @@
       </c>
       <c r="K59" s="16"/>
     </row>
-    <row r="60" spans="1:11" hidden="1">
+    <row r="60" spans="1:11">
       <c r="A60" s="24" t="s">
         <v>18</v>
       </c>
@@ -11881,7 +11873,7 @@
       </c>
       <c r="K60" s="16"/>
     </row>
-    <row r="61" spans="1:11" hidden="1">
+    <row r="61" spans="1:11">
       <c r="A61" s="25" t="s">
         <v>17</v>
       </c>
@@ -11915,7 +11907,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1">
+    <row r="62" spans="1:11">
       <c r="A62" s="24" t="s">
         <v>18</v>
       </c>
@@ -11945,7 +11937,7 @@
       </c>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:11" hidden="1">
+    <row r="63" spans="1:11">
       <c r="A63" s="25" t="s">
         <v>17</v>
       </c>
@@ -12035,7 +12027,7 @@
       </c>
       <c r="K65" s="16"/>
     </row>
-    <row r="66" spans="1:11" hidden="1">
+    <row r="66" spans="1:11">
       <c r="A66" s="19" t="s">
         <v>14</v>
       </c>
@@ -12067,7 +12059,7 @@
       </c>
       <c r="K66" s="16"/>
     </row>
-    <row r="67" spans="1:11" hidden="1">
+    <row r="67" spans="1:11">
       <c r="A67" s="22" t="s">
         <v>16</v>
       </c>
@@ -12097,7 +12089,7 @@
       </c>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="1:11" hidden="1">
+    <row r="68" spans="1:11">
       <c r="A68" s="22" t="s">
         <v>16</v>
       </c>
@@ -12127,7 +12119,7 @@
       </c>
       <c r="K68" s="16"/>
     </row>
-    <row r="69" spans="1:11" hidden="1">
+    <row r="69" spans="1:11">
       <c r="A69" s="24" t="s">
         <v>18</v>
       </c>
@@ -12156,13 +12148,7 @@
       <c r="K69" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G69" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Gabriel"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <conditionalFormatting sqref="G2:G69">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -12218,9 +12204,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="F50" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I74" sqref="I74"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14167,7 +14153,7 @@
       <c r="F65" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="G65" s="21" t="s">
+      <c r="G65" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H65" s="16" t="s">
@@ -14201,7 +14187,7 @@
       <c r="F66" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="G66" s="18" t="s">
+      <c r="G66" s="21" t="s">
         <v>90</v>
       </c>
       <c r="H66" s="16"/>

--- a/inputs/0 - GRS II/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - GRS II/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29203"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_68577633DE95BCCE15CE7FDA745FE5D2C22BEF36" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8975AF74-3DA8-49DF-A475-C96252E37178}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_695776334B1DFFAEB11C6DB0541EF759B2EAF06A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37B48B52-1637-46C7-8B1C-CA68997B49B4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -39,8 +39,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="272">
   <si>
     <t>Formulário</t>
   </si>
@@ -324,6 +346,9 @@
     <t>Gisele Cássia Tamparowsky de Oliveira</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>Marcos Gabriel Franciosi Borges</t>
   </si>
   <si>
@@ -381,6 +406,9 @@
     <t>Marcelo Merlini</t>
   </si>
   <si>
+    <t xml:space="preserve">Débora Laize Lampert Gnass </t>
+  </si>
+  <si>
     <t>Cristina Harumi Enokida</t>
   </si>
   <si>
@@ -409,6 +437,9 @@
   </si>
   <si>
     <t>Carmen Maria Stein Weiler</t>
+  </si>
+  <si>
+    <t>05/08/2025</t>
   </si>
   <si>
     <t>Thiago Varaschim Cenci</t>
@@ -532,6 +563,12 @@
     <t>Jaqueline Meireles / Margarete Pusippe</t>
   </si>
   <si>
+    <t>06/08/2025</t>
+  </si>
+  <si>
+    <t>Verificar quanto 1 - Qual a receita anual com essa taxa conforme o balanço anterior?; A prefeitura apoia os catadores com: AINDA não tem contrato, retirar. de resto ok!</t>
+  </si>
+  <si>
     <t>Luiz Fernando Pereira Barbosa</t>
   </si>
   <si>
@@ -634,6 +671,12 @@
     <t>03/04/2025, 04/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 12/05/2025</t>
   </si>
   <si>
+    <t>Revisar informações financeiras, valores preenchidos muito abaixo do ideal (solicitar a secretária os dados); sim, há diferença entre as coletas; quanto a aba de coelta seletiva: Revisar dias de coleta, não tem como coletar 100 DIAS DENTRO DE UMA SEMANA. onde é realizado a compostagem e a reciclagem de RCC? pois no aterro não tem.</t>
+  </si>
+  <si>
+    <t>ID159; ID158; ID156; ID155; ID145; ID144</t>
+  </si>
+  <si>
     <t xml:space="preserve">Graziela Gobbato / Suzana Cristina de Almeida </t>
   </si>
   <si>
@@ -676,6 +719,9 @@
     <t>21/07/2025</t>
   </si>
   <si>
+    <t xml:space="preserve">revisar metragens dos ambientes; Esteira de Triagem Elevação (era para ser esteira elevada! já está em correção), mas retirar por favor; </t>
+  </si>
+  <si>
     <t xml:space="preserve">Foto da cozinha precisa ser incluída </t>
   </si>
   <si>
@@ -719,6 +765,9 @@
   </si>
   <si>
     <t>28/02/2025</t>
+  </si>
+  <si>
+    <t>Verificar Equipamentos I - vocês não possuem prensa HORIZONTAL, trocar para VERTICAL. e até onde me lembro uma está quebrada para manutenção, ou não?; esteiras - não possuem esteira de triagem elevada (está como elevação, mas vai ser corrigido), retirar; em outros - mesa de triagem, seria de eletronicos, se tiver mantem, se não, retirar.</t>
   </si>
   <si>
     <t>16/04/2025, 30/05/2025</t>
@@ -758,6 +807,12 @@
     <t>04/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 12/05/2025</t>
   </si>
   <si>
+    <t xml:space="preserve">Refazer todas as fotos e tirar no formado horizontal; A área de processamento operacional é coberta? sim, mas as metragens estão incorretas, revisar. o caminhão é semi-compactador trocar. possui Carro de Movimentação de Big Bag, revisar quantidade!! Esteira de Triagem Elevação (aqui é para ser elevada) vocês não  possuem, retirar. </t>
+  </si>
+  <si>
+    <t>ID192; ID191; ID190; ID189; ID171</t>
+  </si>
+  <si>
     <t>Pag 3, as fotos da edificação e da área de estocagem estão ótimas, para as outras áreas precisaria de fotos mais específicas</t>
   </si>
   <si>
@@ -788,6 +843,9 @@
     <t>26/03/2025</t>
   </si>
   <si>
+    <t>realmente não pagam o INSS?</t>
+  </si>
+  <si>
     <t>tudo ok</t>
   </si>
   <si>
@@ -803,6 +861,12 @@
     <t>09/05/2025</t>
   </si>
   <si>
+    <t xml:space="preserve"> revisar NOME RAZÃO SOCIAL (pois o de vocês é: ASSOCIACAO DOS CATADORES DE MATERIAIS RECICLAVEIS DE TERRA ROXA - ACARTERRA) e o nome FANTASIA  - ACARTERRA. Colocar os documentos, pois não tem nada no sistema!! 6 possuem ensino superior? revisar; </t>
+  </si>
+  <si>
+    <t>ID169; ID168; ID166; ID165; ID149</t>
+  </si>
+  <si>
     <t>24/03/2025, 28/07/2025, 29/07/2025</t>
   </si>
   <si>
@@ -810,6 +874,9 @@
   </si>
   <si>
     <t>ID115, ID187</t>
+  </si>
+  <si>
+    <t>Em Análise</t>
   </si>
   <si>
     <t>17/06/2025</t>
@@ -1133,7 +1200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1222,14 +1289,6 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1263,6 +1322,17 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2133,7 +2203,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2179,19 +2251,19 @@
       </c>
       <c r="B2" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 1 - Município'!E2:E100"),"Enviado")</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" s="27">
         <f ca="1">B2/SUM($B2,$D2,$F2)</f>
-        <v>0.6166666666666667</v>
+        <v>0.65</v>
       </c>
       <c r="D2" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 1 - Município'!E2:E100"),"Atrasado")</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" s="27">
         <f ca="1">D2/SUM($B2,$D2,$F2)</f>
-        <v>0.38333333333333336</v>
+        <v>0.35</v>
       </c>
       <c r="F2" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 1 - Município'!E2:E100"),"Sem Técnico")</f>
@@ -2212,19 +2284,19 @@
       </c>
       <c r="B3" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!E2:E100"),"Enviado")</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="27">
         <f ca="1">B3/SUM($B3,$D3,$F3)</f>
-        <v>0.76923076923076927</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="D3" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!E2:E100"),"Atrasado")</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="27">
         <f ca="1">D3/SUM($B3,$D3,$F3)</f>
-        <v>0.23076923076923078</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="F3" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!E2:E100"),"Sem Técnico")</f>
@@ -2245,19 +2317,19 @@
       </c>
       <c r="B4" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!E2:E100"),"Enviado")</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="27">
         <f ca="1">B4/SUM($B4,$D4,$F4)</f>
-        <v>0.703125</v>
+        <v>0.71875</v>
       </c>
       <c r="D4" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!E2:E100"),"Atrasado")</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="27">
         <f ca="1">D4/SUM($B4,$D4,$F4)</f>
-        <v>0.296875</v>
+        <v>0.28125</v>
       </c>
       <c r="F4" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!E2:E100"),"Sem Técnico")</f>
@@ -2278,19 +2350,19 @@
       </c>
       <c r="B5" s="28">
         <f ca="1">SUM(B2:B4)</f>
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C5" s="27">
         <f ca="1">B5/SUM($B5,$D5,$F5)</f>
-        <v>0.69841269841269837</v>
+        <v>0.71957671957671954</v>
       </c>
       <c r="D5" s="28">
         <f ca="1">SUM(D2:D4)</f>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E5" s="27">
         <f ca="1">D5/SUM($B5,$D5,$F5)</f>
-        <v>0.30158730158730157</v>
+        <v>0.28042328042328041</v>
       </c>
       <c r="F5" s="28">
         <f ca="1">SUM(F2:F4)</f>
@@ -2322,11 +2394,11 @@
       </c>
       <c r="B10" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 1 - Município'!G2:G100"),"Sim")</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" s="29">
         <f ca="1">$B$10/$B$2</f>
-        <v>0.6216216216216216</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
@@ -2335,11 +2407,11 @@
       </c>
       <c r="B11" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!G2:G100"),"Sim")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C11" s="29">
         <f ca="1">$B$11/$B$3</f>
-        <v>0.52</v>
+        <v>0.56862745098039214</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
@@ -2348,32 +2420,32 @@
       </c>
       <c r="B12" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!G2:G100"),"Sim")</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C12" s="29">
         <f ca="1">$B$12/$B$4</f>
-        <v>0.46666666666666667</v>
+        <v>0.52173913043478259</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="44"/>
+      <c r="D15" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="31" t="s">
+      <c r="E15" s="44"/>
+      <c r="F15" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="32"/>
+      <c r="G15" s="44"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="33"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2397,65 +2469,65 @@
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="30">
         <f t="array" aca="1" ref="B17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>6</v>
       </c>
       <c r="C17" s="29">
         <f ca="1">B17/B2</f>
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="D17" s="34">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="D17" s="30">
         <f t="array" aca="1" ref="D17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>10</v>
       </c>
       <c r="E17" s="29">
         <f ca="1">D17/B3</f>
-        <v>0.2</v>
-      </c>
-      <c r="F17" s="34">
+        <v>0.19607843137254902</v>
+      </c>
+      <c r="F17" s="30">
         <f t="array" aca="1" ref="F17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>5</v>
       </c>
       <c r="G17" s="29">
         <f ca="1">F17/B4</f>
-        <v>0.1111111111111111</v>
+        <v>0.10869565217391304</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="30">
         <f t="array" aca="1" ref="B18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C18" s="29">
         <f ca="1">B18/B2</f>
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="D18" s="34">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="D18" s="30">
         <f t="array" aca="1" ref="D18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E18" s="29">
         <f ca="1">D18/B3</f>
-        <v>0.1</v>
-      </c>
-      <c r="F18" s="34">
+        <v>0.15686274509803921</v>
+      </c>
+      <c r="F18" s="30">
         <f t="array" aca="1" ref="F18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G18" s="29">
         <f ca="1">F18/B5</f>
-        <v>3.787878787878788E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="30">
         <f t="array" aca="1" ref="B19" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>0</v>
       </c>
@@ -2463,7 +2535,7 @@
         <f ca="1">B19/B2</f>
         <v>0</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="30">
         <f t="array" aca="1" ref="D19" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>0</v>
       </c>
@@ -2471,7 +2543,7 @@
         <f ca="1">D19/B3</f>
         <v>0</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="30">
         <f t="array" aca="1" ref="F19" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>0</v>
       </c>
@@ -2484,87 +2556,87 @@
       <c r="A20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="30">
         <f t="array" aca="1" ref="B20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>5</v>
       </c>
       <c r="C20" s="29">
         <f ca="1">B20/B2</f>
-        <v>0.13513513513513514</v>
-      </c>
-      <c r="D20" s="34">
+        <v>0.12820512820512819</v>
+      </c>
+      <c r="D20" s="30">
         <f t="array" aca="1" ref="D20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>6</v>
       </c>
       <c r="E20" s="29">
         <f ca="1">D20/B3</f>
-        <v>0.12</v>
-      </c>
-      <c r="F20" s="34">
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="F20" s="30">
         <f t="array" aca="1" ref="F20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>6</v>
       </c>
       <c r="G20" s="29">
         <f ca="1">F20/B5</f>
-        <v>4.5454545454545456E-2</v>
+        <v>4.4117647058823532E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="30">
         <f t="array" aca="1" ref="B21" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>6</v>
       </c>
       <c r="C21" s="29">
         <f ca="1">B21/B2</f>
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="D21" s="34">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="D21" s="30">
         <f t="array" aca="1" ref="D21" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>5</v>
       </c>
       <c r="E21" s="29">
         <f ca="1">D21/B3</f>
-        <v>0.1</v>
-      </c>
-      <c r="F21" s="34">
+        <v>9.8039215686274508E-2</v>
+      </c>
+      <c r="F21" s="30">
         <f t="array" aca="1" ref="F21" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>5</v>
       </c>
       <c r="G21" s="29">
         <f ca="1">F21/B5</f>
-        <v>3.787878787878788E-2</v>
+        <v>3.6764705882352942E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="31">
         <f ca="1">SUM(B17:B21)</f>
-        <v>23</v>
-      </c>
-      <c r="C22" s="36">
+        <v>26</v>
+      </c>
+      <c r="C22" s="32">
         <f ca="1">SUM(C17:C21)</f>
-        <v>0.62162162162162171</v>
-      </c>
-      <c r="D22" s="35">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D22" s="31">
         <f ca="1">SUM(D17:D21)</f>
-        <v>26</v>
-      </c>
-      <c r="E22" s="36">
+        <v>29</v>
+      </c>
+      <c r="E22" s="32">
         <f ca="1">SUM(E17:E21)</f>
-        <v>0.52</v>
-      </c>
-      <c r="F22" s="35">
+        <v>0.56862745098039214</v>
+      </c>
+      <c r="F22" s="31">
         <f ca="1">SUM(F17:F21)</f>
-        <v>21</v>
-      </c>
-      <c r="G22" s="36">
+        <v>24</v>
+      </c>
+      <c r="G22" s="32">
         <f ca="1">SUM(G17:G21)</f>
-        <v>0.23232323232323229</v>
+        <v>0.24840153452685423</v>
       </c>
     </row>
   </sheetData>
@@ -2582,7 +2654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2617,7 +2689,7 @@
       <c r="F1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="33" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="11" t="s">
@@ -2640,10 +2712,10 @@
       <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="30">
         <v>1</v>
       </c>
       <c r="D2" s="13" t="str">
@@ -2712,13 +2784,13 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="39">
+      <c r="J2" s="35">
         <v>2</v>
       </c>
       <c r="K2" s="13" t="str">
@@ -2792,10 +2864,10 @@
       <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="30">
         <v>1</v>
       </c>
       <c r="D3" s="13" t="str">
@@ -2864,13 +2936,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="35">
         <v>3</v>
       </c>
       <c r="K3" s="13" t="str">
@@ -2944,10 +3016,10 @@
       <c r="A4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="30">
         <v>1</v>
       </c>
       <c r="D4" s="13" t="str">
@@ -3016,13 +3088,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="35">
         <v>4</v>
       </c>
       <c r="K4" s="13" t="str">
@@ -3096,10 +3168,10 @@
       <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="30">
         <v>1</v>
       </c>
       <c r="D5" s="13" t="str">
@@ -3168,13 +3240,13 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="39">
+      <c r="J5" s="35">
         <v>5</v>
       </c>
       <c r="K5" s="13" t="str">
@@ -3248,10 +3320,10 @@
       <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="30">
         <v>1</v>
       </c>
       <c r="D6" s="13" t="str">
@@ -3320,13 +3392,13 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="35">
         <v>6</v>
       </c>
       <c r="K6" s="13" t="str">
@@ -3400,10 +3472,10 @@
       <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="30">
         <v>1</v>
       </c>
       <c r="D7" s="13" t="str">
@@ -3472,13 +3544,13 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="35">
         <v>7</v>
       </c>
       <c r="K7" s="13" t="str">
@@ -3552,10 +3624,10 @@
       <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="30">
         <v>1</v>
       </c>
       <c r="D8" s="13" t="str">
@@ -3624,13 +3696,13 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="35">
         <v>8</v>
       </c>
       <c r="K8" s="13" t="str">
@@ -3704,10 +3776,10 @@
       <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="30">
         <v>1</v>
       </c>
       <c r="D9" s="13" t="str">
@@ -3730,7 +3802,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="E9" s="13" t="str">
         <f t="array" aca="1" ref="E9" ca="1">IF(
@@ -3752,7 +3824,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="F9" s="13" t="str">
         <f t="array" aca="1" ref="F9" ca="1">IF(
@@ -3774,15 +3846,15 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
-      </c>
-      <c r="H9" s="38" t="s">
+        <v>Enviado</v>
+      </c>
+      <c r="H9" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="35">
         <v>9</v>
       </c>
       <c r="K9" s="13" t="str">
@@ -3856,10 +3928,10 @@
       <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="30">
         <v>1</v>
       </c>
       <c r="D10" s="13" t="str">
@@ -3928,13 +4000,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="35">
         <v>1</v>
       </c>
       <c r="K10" s="13" t="str">
@@ -4008,10 +4080,10 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="30">
         <v>1</v>
       </c>
       <c r="D11" s="13" t="str">
@@ -4080,13 +4152,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="35">
         <v>1</v>
       </c>
       <c r="K11" s="13" t="str">
@@ -4160,10 +4232,10 @@
       <c r="A12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="30">
         <v>1</v>
       </c>
       <c r="D12" s="13" t="str">
@@ -4232,13 +4304,13 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="H12" s="38" t="s">
+      <c r="H12" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="35">
         <v>1</v>
       </c>
       <c r="K12" s="13" t="str">
@@ -4312,10 +4384,10 @@
       <c r="A13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="30">
         <v>1</v>
       </c>
       <c r="D13" s="13" t="str">
@@ -4384,13 +4456,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="I13" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="35">
         <v>1</v>
       </c>
       <c r="K13" s="13" t="str">
@@ -4464,10 +4536,10 @@
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="30">
         <v>1</v>
       </c>
       <c r="D14" s="13" t="str">
@@ -4536,13 +4608,13 @@
 )</f>
         <v>Duplicado</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="35">
         <v>1</v>
       </c>
       <c r="K14" s="13" t="str">
@@ -4616,10 +4688,10 @@
       <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="30">
         <v>1</v>
       </c>
       <c r="D15" s="13" t="str">
@@ -4690,7 +4762,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -4708,7 +4780,7 @@
       <c r="F17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="41" t="s">
+      <c r="H17" s="37" t="s">
         <v>10</v>
       </c>
       <c r="I17" s="11" t="s">
@@ -4728,13 +4800,13 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="30">
         <v>1</v>
       </c>
       <c r="D18" s="13" t="str">
@@ -4803,13 +4875,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="H18" s="43" t="s">
+      <c r="H18" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="39" t="s">
+      <c r="I18" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="39">
+      <c r="J18" s="35">
         <v>1</v>
       </c>
       <c r="K18" s="13" t="str">
@@ -4880,13 +4952,13 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="30">
         <v>1</v>
       </c>
       <c r="D19" s="13" t="str">
@@ -4955,13 +5027,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="H19" s="43" t="s">
+      <c r="H19" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="39">
+      <c r="J19" s="35">
         <v>1</v>
       </c>
       <c r="K19" s="13" t="str">
@@ -5032,13 +5104,13 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="30">
         <v>1</v>
       </c>
       <c r="D20" s="13" t="str">
@@ -5107,13 +5179,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="39" t="s">
+      <c r="I20" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="39">
+      <c r="J20" s="35">
         <v>1</v>
       </c>
       <c r="K20" s="13" t="str">
@@ -5136,7 +5208,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="L20" s="13" t="str">
         <f t="array" aca="1" ref="L20" ca="1">IF(
@@ -5184,13 +5256,13 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="30">
         <v>1</v>
       </c>
       <c r="D21" s="13" t="str">
@@ -5259,13 +5331,13 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="H21" s="43" t="s">
+      <c r="H21" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="39" t="s">
+      <c r="I21" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="39">
+      <c r="J21" s="35">
         <v>1</v>
       </c>
       <c r="K21" s="13" t="str">
@@ -5336,13 +5408,13 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="30">
         <v>1</v>
       </c>
       <c r="D22" s="13" t="str">
@@ -5411,13 +5483,13 @@
 )</f>
         <v>Duplicado</v>
       </c>
-      <c r="H22" s="43" t="s">
+      <c r="H22" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="39" t="s">
+      <c r="I22" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="39">
+      <c r="J22" s="35">
         <v>1</v>
       </c>
       <c r="K22" s="13" t="str">
@@ -5488,13 +5560,13 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="30">
         <v>1</v>
       </c>
       <c r="D23" s="13" t="str">
@@ -5563,13 +5635,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="H23" s="43" t="s">
+      <c r="H23" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="39" t="s">
+      <c r="I23" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="J23" s="39">
+      <c r="J23" s="35">
         <v>2</v>
       </c>
       <c r="K23" s="13" t="str">
@@ -5640,13 +5712,13 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="30">
         <v>1</v>
       </c>
       <c r="D24" s="13" t="str">
@@ -5715,13 +5787,13 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="H24" s="43" t="s">
+      <c r="H24" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="39" t="s">
+      <c r="I24" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="39">
+      <c r="J24" s="35">
         <v>1</v>
       </c>
       <c r="K24" s="13" t="str">
@@ -5792,13 +5864,13 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="30">
         <v>1</v>
       </c>
       <c r="D25" s="13" t="str">
@@ -5867,13 +5939,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="H25" s="43" t="s">
+      <c r="H25" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="39" t="s">
+      <c r="I25" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="J25" s="39">
+      <c r="J25" s="35">
         <v>1</v>
       </c>
       <c r="K25" s="13" t="str">
@@ -5944,13 +6016,13 @@
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="30">
         <v>1</v>
       </c>
       <c r="D26" s="13" t="str">
@@ -6019,13 +6091,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="H26" s="43" t="s">
+      <c r="H26" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="39" t="s">
+      <c r="I26" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="J26" s="39">
+      <c r="J26" s="35">
         <v>1</v>
       </c>
       <c r="K26" s="13" t="str">
@@ -6096,13 +6168,13 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="30">
         <v>1</v>
       </c>
       <c r="D27" s="13" t="str">
@@ -6171,13 +6243,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="H27" s="43" t="s">
+      <c r="H27" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="39" t="s">
+      <c r="I27" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="J27" s="39">
+      <c r="J27" s="35">
         <v>1</v>
       </c>
       <c r="K27" s="13" t="str">
@@ -6248,13 +6320,13 @@
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="30">
         <v>1</v>
       </c>
       <c r="D28" s="13" t="str">
@@ -6323,13 +6395,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="H28" s="43" t="s">
+      <c r="H28" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="39" t="s">
+      <c r="I28" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="39">
+      <c r="J28" s="35">
         <v>1</v>
       </c>
       <c r="K28" s="13" t="str">
@@ -6400,13 +6472,13 @@
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="30">
         <v>1</v>
       </c>
       <c r="D29" s="13" t="str">
@@ -6475,13 +6547,13 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="H29" s="43" t="s">
+      <c r="H29" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="39" t="s">
+      <c r="I29" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="J29" s="39">
+      <c r="J29" s="35">
         <v>1</v>
       </c>
       <c r="K29" s="13" t="str">
@@ -6552,13 +6624,13 @@
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="30">
         <v>1</v>
       </c>
       <c r="D30" s="13" t="str">
@@ -6627,13 +6699,13 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="H30" s="43" t="s">
+      <c r="H30" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="39" t="s">
+      <c r="I30" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="J30" s="39">
+      <c r="J30" s="35">
         <v>1</v>
       </c>
       <c r="K30" s="13" t="str">
@@ -6704,13 +6776,13 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="30">
         <v>1</v>
       </c>
       <c r="D31" s="13" t="str">
@@ -6779,13 +6851,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="H31" s="43" t="s">
+      <c r="H31" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="39" t="s">
+      <c r="I31" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="J31" s="39">
+      <c r="J31" s="35">
         <v>1</v>
       </c>
       <c r="K31" s="13" t="str">
@@ -6856,7 +6928,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="40" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -6876,13 +6948,13 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="34">
+      <c r="C34" s="30">
         <v>1</v>
       </c>
       <c r="D34" s="13" t="str">
@@ -6953,13 +7025,13 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="34">
+      <c r="C35" s="30">
         <v>1</v>
       </c>
       <c r="D35" s="13" t="str">
@@ -7030,13 +7102,13 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="34">
+      <c r="C36" s="30">
         <v>2</v>
       </c>
       <c r="D36" s="13" t="str">
@@ -7107,13 +7179,13 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="34">
+      <c r="C37" s="30">
         <v>3</v>
       </c>
       <c r="D37" s="13" t="str">
@@ -7184,13 +7256,13 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="34">
+      <c r="C38" s="30">
         <v>4</v>
       </c>
       <c r="D38" s="13" t="str">
@@ -7261,13 +7333,13 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="34">
+      <c r="C39" s="30">
         <v>5</v>
       </c>
       <c r="D39" s="13" t="str">
@@ -7338,13 +7410,13 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="34">
+      <c r="C40" s="30">
         <v>6</v>
       </c>
       <c r="D40" s="13" t="str">
@@ -7415,13 +7487,13 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="34">
+      <c r="C41" s="30">
         <v>1</v>
       </c>
       <c r="D41" s="13" t="str">
@@ -7492,13 +7564,13 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="34">
+      <c r="C42" s="30">
         <v>1</v>
       </c>
       <c r="D42" s="13" t="str">
@@ -7569,13 +7641,13 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="34">
+      <c r="C43" s="30">
         <v>1</v>
       </c>
       <c r="D43" s="13" t="str">
@@ -7646,13 +7718,13 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="34">
+      <c r="C44" s="30">
         <v>1</v>
       </c>
       <c r="D44" s="13" t="str">
@@ -7723,13 +7795,13 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="34">
+      <c r="C45" s="30">
         <v>1</v>
       </c>
       <c r="D45" s="13" t="str">
@@ -7800,13 +7872,13 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="34">
+      <c r="C46" s="30">
         <v>1</v>
       </c>
       <c r="D46" s="13" t="str">
@@ -7972,11 +8044,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8060,7 +8133,7 @@
       </c>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
@@ -8107,16 +8180,18 @@
         <v>87</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="16"/>
+        <v>88</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16" t="s">
         <v>90</v>
       </c>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" s="19" t="s">
         <v>14</v>
       </c>
@@ -8127,13 +8202,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>88</v>
@@ -8145,7 +8220,7 @@
       </c>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
@@ -8156,13 +8231,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>90</v>
@@ -8185,19 +8260,19 @@
         <v>1</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16" t="s">
@@ -8205,7 +8280,7 @@
       </c>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" hidden="1">
       <c r="A8" s="22" t="s">
         <v>16</v>
       </c>
@@ -8216,19 +8291,19 @@
         <v>1</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G8" s="21" t="s">
         <v>90</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="16" t="s">
@@ -8236,7 +8311,7 @@
       </c>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="19" t="s">
         <v>14</v>
       </c>
@@ -8247,7 +8322,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>92</v>
@@ -8263,7 +8338,7 @@
       </c>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" s="19" t="s">
         <v>14</v>
       </c>
@@ -8274,13 +8349,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>88</v>
@@ -8292,7 +8367,7 @@
       </c>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" s="22" t="s">
         <v>16</v>
       </c>
@@ -8303,13 +8378,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>90</v>
@@ -8321,7 +8396,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" s="22" t="s">
         <v>16</v>
       </c>
@@ -8332,13 +8407,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>109</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>108</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>90</v>
@@ -8350,7 +8425,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" s="22" t="s">
         <v>16</v>
       </c>
@@ -8361,13 +8436,13 @@
         <v>3</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>90</v>
@@ -8379,7 +8454,7 @@
       </c>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" s="22" t="s">
         <v>16</v>
       </c>
@@ -8390,13 +8465,13 @@
         <v>4</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>90</v>
@@ -8408,7 +8483,7 @@
       </c>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" s="22" t="s">
         <v>16</v>
       </c>
@@ -8418,12 +8493,14 @@
       <c r="C15" s="16">
         <v>5</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="16" t="s">
+        <v>113</v>
+      </c>
       <c r="E15" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G15" s="21" t="s">
         <v>90</v>
@@ -8435,7 +8512,7 @@
       </c>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" s="22" t="s">
         <v>16</v>
       </c>
@@ -8446,13 +8523,13 @@
         <v>6</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="21" t="s">
         <v>90</v>
@@ -8464,7 +8541,7 @@
       </c>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" s="19" t="s">
         <v>14</v>
       </c>
@@ -8475,7 +8552,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>92</v>
@@ -8485,7 +8562,7 @@
         <v>90</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="16" t="s">
@@ -8493,7 +8570,7 @@
       </c>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" s="24" t="s">
         <v>18</v>
       </c>
@@ -8504,13 +8581,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>88</v>
@@ -8522,7 +8599,7 @@
       </c>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" s="19" t="s">
         <v>14</v>
       </c>
@@ -8533,7 +8610,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>92</v>
@@ -8549,7 +8626,7 @@
       </c>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="24" t="s">
         <v>18</v>
       </c>
@@ -8560,13 +8637,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>88</v>
@@ -8578,7 +8655,7 @@
       </c>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" s="19" t="s">
         <v>14</v>
       </c>
@@ -8589,13 +8666,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>88</v>
@@ -8607,7 +8684,7 @@
       </c>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22" s="24" t="s">
         <v>18</v>
       </c>
@@ -8618,12 +8695,14 @@
         <v>1</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="16"/>
+        <v>124</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>125</v>
+      </c>
       <c r="G22" s="21" t="s">
         <v>90</v>
       </c>
@@ -8634,7 +8713,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" s="22" t="s">
         <v>16</v>
       </c>
@@ -8645,13 +8724,13 @@
         <v>1</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G23" s="21" t="s">
         <v>90</v>
@@ -8663,7 +8742,7 @@
       </c>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="25" t="s">
         <v>17</v>
       </c>
@@ -8674,7 +8753,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>92</v>
@@ -8690,7 +8769,7 @@
       </c>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="25" t="s">
         <v>17</v>
       </c>
@@ -8701,7 +8780,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>92</v>
@@ -8717,7 +8796,7 @@
       </c>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26" s="25" t="s">
         <v>17</v>
       </c>
@@ -8728,7 +8807,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>92</v>
@@ -8744,7 +8823,7 @@
       </c>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" hidden="1">
       <c r="A27" s="25" t="s">
         <v>17</v>
       </c>
@@ -8755,7 +8834,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>92</v>
@@ -8771,7 +8850,7 @@
       </c>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" hidden="1">
       <c r="A28" s="25" t="s">
         <v>17</v>
       </c>
@@ -8782,7 +8861,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>92</v>
@@ -8798,7 +8877,7 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29" s="25" t="s">
         <v>17</v>
       </c>
@@ -8809,7 +8888,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>92</v>
@@ -8825,7 +8904,7 @@
       </c>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="25" t="s">
         <v>17</v>
       </c>
@@ -8836,7 +8915,7 @@
         <v>8</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>92</v>
@@ -8852,7 +8931,7 @@
       </c>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31" s="25" t="s">
         <v>17</v>
       </c>
@@ -8863,7 +8942,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>92</v>
@@ -8890,7 +8969,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>92</v>
@@ -8917,7 +8996,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>92</v>
@@ -8933,7 +9012,7 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" s="19" t="s">
         <v>14</v>
       </c>
@@ -8944,19 +9023,19 @@
         <v>1</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>90</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I34" s="16"/>
       <c r="J34" s="16" t="s">
@@ -8964,7 +9043,7 @@
       </c>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="19" t="s">
         <v>14</v>
       </c>
@@ -8975,19 +9054,19 @@
         <v>1</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I35" s="16"/>
       <c r="J35" s="16" t="s">
@@ -8995,7 +9074,7 @@
       </c>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36" s="19" t="s">
         <v>14</v>
       </c>
@@ -9006,19 +9085,19 @@
         <v>1</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I36" s="16"/>
       <c r="J36" s="16" t="s">
@@ -9026,7 +9105,7 @@
       </c>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="22" t="s">
         <v>16</v>
       </c>
@@ -9037,19 +9116,19 @@
         <v>1</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G37" s="21" t="s">
         <v>90</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I37" s="16"/>
       <c r="J37" s="16" t="s">
@@ -9057,7 +9136,7 @@
       </c>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" hidden="1">
       <c r="A38" s="24" t="s">
         <v>18</v>
       </c>
@@ -9068,13 +9147,13 @@
         <v>1</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>90</v>
@@ -9086,7 +9165,7 @@
       </c>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" s="22" t="s">
         <v>16</v>
       </c>
@@ -9097,13 +9176,13 @@
         <v>1</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>90</v>
@@ -9115,7 +9194,7 @@
       </c>
       <c r="K39" s="16"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" hidden="1">
       <c r="A40" s="19" t="s">
         <v>14</v>
       </c>
@@ -9126,7 +9205,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>92</v>
@@ -9142,7 +9221,7 @@
       </c>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" s="24" t="s">
         <v>18</v>
       </c>
@@ -9153,13 +9232,13 @@
         <v>1</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G41" s="21" t="s">
         <v>90</v>
@@ -9171,7 +9250,7 @@
       </c>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42" s="24" t="s">
         <v>18</v>
       </c>
@@ -9182,13 +9261,13 @@
         <v>2</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G42" s="21" t="s">
         <v>90</v>
@@ -9211,7 +9290,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>92</v>
@@ -9227,7 +9306,7 @@
       </c>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" hidden="1">
       <c r="A44" s="25" t="s">
         <v>17</v>
       </c>
@@ -9238,13 +9317,13 @@
         <v>1</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G44" s="18" t="s">
         <v>88</v>
@@ -9256,7 +9335,7 @@
       </c>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" hidden="1">
       <c r="A45" s="25" t="s">
         <v>17</v>
       </c>
@@ -9267,19 +9346,19 @@
         <v>1</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G45" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I45" s="16"/>
       <c r="J45" s="16" t="s">
@@ -9298,7 +9377,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>92</v>
@@ -9314,7 +9393,7 @@
       </c>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" hidden="1">
       <c r="A47" s="24" t="s">
         <v>18</v>
       </c>
@@ -9325,13 +9404,13 @@
         <v>1</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G47" s="18" t="s">
         <v>88</v>
@@ -9354,23 +9433,27 @@
         <v>1</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F48" s="16"/>
+        <v>165</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>166</v>
+      </c>
       <c r="G48" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H48" s="16"/>
+        <v>88</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>167</v>
+      </c>
       <c r="I48" s="16"/>
       <c r="J48" s="16" t="s">
         <v>90</v>
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49" s="22" t="s">
         <v>16</v>
       </c>
@@ -9381,13 +9464,13 @@
         <v>1</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G49" s="21" t="s">
         <v>90</v>
@@ -9410,19 +9493,19 @@
         <v>1</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E50" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G50" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="I50" s="16"/>
       <c r="J50" s="16" t="s">
@@ -9441,19 +9524,19 @@
         <v>1</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E51" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G51" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="I51" s="16"/>
       <c r="J51" s="16" t="s">
@@ -9472,7 +9555,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>92</v>
@@ -9488,7 +9571,7 @@
       </c>
       <c r="K52" s="16"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" hidden="1">
       <c r="A53" s="24" t="s">
         <v>18</v>
       </c>
@@ -9499,19 +9582,19 @@
         <v>1</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E53" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G53" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I53" s="16"/>
       <c r="J53" s="16" t="s">
@@ -9530,19 +9613,19 @@
         <v>1</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G54" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="I54" s="16"/>
       <c r="J54" s="16" t="s">
@@ -9550,7 +9633,7 @@
       </c>
       <c r="K54" s="16"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" s="24" t="s">
         <v>18</v>
       </c>
@@ -9561,13 +9644,13 @@
         <v>1</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G55" s="21" t="s">
         <v>90</v>
@@ -9579,7 +9662,7 @@
       </c>
       <c r="K55" s="16"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" s="24" t="s">
         <v>18</v>
       </c>
@@ -9590,13 +9673,13 @@
         <v>1</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G56" s="21" t="s">
         <v>90</v>
@@ -9608,7 +9691,7 @@
       </c>
       <c r="K56" s="16"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57" s="19" t="s">
         <v>14</v>
       </c>
@@ -9619,7 +9702,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>92</v>
@@ -9635,7 +9718,7 @@
       </c>
       <c r="K57" s="16"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58" s="24" t="s">
         <v>18</v>
       </c>
@@ -9646,13 +9729,13 @@
         <v>1</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E58" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G58" s="18" t="s">
         <v>88</v>
@@ -9664,7 +9747,7 @@
       </c>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" hidden="1">
       <c r="A59" s="25" t="s">
         <v>17</v>
       </c>
@@ -9675,19 +9758,19 @@
         <v>1</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E59" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G59" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I59" s="16"/>
       <c r="J59" s="16" t="s">
@@ -9695,7 +9778,7 @@
       </c>
       <c r="K59" s="16"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" hidden="1">
       <c r="A60" s="24" t="s">
         <v>18</v>
       </c>
@@ -9706,19 +9789,19 @@
         <v>1</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E60" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G60" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="I60" s="16"/>
       <c r="J60" s="16" t="s">
@@ -9726,7 +9809,7 @@
       </c>
       <c r="K60" s="16"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" hidden="1">
       <c r="A61" s="25" t="s">
         <v>17</v>
       </c>
@@ -9737,19 +9820,19 @@
         <v>1</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E61" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G61" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="I61" s="16"/>
       <c r="J61" s="16" t="s">
@@ -9757,7 +9840,7 @@
       </c>
       <c r="K61" s="16"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" hidden="1">
       <c r="A62" s="24" t="s">
         <v>18</v>
       </c>
@@ -9768,13 +9851,13 @@
         <v>1</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E62" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G62" s="21" t="s">
         <v>90</v>
@@ -9786,7 +9869,7 @@
       </c>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" hidden="1">
       <c r="A63" s="25" t="s">
         <v>17</v>
       </c>
@@ -9797,13 +9880,13 @@
         <v>1</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E63" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G63" s="18" t="s">
         <v>88</v>
@@ -9815,7 +9898,7 @@
       </c>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" ht="42">
       <c r="A64" s="15" t="s">
         <v>15</v>
       </c>
@@ -9826,19 +9909,23 @@
         <v>1</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
+        <v>88</v>
+      </c>
+      <c r="H64" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="I64" s="43" t="s">
+        <v>203</v>
+      </c>
       <c r="J64" s="16" t="s">
         <v>90</v>
       </c>
@@ -9855,19 +9942,19 @@
         <v>1</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E65" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G65" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="I65" s="16"/>
       <c r="J65" s="16" t="s">
@@ -9875,7 +9962,7 @@
       </c>
       <c r="K65" s="16"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" hidden="1">
       <c r="A66" s="19" t="s">
         <v>14</v>
       </c>
@@ -9886,19 +9973,19 @@
         <v>1</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G66" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="I66" s="16"/>
       <c r="J66" s="16" t="s">
@@ -9906,7 +9993,7 @@
       </c>
       <c r="K66" s="16"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" hidden="1">
       <c r="A67" s="22" t="s">
         <v>16</v>
       </c>
@@ -9917,19 +10004,19 @@
         <v>1</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E67" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G67" s="21" t="s">
         <v>90</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="I67" s="16"/>
       <c r="J67" s="16" t="s">
@@ -9937,7 +10024,7 @@
       </c>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" hidden="1">
       <c r="A68" s="22" t="s">
         <v>16</v>
       </c>
@@ -9948,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E68" s="20" t="s">
         <v>92</v>
@@ -9964,7 +10051,7 @@
       </c>
       <c r="K68" s="16"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" hidden="1">
       <c r="A69" s="24" t="s">
         <v>18</v>
       </c>
@@ -9975,7 +10062,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E69" s="20" t="s">
         <v>92</v>
@@ -9992,7 +10079,13 @@
       <c r="K69" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:G69" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Gabriel"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="G2:G69">
     <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -10046,11 +10139,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10121,13 +10215,13 @@
         <v>86</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="16" t="s">
@@ -10135,7 +10229,7 @@
       </c>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
@@ -10153,13 +10247,13 @@
         <v>86</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="16" t="s">
@@ -10185,19 +10279,21 @@
         <v>86</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="16"/>
+        <v>88</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>218</v>
+      </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16" t="s">
         <v>90</v>
       </c>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" s="19" t="s">
         <v>14</v>
       </c>
@@ -10215,13 +10311,13 @@
         <v>86</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16" t="s">
@@ -10229,7 +10325,7 @@
       </c>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
@@ -10247,7 +10343,7 @@
         <v>86</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>90</v>
@@ -10277,13 +10373,13 @@
         <v>86</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16" t="s">
@@ -10291,7 +10387,7 @@
       </c>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" hidden="1">
       <c r="A8" s="22" t="s">
         <v>16</v>
       </c>
@@ -10309,7 +10405,7 @@
         <v>86</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G8" s="21" t="s">
         <v>90</v>
@@ -10321,7 +10417,7 @@
       </c>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="19" t="s">
         <v>14</v>
       </c>
@@ -10349,7 +10445,7 @@
       </c>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" s="19" t="s">
         <v>14</v>
       </c>
@@ -10367,7 +10463,7 @@
         <v>86</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>88</v>
@@ -10379,7 +10475,7 @@
       </c>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" s="22" t="s">
         <v>16</v>
       </c>
@@ -10397,7 +10493,7 @@
         <v>86</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>90</v>
@@ -10409,7 +10505,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" s="22" t="s">
         <v>16</v>
       </c>
@@ -10427,7 +10523,7 @@
         <v>86</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>90</v>
@@ -10439,7 +10535,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" s="22" t="s">
         <v>16</v>
       </c>
@@ -10469,7 +10565,7 @@
       </c>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" s="22" t="s">
         <v>16</v>
       </c>
@@ -10479,15 +10575,15 @@
       <c r="C14" s="16">
         <v>4</v>
       </c>
-      <c r="D14" s="16" t="str">
-        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+      <c r="D14" s="16" t="str" cm="1">
+        <f t="array" ref="D14">IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Mauricio Pinto de Lima</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>90</v>
@@ -10499,7 +10595,7 @@
       </c>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" s="22" t="s">
         <v>16</v>
       </c>
@@ -10511,13 +10607,13 @@
       </c>
       <c r="D15" s="16" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
-        <v/>
+        <v>Marcelo Merlini</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="G15" s="21" t="s">
         <v>90</v>
@@ -10529,7 +10625,7 @@
       </c>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" s="22" t="s">
         <v>16</v>
       </c>
@@ -10541,13 +10637,13 @@
       </c>
       <c r="D16" s="16" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
-        <v>Marcelo Merlini</v>
+        <v xml:space="preserve">Débora Laize Lampert Gnass </v>
       </c>
       <c r="E16" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="G16" s="21" t="s">
         <v>90</v>
@@ -10559,7 +10655,7 @@
       </c>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" s="19" t="s">
         <v>14</v>
       </c>
@@ -10577,7 +10673,7 @@
         <v>86</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>88</v>
@@ -10589,7 +10685,7 @@
       </c>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" s="24" t="s">
         <v>18</v>
       </c>
@@ -10617,7 +10713,7 @@
       </c>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" s="19" t="s">
         <v>14</v>
       </c>
@@ -10645,7 +10741,7 @@
       </c>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="24" t="s">
         <v>18</v>
       </c>
@@ -10663,7 +10759,7 @@
         <v>86</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>88</v>
@@ -10675,7 +10771,7 @@
       </c>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" s="19" t="s">
         <v>14</v>
       </c>
@@ -10693,7 +10789,7 @@
         <v>86</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>88</v>
@@ -10705,7 +10801,7 @@
       </c>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22" s="24" t="s">
         <v>18</v>
       </c>
@@ -10723,7 +10819,7 @@
         <v>86</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="G22" s="21" t="s">
         <v>90</v>
@@ -10735,7 +10831,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" s="22" t="s">
         <v>16</v>
       </c>
@@ -10753,7 +10849,7 @@
         <v>86</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G23" s="21" t="s">
         <v>90</v>
@@ -10765,7 +10861,7 @@
       </c>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="25" t="s">
         <v>17</v>
       </c>
@@ -10783,7 +10879,7 @@
         <v>86</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G24" s="21" t="s">
         <v>90</v>
@@ -10795,7 +10891,7 @@
       </c>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="25" t="s">
         <v>17</v>
       </c>
@@ -10813,7 +10909,7 @@
         <v>86</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="G25" s="21" t="s">
         <v>90</v>
@@ -10825,7 +10921,7 @@
       </c>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26" s="25" t="s">
         <v>17</v>
       </c>
@@ -10843,7 +10939,7 @@
         <v>86</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G26" s="21" t="s">
         <v>90</v>
@@ -10855,7 +10951,7 @@
       </c>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" hidden="1">
       <c r="A27" s="25" t="s">
         <v>17</v>
       </c>
@@ -10873,7 +10969,7 @@
         <v>86</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G27" s="21" t="s">
         <v>90</v>
@@ -10885,7 +10981,7 @@
       </c>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" hidden="1">
       <c r="A28" s="25" t="s">
         <v>17</v>
       </c>
@@ -10903,13 +10999,13 @@
         <v>86</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="I28" s="16"/>
       <c r="J28" s="16" t="s">
@@ -10917,7 +11013,7 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29" s="25" t="s">
         <v>17</v>
       </c>
@@ -10935,13 +11031,13 @@
         <v>86</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G29" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="I29" s="16"/>
       <c r="J29" s="16" t="s">
@@ -10949,7 +11045,7 @@
       </c>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="25" t="s">
         <v>17</v>
       </c>
@@ -10967,13 +11063,13 @@
         <v>86</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="16" t="s">
@@ -10981,7 +11077,7 @@
       </c>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31" s="25" t="s">
         <v>17</v>
       </c>
@@ -10999,7 +11095,7 @@
         <v>86</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G31" s="21" t="s">
         <v>90</v>
@@ -11067,7 +11163,7 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" s="19" t="s">
         <v>14</v>
       </c>
@@ -11085,7 +11181,7 @@
         <v>86</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="G34" s="18" t="s">
         <v>88</v>
@@ -11097,7 +11193,7 @@
       </c>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="19" t="s">
         <v>14</v>
       </c>
@@ -11115,7 +11211,7 @@
         <v>86</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>88</v>
@@ -11127,7 +11223,7 @@
       </c>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36" s="19" t="s">
         <v>14</v>
       </c>
@@ -11145,7 +11241,7 @@
         <v>86</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>88</v>
@@ -11157,7 +11253,7 @@
       </c>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="22" t="s">
         <v>16</v>
       </c>
@@ -11175,7 +11271,7 @@
         <v>86</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G37" s="21" t="s">
         <v>90</v>
@@ -11187,7 +11283,7 @@
       </c>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" hidden="1">
       <c r="A38" s="24" t="s">
         <v>18</v>
       </c>
@@ -11205,7 +11301,7 @@
         <v>86</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>90</v>
@@ -11217,7 +11313,7 @@
       </c>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" s="22" t="s">
         <v>16</v>
       </c>
@@ -11245,7 +11341,7 @@
       </c>
       <c r="K39" s="16"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" hidden="1">
       <c r="A40" s="19" t="s">
         <v>14</v>
       </c>
@@ -11273,7 +11369,7 @@
       </c>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" s="24" t="s">
         <v>18</v>
       </c>
@@ -11291,7 +11387,7 @@
         <v>86</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G41" s="21" t="s">
         <v>90</v>
@@ -11303,7 +11399,7 @@
       </c>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42" s="24" t="s">
         <v>18</v>
       </c>
@@ -11321,7 +11417,7 @@
         <v>86</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G42" s="21" t="s">
         <v>90</v>
@@ -11361,7 +11457,7 @@
       </c>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" hidden="1">
       <c r="A44" s="25" t="s">
         <v>17</v>
       </c>
@@ -11379,7 +11475,7 @@
         <v>86</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G44" s="21" t="s">
         <v>90</v>
@@ -11391,7 +11487,7 @@
       </c>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" hidden="1">
       <c r="A45" s="25" t="s">
         <v>17</v>
       </c>
@@ -11409,13 +11505,13 @@
         <v>86</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G45" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="I45" s="16"/>
       <c r="J45" s="16" t="s">
@@ -11451,7 +11547,7 @@
       </c>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" hidden="1">
       <c r="A47" s="24" t="s">
         <v>18</v>
       </c>
@@ -11469,7 +11565,7 @@
         <v>86</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G47" s="18" t="s">
         <v>88</v>
@@ -11481,7 +11577,7 @@
       </c>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" ht="42">
       <c r="A48" s="15" t="s">
         <v>15</v>
       </c>
@@ -11495,21 +11591,25 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Jaqueline Meireles / Margarete Pusippe</v>
       </c>
-      <c r="E48" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F48" s="16"/>
+      <c r="E48" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>166</v>
+      </c>
       <c r="G48" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H48" s="16"/>
+        <v>88</v>
+      </c>
+      <c r="H48" s="43" t="s">
+        <v>234</v>
+      </c>
       <c r="I48" s="16"/>
       <c r="J48" s="16" t="s">
         <v>90</v>
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49" s="22" t="s">
         <v>16</v>
       </c>
@@ -11524,10 +11624,10 @@
         <v>Luiz Fernando Pereira Barbosa</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="G49" s="21" t="s">
         <v>90</v>
@@ -11557,13 +11657,13 @@
         <v>86</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G50" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="I50" s="16"/>
       <c r="J50" s="16" t="s">
@@ -11589,13 +11689,13 @@
         <v>86</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G51" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="I51" s="16"/>
       <c r="J51" s="16" t="s">
@@ -11631,7 +11731,7 @@
       </c>
       <c r="K52" s="16"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" hidden="1">
       <c r="A53" s="24" t="s">
         <v>18</v>
       </c>
@@ -11649,7 +11749,7 @@
         <v>86</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="G53" s="18" t="s">
         <v>88</v>
@@ -11679,13 +11779,13 @@
         <v>86</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="G54" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="I54" s="16"/>
       <c r="J54" s="16" t="s">
@@ -11693,7 +11793,7 @@
       </c>
       <c r="K54" s="16"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" s="24" t="s">
         <v>18</v>
       </c>
@@ -11721,7 +11821,7 @@
       </c>
       <c r="K55" s="16"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" s="24" t="s">
         <v>18</v>
       </c>
@@ -11739,7 +11839,7 @@
         <v>86</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="G56" s="21" t="s">
         <v>90</v>
@@ -11751,7 +11851,7 @@
       </c>
       <c r="K56" s="16"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57" s="19" t="s">
         <v>14</v>
       </c>
@@ -11769,13 +11869,13 @@
         <v>86</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G57" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="I57" s="16"/>
       <c r="J57" s="16" t="s">
@@ -11783,7 +11883,7 @@
       </c>
       <c r="K57" s="16"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58" s="24" t="s">
         <v>18</v>
       </c>
@@ -11801,7 +11901,7 @@
         <v>86</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G58" s="18" t="s">
         <v>88</v>
@@ -11813,7 +11913,7 @@
       </c>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" hidden="1">
       <c r="A59" s="25" t="s">
         <v>17</v>
       </c>
@@ -11841,7 +11941,7 @@
       </c>
       <c r="K59" s="16"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" hidden="1">
       <c r="A60" s="24" t="s">
         <v>18</v>
       </c>
@@ -11859,13 +11959,13 @@
         <v>86</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G60" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="I60" s="16"/>
       <c r="J60" s="16" t="s">
@@ -11873,7 +11973,7 @@
       </c>
       <c r="K60" s="16"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" hidden="1">
       <c r="A61" s="25" t="s">
         <v>17</v>
       </c>
@@ -11891,23 +11991,23 @@
         <v>86</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G61" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="16" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="J61" s="16" t="s">
         <v>88</v>
       </c>
       <c r="K61" s="16" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" hidden="1">
       <c r="A62" s="24" t="s">
         <v>18</v>
       </c>
@@ -11925,7 +12025,7 @@
         <v>86</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G62" s="21" t="s">
         <v>90</v>
@@ -11937,7 +12037,7 @@
       </c>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" hidden="1">
       <c r="A63" s="25" t="s">
         <v>17</v>
       </c>
@@ -11955,13 +12055,13 @@
         <v>86</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G63" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="I63" s="16"/>
       <c r="J63" s="16" t="s">
@@ -11969,7 +12069,7 @@
       </c>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" ht="42">
       <c r="A64" s="15" t="s">
         <v>15</v>
       </c>
@@ -11984,16 +12084,20 @@
         <v>Adriano Pereira Guedes</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
+        <v>88</v>
+      </c>
+      <c r="H64" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>248</v>
+      </c>
       <c r="J64" s="16" t="s">
         <v>90</v>
       </c>
@@ -12027,7 +12131,7 @@
       </c>
       <c r="K65" s="16"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" hidden="1">
       <c r="A66" s="19" t="s">
         <v>14</v>
       </c>
@@ -12045,13 +12149,13 @@
         <v>86</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G66" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="I66" s="16"/>
       <c r="J66" s="16" t="s">
@@ -12059,7 +12163,7 @@
       </c>
       <c r="K66" s="16"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" hidden="1">
       <c r="A67" s="22" t="s">
         <v>16</v>
       </c>
@@ -12077,7 +12181,7 @@
         <v>86</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G67" s="21" t="s">
         <v>90</v>
@@ -12089,7 +12193,7 @@
       </c>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" hidden="1">
       <c r="A68" s="22" t="s">
         <v>16</v>
       </c>
@@ -12107,7 +12211,7 @@
         <v>86</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G68" s="21" t="s">
         <v>90</v>
@@ -12119,7 +12223,7 @@
       </c>
       <c r="K68" s="16"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" hidden="1">
       <c r="A69" s="24" t="s">
         <v>18</v>
       </c>
@@ -12148,7 +12252,13 @@
       <c r="K69" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:G69" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Gabriel"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="G2:G69">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -12202,11 +12312,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12287,7 +12398,7 @@
       </c>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
@@ -12305,7 +12416,7 @@
         <v>86</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>90</v>
@@ -12335,19 +12446,21 @@
         <v>86</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="16"/>
+        <v>88</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16" t="s">
         <v>90</v>
       </c>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" s="19" t="s">
         <v>14</v>
       </c>
@@ -12365,13 +12478,13 @@
         <v>86</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16" t="s">
@@ -12379,7 +12492,7 @@
       </c>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
@@ -12397,7 +12510,7 @@
         <v>86</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>90</v>
@@ -12427,13 +12540,13 @@
         <v>86</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16" t="s">
@@ -12441,7 +12554,7 @@
       </c>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" hidden="1">
       <c r="A8" s="22" t="s">
         <v>16</v>
       </c>
@@ -12469,7 +12582,7 @@
       </c>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="19" t="s">
         <v>14</v>
       </c>
@@ -12497,7 +12610,7 @@
       </c>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" s="19" t="s">
         <v>14</v>
       </c>
@@ -12512,10 +12625,10 @@
         <v>Tatiane Girardi</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>90</v>
@@ -12527,7 +12640,7 @@
       </c>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" s="22" t="s">
         <v>16</v>
       </c>
@@ -12545,7 +12658,7 @@
         <v>86</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>90</v>
@@ -12557,7 +12670,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" s="22" t="s">
         <v>16</v>
       </c>
@@ -12575,7 +12688,7 @@
         <v>86</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>90</v>
@@ -12587,7 +12700,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" s="22" t="s">
         <v>16</v>
       </c>
@@ -12617,7 +12730,7 @@
       </c>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" s="22" t="s">
         <v>16</v>
       </c>
@@ -12632,10 +12745,10 @@
         <v>Mauricio Pinto de Lima</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>90</v>
@@ -12647,7 +12760,7 @@
       </c>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" s="22" t="s">
         <v>16</v>
       </c>
@@ -12659,13 +12772,13 @@
       </c>
       <c r="D15" s="16" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
-        <v/>
+        <v>Marcelo Merlini</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="G15" s="21" t="s">
         <v>90</v>
@@ -12677,7 +12790,7 @@
       </c>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" s="22" t="s">
         <v>16</v>
       </c>
@@ -12689,13 +12802,13 @@
       </c>
       <c r="D16" s="16" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
-        <v>Marcelo Merlini</v>
+        <v xml:space="preserve">Débora Laize Lampert Gnass </v>
       </c>
       <c r="E16" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="G16" s="21" t="s">
         <v>90</v>
@@ -12707,7 +12820,7 @@
       </c>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" s="19" t="s">
         <v>14</v>
       </c>
@@ -12725,7 +12838,7 @@
         <v>86</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>88</v>
@@ -12737,7 +12850,7 @@
       </c>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" s="24" t="s">
         <v>18</v>
       </c>
@@ -12765,7 +12878,7 @@
       </c>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" s="19" t="s">
         <v>14</v>
       </c>
@@ -12793,7 +12906,7 @@
       </c>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="24" t="s">
         <v>18</v>
       </c>
@@ -12811,7 +12924,7 @@
         <v>86</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>88</v>
@@ -12823,7 +12936,7 @@
       </c>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" s="19" t="s">
         <v>14</v>
       </c>
@@ -12841,13 +12954,13 @@
         <v>86</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="16" t="s">
@@ -12855,7 +12968,7 @@
       </c>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22" s="24" t="s">
         <v>18</v>
       </c>
@@ -12883,7 +12996,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" s="22" t="s">
         <v>16</v>
       </c>
@@ -12901,7 +13014,7 @@
         <v>86</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G23" s="21" t="s">
         <v>90</v>
@@ -12913,7 +13026,7 @@
       </c>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="25" t="s">
         <v>17</v>
       </c>
@@ -12941,7 +13054,7 @@
       </c>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="25" t="s">
         <v>17</v>
       </c>
@@ -12959,7 +13072,7 @@
         <v>86</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G25" s="21" t="s">
         <v>90</v>
@@ -12971,7 +13084,7 @@
       </c>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26" s="25" t="s">
         <v>17</v>
       </c>
@@ -13001,7 +13114,7 @@
       </c>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" hidden="1">
       <c r="A27" s="25" t="s">
         <v>17</v>
       </c>
@@ -13019,7 +13132,7 @@
         <v>86</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G27" s="21" t="s">
         <v>90</v>
@@ -13031,7 +13144,7 @@
       </c>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" hidden="1">
       <c r="A28" s="25" t="s">
         <v>17</v>
       </c>
@@ -13049,13 +13162,13 @@
         <v>86</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="I28" s="16"/>
       <c r="J28" s="16" t="s">
@@ -13063,7 +13176,7 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29" s="25" t="s">
         <v>17</v>
       </c>
@@ -13081,13 +13194,13 @@
         <v>86</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G29" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="I29" s="16"/>
       <c r="J29" s="16" t="s">
@@ -13095,7 +13208,7 @@
       </c>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="25" t="s">
         <v>17</v>
       </c>
@@ -13113,13 +13226,13 @@
         <v>86</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="16" t="s">
@@ -13127,7 +13240,7 @@
       </c>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31" s="25" t="s">
         <v>17</v>
       </c>
@@ -13211,7 +13324,7 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" s="19" t="s">
         <v>14</v>
       </c>
@@ -13229,7 +13342,7 @@
         <v>86</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>90</v>
@@ -13241,7 +13354,7 @@
       </c>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="19" t="s">
         <v>14</v>
       </c>
@@ -13259,7 +13372,7 @@
         <v>86</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>88</v>
@@ -13271,7 +13384,7 @@
       </c>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36" s="19" t="s">
         <v>14</v>
       </c>
@@ -13289,7 +13402,7 @@
         <v>86</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>88</v>
@@ -13301,7 +13414,7 @@
       </c>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="22" t="s">
         <v>16</v>
       </c>
@@ -13319,7 +13432,7 @@
         <v>86</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G37" s="21" t="s">
         <v>90</v>
@@ -13331,7 +13444,7 @@
       </c>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" hidden="1">
       <c r="A38" s="24" t="s">
         <v>18</v>
       </c>
@@ -13349,7 +13462,7 @@
         <v>86</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>90</v>
@@ -13361,7 +13474,7 @@
       </c>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" s="22" t="s">
         <v>16</v>
       </c>
@@ -13379,7 +13492,7 @@
         <v>86</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>90</v>
@@ -13391,7 +13504,7 @@
       </c>
       <c r="K39" s="16"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" hidden="1">
       <c r="A40" s="19" t="s">
         <v>14</v>
       </c>
@@ -13419,7 +13532,7 @@
       </c>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" s="24" t="s">
         <v>18</v>
       </c>
@@ -13437,7 +13550,7 @@
         <v>86</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="G41" s="21" t="s">
         <v>90</v>
@@ -13449,7 +13562,7 @@
       </c>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42" s="24" t="s">
         <v>18</v>
       </c>
@@ -13467,7 +13580,7 @@
         <v>86</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G42" s="21" t="s">
         <v>90</v>
@@ -13507,7 +13620,7 @@
       </c>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" hidden="1">
       <c r="A44" s="25" t="s">
         <v>17</v>
       </c>
@@ -13525,7 +13638,7 @@
         <v>86</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G44" s="18" t="s">
         <v>88</v>
@@ -13537,7 +13650,7 @@
       </c>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" hidden="1">
       <c r="A45" s="25" t="s">
         <v>17</v>
       </c>
@@ -13555,13 +13668,13 @@
         <v>86</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="G45" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="I45" s="16"/>
       <c r="J45" s="16" t="s">
@@ -13597,7 +13710,7 @@
       </c>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" hidden="1">
       <c r="A47" s="24" t="s">
         <v>18</v>
       </c>
@@ -13615,7 +13728,7 @@
         <v>86</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G47" s="18" t="s">
         <v>88</v>
@@ -13641,21 +13754,25 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Jaqueline Meireles / Margarete Pusippe</v>
       </c>
-      <c r="E48" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F48" s="16"/>
+      <c r="E48" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>166</v>
+      </c>
       <c r="G48" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H48" s="16"/>
+        <v>88</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>259</v>
+      </c>
       <c r="I48" s="16"/>
       <c r="J48" s="16" t="s">
         <v>90</v>
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49" s="22" t="s">
         <v>16</v>
       </c>
@@ -13673,7 +13790,7 @@
         <v>86</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G49" s="21" t="s">
         <v>90</v>
@@ -13703,13 +13820,13 @@
         <v>86</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G50" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="I50" s="16"/>
       <c r="J50" s="16" t="s">
@@ -13735,13 +13852,13 @@
         <v>86</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G51" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="I51" s="16"/>
       <c r="J51" s="16" t="s">
@@ -13777,7 +13894,7 @@
       </c>
       <c r="K52" s="16"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" hidden="1">
       <c r="A53" s="24" t="s">
         <v>18</v>
       </c>
@@ -13795,7 +13912,7 @@
         <v>86</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G53" s="18" t="s">
         <v>88</v>
@@ -13825,13 +13942,13 @@
         <v>86</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="G54" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="I54" s="16"/>
       <c r="J54" s="16" t="s">
@@ -13839,7 +13956,7 @@
       </c>
       <c r="K54" s="16"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" s="24" t="s">
         <v>18</v>
       </c>
@@ -13867,7 +13984,7 @@
       </c>
       <c r="K55" s="16"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" s="24" t="s">
         <v>18</v>
       </c>
@@ -13885,7 +14002,7 @@
         <v>86</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="G56" s="21" t="s">
         <v>90</v>
@@ -13897,7 +14014,7 @@
       </c>
       <c r="K56" s="16"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57" s="19" t="s">
         <v>14</v>
       </c>
@@ -13925,7 +14042,7 @@
       </c>
       <c r="K57" s="16"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58" s="24" t="s">
         <v>18</v>
       </c>
@@ -13943,7 +14060,7 @@
         <v>86</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G58" s="18" t="s">
         <v>88</v>
@@ -13955,7 +14072,7 @@
       </c>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" hidden="1">
       <c r="A59" s="25" t="s">
         <v>17</v>
       </c>
@@ -13983,7 +14100,7 @@
       </c>
       <c r="K59" s="16"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" hidden="1">
       <c r="A60" s="24" t="s">
         <v>18</v>
       </c>
@@ -14001,7 +14118,7 @@
         <v>86</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G60" s="18" t="s">
         <v>88</v>
@@ -14013,7 +14130,7 @@
       </c>
       <c r="K60" s="16"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" hidden="1">
       <c r="A61" s="25" t="s">
         <v>17</v>
       </c>
@@ -14031,7 +14148,7 @@
         <v>86</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="G61" s="21" t="s">
         <v>90</v>
@@ -14043,7 +14160,7 @@
       </c>
       <c r="K61" s="16"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" hidden="1">
       <c r="A62" s="24" t="s">
         <v>18</v>
       </c>
@@ -14061,7 +14178,7 @@
         <v>86</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G62" s="21" t="s">
         <v>90</v>
@@ -14073,7 +14190,7 @@
       </c>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" hidden="1">
       <c r="A63" s="25" t="s">
         <v>17</v>
       </c>
@@ -14091,7 +14208,7 @@
         <v>86</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G63" s="18" t="s">
         <v>88</v>
@@ -14103,7 +14220,7 @@
       </c>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" ht="70.5">
       <c r="A64" s="15" t="s">
         <v>15</v>
       </c>
@@ -14118,16 +14235,20 @@
         <v>Adriano Pereira Guedes</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
+        <v>88</v>
+      </c>
+      <c r="H64" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>266</v>
+      </c>
       <c r="J64" s="16" t="s">
         <v>90</v>
       </c>
@@ -14148,26 +14269,26 @@
         <v xml:space="preserve">Graziela Gobbato / Suzana Cristina de Almeida </v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="G65" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="J65" s="16" t="s">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="K65" s="16"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" hidden="1">
       <c r="A66" s="19" t="s">
         <v>14</v>
       </c>
@@ -14185,7 +14306,7 @@
         <v>86</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G66" s="21" t="s">
         <v>90</v>
@@ -14197,7 +14318,7 @@
       </c>
       <c r="K66" s="16"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" hidden="1">
       <c r="A67" s="22" t="s">
         <v>16</v>
       </c>
@@ -14215,7 +14336,7 @@
         <v>86</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G67" s="21" t="s">
         <v>90</v>
@@ -14227,7 +14348,7 @@
       </c>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" hidden="1">
       <c r="A68" s="22" t="s">
         <v>16</v>
       </c>
@@ -14245,7 +14366,7 @@
         <v>86</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G68" s="21" t="s">
         <v>90</v>
@@ -14257,7 +14378,7 @@
       </c>
       <c r="K68" s="16"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" hidden="1">
       <c r="A69" s="24" t="s">
         <v>18</v>
       </c>
@@ -14286,7 +14407,13 @@
       <c r="K69" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:G69" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Gabriel"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="G2:G69">
     <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>

--- a/inputs/0 - GRS II/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - GRS II/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29212"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_695776334B1DFFAEB11C6DB0541EF759B2EAF06A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37B48B52-1637-46C7-8B1C-CA68997B49B4}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_68577633C20DF4F615ED63F4E47EEA0B2AAEC04D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7416B282-11D5-44BC-B7FF-79BB9F4C9EA8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -39,30 +39,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="283">
   <si>
     <t>Formulário</t>
   </si>
@@ -412,6 +390,9 @@
     <t>Cristina Harumi Enokida</t>
   </si>
   <si>
+    <t>12/08/2025</t>
+  </si>
+  <si>
     <t>Está com dificuldade de salvar o rascunho do formulário 1</t>
   </si>
   <si>
@@ -449,6 +430,12 @@
   </si>
   <si>
     <t>Andrea Carla Winkelmann</t>
+  </si>
+  <si>
+    <t>08/08/2025</t>
+  </si>
+  <si>
+    <t>corrigir aba 7 (não há compostagem)</t>
   </si>
   <si>
     <t>Lorizete de Andrade</t>
@@ -593,6 +580,9 @@
     <t>Dorival Manoel Canhete</t>
   </si>
   <si>
+    <t>21/08/2025</t>
+  </si>
+  <si>
     <t>Jaqueline Vanelli</t>
   </si>
   <si>
@@ -668,7 +658,7 @@
     <t>Adriano Pereira Guedes</t>
   </si>
   <si>
-    <t>03/04/2025, 04/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 12/05/2025</t>
+    <t>12/05/2025</t>
   </si>
   <si>
     <t>Revisar informações financeiras, valores preenchidos muito abaixo do ideal (solicitar a secretária os dados); sim, há diferença entre as coletas; quanto a aba de coelta seletiva: Revisar dias de coleta, não tem como coletar 100 DIAS DENTRO DE UMA SEMANA. onde é realizado a compostagem e a reciclagem de RCC? pois no aterro não tem.</t>
@@ -677,6 +667,9 @@
     <t>ID159; ID158; ID156; ID155; ID145; ID144</t>
   </si>
   <si>
+    <t>Deletados 144;145;155;156;158;159</t>
+  </si>
+  <si>
     <t xml:space="preserve">Graziela Gobbato / Suzana Cristina de Almeida </t>
   </si>
   <si>
@@ -749,9 +742,18 @@
     <t>06/05/2025</t>
   </si>
   <si>
+    <t>corrigir caminhao semi compactador</t>
+  </si>
+  <si>
     <t>14/04/2025</t>
   </si>
   <si>
+    <t>corrigir esteira de triagem elevação</t>
+  </si>
+  <si>
+    <t>corrigir quantidade de elevador de fardo</t>
+  </si>
+  <si>
     <t>03/07/2025</t>
   </si>
   <si>
@@ -765,6 +767,9 @@
   </si>
   <si>
     <t>28/02/2025</t>
+  </si>
+  <si>
+    <t>06/08/2025, 20/08/2025</t>
   </si>
   <si>
     <t>Verificar Equipamentos I - vocês não possuem prensa HORIZONTAL, trocar para VERTICAL. e até onde me lembro uma está quebrada para manutenção, ou não?; esteiras - não possuem esteira de triagem elevada (está como elevação, mas vai ser corrigido), retirar; em outros - mesa de triagem, seria de eletronicos, se tiver mantem, se não, retirar.</t>
@@ -792,6 +797,9 @@
 Pág 4, estão com 3 prensas horizontais?</t>
   </si>
   <si>
+    <t>19/08/2025</t>
+  </si>
+  <si>
     <t>Alterado as fotos</t>
   </si>
   <si>
@@ -804,15 +812,15 @@
     <t xml:space="preserve"> Ajustas a aba 3</t>
   </si>
   <si>
-    <t>04/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 12/05/2025</t>
-  </si>
-  <si>
     <t xml:space="preserve">Refazer todas as fotos e tirar no formado horizontal; A área de processamento operacional é coberta? sim, mas as metragens estão incorretas, revisar. o caminhão é semi-compactador trocar. possui Carro de Movimentação de Big Bag, revisar quantidade!! Esteira de Triagem Elevação (aqui é para ser elevada) vocês não  possuem, retirar. </t>
   </si>
   <si>
     <t>ID192; ID191; ID190; ID189; ID171</t>
   </si>
   <si>
+    <t>Deletados 171;189;190;191;192</t>
+  </si>
+  <si>
     <t>Pag 3, as fotos da edificação e da área de estocagem estão ótimas, para as outras áreas precisaria de fotos mais específicas</t>
   </si>
   <si>
@@ -834,6 +842,9 @@
     <t>Pág 3, dividir os anexos na documentação pertinente (Estatuto e Ata)</t>
   </si>
   <si>
+    <t>20/08/2025</t>
+  </si>
+  <si>
     <t>Corrigir item 3 - administração do empreendimento</t>
   </si>
   <si>
@@ -867,7 +878,7 @@
     <t>ID169; ID168; ID166; ID165; ID149</t>
   </si>
   <si>
-    <t>24/03/2025, 28/07/2025, 29/07/2025</t>
+    <t>Deletados 149;165;166;168;169</t>
   </si>
   <si>
     <t>Corrigir nome da presidente</t>
@@ -876,7 +887,7 @@
     <t>ID115, ID187</t>
   </si>
   <si>
-    <t>Em Análise</t>
+    <t>Deletados 115; 187</t>
   </si>
   <si>
     <t>17/06/2025</t>
@@ -1200,7 +1211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1327,9 +1338,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -2203,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2251,19 +2259,19 @@
       </c>
       <c r="B2" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 1 - Município'!E2:E100"),"Enviado")</f>
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C2" s="27">
         <f ca="1">B2/SUM($B2,$D2,$F2)</f>
-        <v>0.65</v>
+        <v>0.81967213114754101</v>
       </c>
       <c r="D2" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 1 - Município'!E2:E100"),"Atrasado")</f>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E2" s="27">
         <f ca="1">D2/SUM($B2,$D2,$F2)</f>
-        <v>0.35</v>
+        <v>0.18032786885245902</v>
       </c>
       <c r="F2" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 1 - Município'!E2:E100"),"Sem Técnico")</f>
@@ -2275,7 +2283,7 @@
       </c>
       <c r="H2" s="28">
         <f ca="1">SUM(B2,D2,F2)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
@@ -2284,19 +2292,19 @@
       </c>
       <c r="B3" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!E2:E100"),"Enviado")</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C3" s="27">
         <f ca="1">B3/SUM($B3,$D3,$F3)</f>
-        <v>0.7846153846153846</v>
+        <v>0.81538461538461537</v>
       </c>
       <c r="D3" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!E2:E100"),"Atrasado")</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="27">
         <f ca="1">D3/SUM($B3,$D3,$F3)</f>
-        <v>0.2153846153846154</v>
+        <v>0.18461538461538463</v>
       </c>
       <c r="F3" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!E2:E100"),"Sem Técnico")</f>
@@ -2317,19 +2325,19 @@
       </c>
       <c r="B4" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!E2:E100"),"Enviado")</f>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C4" s="27">
         <f ca="1">B4/SUM($B4,$D4,$F4)</f>
-        <v>0.71875</v>
+        <v>0.78787878787878785</v>
       </c>
       <c r="D4" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!E2:E100"),"Atrasado")</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E4" s="27">
         <f ca="1">D4/SUM($B4,$D4,$F4)</f>
-        <v>0.28125</v>
+        <v>0.21212121212121213</v>
       </c>
       <c r="F4" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!E2:E100"),"Sem Técnico")</f>
@@ -2341,7 +2349,7 @@
       </c>
       <c r="H4" s="28">
         <f ca="1">SUM(B4,D4,F4)</f>
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
@@ -2350,19 +2358,19 @@
       </c>
       <c r="B5" s="28">
         <f ca="1">SUM(B2:B4)</f>
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="C5" s="27">
         <f ca="1">B5/SUM($B5,$D5,$F5)</f>
-        <v>0.71957671957671954</v>
+        <v>0.80729166666666663</v>
       </c>
       <c r="D5" s="28">
         <f ca="1">SUM(D2:D4)</f>
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E5" s="27">
         <f ca="1">D5/SUM($B5,$D5,$F5)</f>
-        <v>0.28042328042328041</v>
+        <v>0.19270833333333334</v>
       </c>
       <c r="F5" s="28">
         <f ca="1">SUM(F2:F4)</f>
@@ -2374,7 +2382,7 @@
       </c>
       <c r="H5" s="28">
         <f ca="1">SUM(B5,D5,F5)</f>
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1">
@@ -2394,11 +2402,11 @@
       </c>
       <c r="B10" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 1 - Município'!G2:G100"),"Sim")</f>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C10" s="29">
         <f ca="1">$B$10/$B$2</f>
-        <v>0.66666666666666663</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
@@ -2407,11 +2415,11 @@
       </c>
       <c r="B11" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!G2:G100"),"Sim")</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C11" s="29">
         <f ca="1">$B$11/$B$3</f>
-        <v>0.56862745098039214</v>
+        <v>0.64150943396226412</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
@@ -2420,11 +2428,11 @@
       </c>
       <c r="B12" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!G2:G100"),"Sim")</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C12" s="29">
         <f ca="1">$B$12/$B$4</f>
-        <v>0.52173913043478259</v>
+        <v>0.55769230769230771</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
@@ -2434,18 +2442,18 @@
       <c r="B15" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="44"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="44"/>
+      <c r="E15" s="43"/>
       <c r="F15" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="44"/>
+      <c r="G15" s="43"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="45"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2475,7 +2483,7 @@
       </c>
       <c r="C17" s="29">
         <f ca="1">B17/B2</f>
-        <v>0.15384615384615385</v>
+        <v>0.12</v>
       </c>
       <c r="D17" s="30">
         <f t="array" aca="1" ref="D17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
@@ -2483,7 +2491,7 @@
       </c>
       <c r="E17" s="29">
         <f ca="1">D17/B3</f>
-        <v>0.19607843137254902</v>
+        <v>0.18867924528301888</v>
       </c>
       <c r="F17" s="30">
         <f t="array" aca="1" ref="F17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
@@ -2491,7 +2499,7 @@
       </c>
       <c r="G17" s="29">
         <f ca="1">F17/B4</f>
-        <v>0.10869565217391304</v>
+        <v>9.6153846153846159E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2504,15 +2512,15 @@
       </c>
       <c r="C18" s="29">
         <f ca="1">B18/B2</f>
-        <v>0.23076923076923078</v>
+        <v>0.18</v>
       </c>
       <c r="D18" s="30">
         <f t="array" aca="1" ref="D18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="29">
         <f ca="1">D18/B3</f>
-        <v>0.15686274509803921</v>
+        <v>0.13207547169811321</v>
       </c>
       <c r="F18" s="30">
         <f t="array" aca="1" ref="F18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
@@ -2520,7 +2528,7 @@
       </c>
       <c r="G18" s="29">
         <f ca="1">F18/B5</f>
-        <v>5.8823529411764705E-2</v>
+        <v>5.1612903225806452E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2558,27 +2566,27 @@
       </c>
       <c r="B20" s="30">
         <f t="array" aca="1" ref="B20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C20" s="29">
         <f ca="1">B20/B2</f>
-        <v>0.12820512820512819</v>
+        <v>0.26</v>
       </c>
       <c r="D20" s="30">
         <f t="array" aca="1" ref="D20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E20" s="29">
         <f ca="1">D20/B3</f>
-        <v>0.11764705882352941</v>
+        <v>0.22641509433962265</v>
       </c>
       <c r="F20" s="30">
         <f t="array" aca="1" ref="F20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G20" s="29">
         <f ca="1">F20/B5</f>
-        <v>4.4117647058823532E-2</v>
+        <v>7.0967741935483872E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2591,7 +2599,7 @@
       </c>
       <c r="C21" s="29">
         <f ca="1">B21/B2</f>
-        <v>0.15384615384615385</v>
+        <v>0.12</v>
       </c>
       <c r="D21" s="30">
         <f t="array" aca="1" ref="D21" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
@@ -2599,7 +2607,7 @@
       </c>
       <c r="E21" s="29">
         <f ca="1">D21/B3</f>
-        <v>9.8039215686274508E-2</v>
+        <v>9.4339622641509441E-2</v>
       </c>
       <c r="F21" s="30">
         <f t="array" aca="1" ref="F21" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
@@ -2607,7 +2615,7 @@
       </c>
       <c r="G21" s="29">
         <f ca="1">F21/B5</f>
-        <v>3.6764705882352942E-2</v>
+        <v>3.2258064516129031E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2616,27 +2624,27 @@
       </c>
       <c r="B22" s="31">
         <f ca="1">SUM(B17:B21)</f>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C22" s="32">
         <f ca="1">SUM(C17:C21)</f>
-        <v>0.66666666666666663</v>
+        <v>0.68</v>
       </c>
       <c r="D22" s="31">
         <f ca="1">SUM(D17:D21)</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E22" s="32">
         <f ca="1">SUM(E17:E21)</f>
-        <v>0.56862745098039214</v>
+        <v>0.64150943396226423</v>
       </c>
       <c r="F22" s="31">
         <f ca="1">SUM(F17:F21)</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G22" s="32">
         <f ca="1">SUM(G17:G21)</f>
-        <v>0.24840153452685423</v>
+        <v>0.25099255583126556</v>
       </c>
     </row>
   </sheetData>
@@ -2654,7 +2662,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2813,7 +2823,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="L2" s="13" t="str">
         <f t="array" aca="1" ref="L2" ca="1">IF(
@@ -2857,7 +2867,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2965,7 +2975,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="L3" s="13" t="str">
         <f t="array" aca="1" ref="L3" ca="1">IF(
@@ -3117,7 +3127,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="L4" s="13" t="str">
         <f t="array" aca="1" ref="L4" ca="1">IF(
@@ -3269,7 +3279,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="L5" s="13" t="str">
         <f t="array" aca="1" ref="L5" ca="1">IF(
@@ -3421,7 +3431,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="L6" s="13" t="str">
         <f t="array" aca="1" ref="L6" ca="1">IF(
@@ -3573,7 +3583,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="L7" s="13" t="str">
         <f t="array" aca="1" ref="L7" ca="1">IF(
@@ -3725,7 +3735,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="L8" s="13" t="str">
         <f t="array" aca="1" ref="L8" ca="1">IF(
@@ -3824,7 +3834,7 @@
         FALSE
     )
 )</f>
-        <v>Enviado</v>
+        <v>Duplicado</v>
       </c>
       <c r="F9" s="13" t="str">
         <f t="array" aca="1" ref="F9" ca="1">IF(
@@ -3877,7 +3887,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="L9" s="13" t="str">
         <f t="array" aca="1" ref="L9" ca="1">IF(
@@ -4258,7 +4268,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="E12" s="13" t="str">
         <f t="array" aca="1" ref="E12" ca="1">IF(
@@ -4280,7 +4290,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="F12" s="13" t="str">
         <f t="array" aca="1" ref="F12" ca="1">IF(
@@ -4302,7 +4312,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="H12" s="34" t="s">
         <v>17</v>
@@ -4355,7 +4365,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="M12" s="13" t="str">
         <f t="array" aca="1" ref="M12" ca="1">IF(
@@ -4377,7 +4387,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4562,7 +4572,7 @@
         FALSE
     )
 )</f>
-        <v>Duplicado</v>
+        <v>Enviado</v>
       </c>
       <c r="E14" s="13" t="str">
         <f t="array" aca="1" ref="E14" ca="1">IF(
@@ -4584,7 +4594,7 @@
         FALSE
     )
 )</f>
-        <v>Duplicado</v>
+        <v>Enviado</v>
       </c>
       <c r="F14" s="13" t="str">
         <f t="array" aca="1" ref="F14" ca="1">IF(
@@ -4606,7 +4616,7 @@
         FALSE
     )
 )</f>
-        <v>Duplicado</v>
+        <v>Enviado</v>
       </c>
       <c r="H14" s="34" t="s">
         <v>17</v>
@@ -4758,7 +4768,7 @@
         FALSE
     )
 )</f>
-        <v>Duplicado</v>
+        <v>Enviado</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
@@ -5252,7 +5262,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -5589,7 +5599,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="E23" s="13" t="str">
         <f t="array" aca="1" ref="E23" ca="1">IF(
@@ -8044,12 +8054,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F33" sqref="F33"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8059,12 +8068,11 @@
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="87" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="162" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="6" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="337" customWidth="1"/>
+    <col min="9" max="9" width="45" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="26" customWidth="1"/>
+    <col min="11" max="11" width="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -8133,7 +8141,7 @@
       </c>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11" hidden="1">
+    <row r="3" spans="1:11">
       <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
@@ -8179,7 +8187,7 @@
       <c r="F4" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H4" s="16" t="s">
@@ -8191,7 +8199,7 @@
       </c>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:11" hidden="1">
+    <row r="5" spans="1:11">
       <c r="A5" s="19" t="s">
         <v>14</v>
       </c>
@@ -8220,7 +8228,7 @@
       </c>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11" hidden="1">
+    <row r="6" spans="1:11">
       <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
@@ -8280,7 +8288,7 @@
       </c>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:11" hidden="1">
+    <row r="8" spans="1:11">
       <c r="A8" s="22" t="s">
         <v>16</v>
       </c>
@@ -8311,7 +8319,7 @@
       </c>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11" hidden="1">
+    <row r="9" spans="1:11">
       <c r="A9" s="19" t="s">
         <v>14</v>
       </c>
@@ -8338,7 +8346,7 @@
       </c>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11" hidden="1">
+    <row r="10" spans="1:11">
       <c r="A10" s="19" t="s">
         <v>14</v>
       </c>
@@ -8367,7 +8375,7 @@
       </c>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:11" hidden="1">
+    <row r="11" spans="1:11">
       <c r="A11" s="22" t="s">
         <v>16</v>
       </c>
@@ -8396,7 +8404,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11" hidden="1">
+    <row r="12" spans="1:11">
       <c r="A12" s="22" t="s">
         <v>16</v>
       </c>
@@ -8425,7 +8433,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11" hidden="1">
+    <row r="13" spans="1:11">
       <c r="A13" s="22" t="s">
         <v>16</v>
       </c>
@@ -8454,7 +8462,7 @@
       </c>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:11" hidden="1">
+    <row r="14" spans="1:11">
       <c r="A14" s="22" t="s">
         <v>16</v>
       </c>
@@ -8483,7 +8491,7 @@
       </c>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:11" hidden="1">
+    <row r="15" spans="1:11">
       <c r="A15" s="22" t="s">
         <v>16</v>
       </c>
@@ -8512,7 +8520,7 @@
       </c>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:11" hidden="1">
+    <row r="16" spans="1:11">
       <c r="A16" s="22" t="s">
         <v>16</v>
       </c>
@@ -8541,7 +8549,7 @@
       </c>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" hidden="1">
+    <row r="17" spans="1:11">
       <c r="A17" s="19" t="s">
         <v>14</v>
       </c>
@@ -8554,15 +8562,17 @@
       <c r="D17" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="16"/>
+      <c r="E17" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="G17" s="21" t="s">
         <v>90</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="16" t="s">
@@ -8570,7 +8580,7 @@
       </c>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11" hidden="1">
+    <row r="18" spans="1:11">
       <c r="A18" s="24" t="s">
         <v>18</v>
       </c>
@@ -8581,13 +8591,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>88</v>
@@ -8599,7 +8609,7 @@
       </c>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11" hidden="1">
+    <row r="19" spans="1:11">
       <c r="A19" s="19" t="s">
         <v>14</v>
       </c>
@@ -8610,7 +8620,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>92</v>
@@ -8626,7 +8636,7 @@
       </c>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" hidden="1">
+    <row r="20" spans="1:11">
       <c r="A20" s="24" t="s">
         <v>18</v>
       </c>
@@ -8637,13 +8647,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>88</v>
@@ -8655,7 +8665,7 @@
       </c>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" hidden="1">
+    <row r="21" spans="1:11">
       <c r="A21" s="19" t="s">
         <v>14</v>
       </c>
@@ -8666,13 +8676,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>88</v>
@@ -8684,7 +8694,7 @@
       </c>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" hidden="1">
+    <row r="22" spans="1:11">
       <c r="A22" s="24" t="s">
         <v>18</v>
       </c>
@@ -8695,13 +8705,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G22" s="21" t="s">
         <v>90</v>
@@ -8713,7 +8723,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" hidden="1">
+    <row r="23" spans="1:11">
       <c r="A23" s="22" t="s">
         <v>16</v>
       </c>
@@ -8724,13 +8734,13 @@
         <v>1</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G23" s="21" t="s">
         <v>90</v>
@@ -8742,7 +8752,7 @@
       </c>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" hidden="1">
+    <row r="24" spans="1:11">
       <c r="A24" s="25" t="s">
         <v>17</v>
       </c>
@@ -8753,23 +8763,27 @@
         <v>2</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="16"/>
+        <v>129</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>131</v>
+      </c>
       <c r="I24" s="16"/>
       <c r="J24" s="16" t="s">
         <v>90</v>
       </c>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" hidden="1">
+    <row r="25" spans="1:11">
       <c r="A25" s="25" t="s">
         <v>17</v>
       </c>
@@ -8780,23 +8794,27 @@
         <v>3</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25" s="16"/>
+        <v>132</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>131</v>
+      </c>
       <c r="I25" s="16"/>
       <c r="J25" s="16" t="s">
         <v>90</v>
       </c>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" hidden="1">
+    <row r="26" spans="1:11">
       <c r="A26" s="25" t="s">
         <v>17</v>
       </c>
@@ -8807,23 +8825,27 @@
         <v>4</v>
       </c>
       <c r="D26" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E26" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H26" s="16"/>
+      <c r="G26" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>131</v>
+      </c>
       <c r="I26" s="16"/>
       <c r="J26" s="16" t="s">
         <v>90</v>
       </c>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" hidden="1">
+    <row r="27" spans="1:11">
       <c r="A27" s="25" t="s">
         <v>17</v>
       </c>
@@ -8834,23 +8856,27 @@
         <v>5</v>
       </c>
       <c r="D27" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16" t="s">
         <v>90</v>
       </c>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" hidden="1">
+    <row r="28" spans="1:11">
       <c r="A28" s="25" t="s">
         <v>17</v>
       </c>
@@ -8861,23 +8887,27 @@
         <v>6</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H28" s="16"/>
+        <v>135</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>131</v>
+      </c>
       <c r="I28" s="16"/>
       <c r="J28" s="16" t="s">
         <v>90</v>
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" hidden="1">
+    <row r="29" spans="1:11">
       <c r="A29" s="25" t="s">
         <v>17</v>
       </c>
@@ -8888,23 +8918,27 @@
         <v>7</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H29" s="16"/>
+        <v>136</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>131</v>
+      </c>
       <c r="I29" s="16"/>
       <c r="J29" s="16" t="s">
         <v>90</v>
       </c>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" hidden="1">
+    <row r="30" spans="1:11">
       <c r="A30" s="25" t="s">
         <v>17</v>
       </c>
@@ -8915,23 +8949,27 @@
         <v>8</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H30" s="16"/>
+        <v>137</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>131</v>
+      </c>
       <c r="I30" s="16"/>
       <c r="J30" s="16" t="s">
         <v>90</v>
       </c>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" hidden="1">
+    <row r="31" spans="1:11">
       <c r="A31" s="25" t="s">
         <v>17</v>
       </c>
@@ -8942,16 +8980,20 @@
         <v>9</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H31" s="16"/>
+        <v>138</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>131</v>
+      </c>
       <c r="I31" s="16"/>
       <c r="J31" s="16" t="s">
         <v>90</v>
@@ -8969,7 +9011,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>92</v>
@@ -8996,7 +9038,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>92</v>
@@ -9012,7 +9054,7 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:11" hidden="1">
+    <row r="34" spans="1:11">
       <c r="A34" s="19" t="s">
         <v>14</v>
       </c>
@@ -9023,19 +9065,19 @@
         <v>1</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E34" s="23" t="s">
         <v>108</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>90</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I34" s="16"/>
       <c r="J34" s="16" t="s">
@@ -9043,7 +9085,7 @@
       </c>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:11" hidden="1">
+    <row r="35" spans="1:11">
       <c r="A35" s="19" t="s">
         <v>14</v>
       </c>
@@ -9054,19 +9096,19 @@
         <v>1</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I35" s="16"/>
       <c r="J35" s="16" t="s">
@@ -9074,7 +9116,7 @@
       </c>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:11" hidden="1">
+    <row r="36" spans="1:11">
       <c r="A36" s="19" t="s">
         <v>14</v>
       </c>
@@ -9085,19 +9127,19 @@
         <v>1</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I36" s="16"/>
       <c r="J36" s="16" t="s">
@@ -9105,7 +9147,7 @@
       </c>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:11" hidden="1">
+    <row r="37" spans="1:11">
       <c r="A37" s="22" t="s">
         <v>16</v>
       </c>
@@ -9116,19 +9158,19 @@
         <v>1</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G37" s="21" t="s">
         <v>90</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I37" s="16"/>
       <c r="J37" s="16" t="s">
@@ -9136,7 +9178,7 @@
       </c>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:11" hidden="1">
+    <row r="38" spans="1:11">
       <c r="A38" s="24" t="s">
         <v>18</v>
       </c>
@@ -9147,13 +9189,13 @@
         <v>1</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>90</v>
@@ -9165,7 +9207,7 @@
       </c>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:11" hidden="1">
+    <row r="39" spans="1:11">
       <c r="A39" s="22" t="s">
         <v>16</v>
       </c>
@@ -9176,13 +9218,13 @@
         <v>1</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>90</v>
@@ -9194,7 +9236,7 @@
       </c>
       <c r="K39" s="16"/>
     </row>
-    <row r="40" spans="1:11" hidden="1">
+    <row r="40" spans="1:11">
       <c r="A40" s="19" t="s">
         <v>14</v>
       </c>
@@ -9205,7 +9247,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>92</v>
@@ -9221,7 +9263,7 @@
       </c>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:11" hidden="1">
+    <row r="41" spans="1:11">
       <c r="A41" s="24" t="s">
         <v>18</v>
       </c>
@@ -9232,13 +9274,13 @@
         <v>1</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G41" s="21" t="s">
         <v>90</v>
@@ -9250,7 +9292,7 @@
       </c>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:11" hidden="1">
+    <row r="42" spans="1:11">
       <c r="A42" s="24" t="s">
         <v>18</v>
       </c>
@@ -9261,13 +9303,13 @@
         <v>2</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G42" s="21" t="s">
         <v>90</v>
@@ -9290,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>92</v>
@@ -9306,7 +9348,7 @@
       </c>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:11" hidden="1">
+    <row r="44" spans="1:11">
       <c r="A44" s="25" t="s">
         <v>17</v>
       </c>
@@ -9317,13 +9359,13 @@
         <v>1</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G44" s="18" t="s">
         <v>88</v>
@@ -9335,7 +9377,7 @@
       </c>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:11" hidden="1">
+    <row r="45" spans="1:11">
       <c r="A45" s="25" t="s">
         <v>17</v>
       </c>
@@ -9346,19 +9388,19 @@
         <v>1</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G45" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I45" s="16"/>
       <c r="J45" s="16" t="s">
@@ -9377,7 +9419,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>92</v>
@@ -9393,7 +9435,7 @@
       </c>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:11" hidden="1">
+    <row r="47" spans="1:11">
       <c r="A47" s="24" t="s">
         <v>18</v>
       </c>
@@ -9404,13 +9446,13 @@
         <v>1</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G47" s="18" t="s">
         <v>88</v>
@@ -9433,19 +9475,19 @@
         <v>1</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="G48" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G48" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I48" s="16"/>
       <c r="J48" s="16" t="s">
@@ -9453,7 +9495,7 @@
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:11" hidden="1">
+    <row r="49" spans="1:11">
       <c r="A49" s="22" t="s">
         <v>16</v>
       </c>
@@ -9464,13 +9506,13 @@
         <v>1</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G49" s="21" t="s">
         <v>90</v>
@@ -9493,19 +9535,19 @@
         <v>1</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E50" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G50" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I50" s="16"/>
       <c r="J50" s="16" t="s">
@@ -9524,19 +9566,19 @@
         <v>1</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E51" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G51" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I51" s="16"/>
       <c r="J51" s="16" t="s">
@@ -9555,12 +9597,14 @@
         <v>1</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F52" s="16"/>
+        <v>178</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>179</v>
+      </c>
       <c r="G52" s="21" t="s">
         <v>90</v>
       </c>
@@ -9571,7 +9615,7 @@
       </c>
       <c r="K52" s="16"/>
     </row>
-    <row r="53" spans="1:11" hidden="1">
+    <row r="53" spans="1:11">
       <c r="A53" s="24" t="s">
         <v>18</v>
       </c>
@@ -9582,19 +9626,19 @@
         <v>1</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E53" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G53" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I53" s="16"/>
       <c r="J53" s="16" t="s">
@@ -9613,19 +9657,19 @@
         <v>1</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G54" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="I54" s="16"/>
       <c r="J54" s="16" t="s">
@@ -9633,7 +9677,7 @@
       </c>
       <c r="K54" s="16"/>
     </row>
-    <row r="55" spans="1:11" hidden="1">
+    <row r="55" spans="1:11">
       <c r="A55" s="24" t="s">
         <v>18</v>
       </c>
@@ -9644,13 +9688,13 @@
         <v>1</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G55" s="21" t="s">
         <v>90</v>
@@ -9662,7 +9706,7 @@
       </c>
       <c r="K55" s="16"/>
     </row>
-    <row r="56" spans="1:11" hidden="1">
+    <row r="56" spans="1:11">
       <c r="A56" s="24" t="s">
         <v>18</v>
       </c>
@@ -9673,13 +9717,13 @@
         <v>1</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G56" s="21" t="s">
         <v>90</v>
@@ -9691,7 +9735,7 @@
       </c>
       <c r="K56" s="16"/>
     </row>
-    <row r="57" spans="1:11" hidden="1">
+    <row r="57" spans="1:11">
       <c r="A57" s="19" t="s">
         <v>14</v>
       </c>
@@ -9702,7 +9746,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>92</v>
@@ -9718,7 +9762,7 @@
       </c>
       <c r="K57" s="16"/>
     </row>
-    <row r="58" spans="1:11" hidden="1">
+    <row r="58" spans="1:11">
       <c r="A58" s="24" t="s">
         <v>18</v>
       </c>
@@ -9729,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E58" s="17" t="s">
         <v>86</v>
@@ -9747,7 +9791,7 @@
       </c>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:11" hidden="1">
+    <row r="59" spans="1:11">
       <c r="A59" s="25" t="s">
         <v>17</v>
       </c>
@@ -9758,19 +9802,19 @@
         <v>1</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E59" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G59" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I59" s="16"/>
       <c r="J59" s="16" t="s">
@@ -9778,7 +9822,7 @@
       </c>
       <c r="K59" s="16"/>
     </row>
-    <row r="60" spans="1:11" hidden="1">
+    <row r="60" spans="1:11">
       <c r="A60" s="24" t="s">
         <v>18</v>
       </c>
@@ -9789,19 +9833,19 @@
         <v>1</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E60" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G60" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="I60" s="16"/>
       <c r="J60" s="16" t="s">
@@ -9809,7 +9853,7 @@
       </c>
       <c r="K60" s="16"/>
     </row>
-    <row r="61" spans="1:11" hidden="1">
+    <row r="61" spans="1:11">
       <c r="A61" s="25" t="s">
         <v>17</v>
       </c>
@@ -9820,19 +9864,19 @@
         <v>1</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E61" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G61" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="I61" s="16"/>
       <c r="J61" s="16" t="s">
@@ -9840,7 +9884,7 @@
       </c>
       <c r="K61" s="16"/>
     </row>
-    <row r="62" spans="1:11" hidden="1">
+    <row r="62" spans="1:11">
       <c r="A62" s="24" t="s">
         <v>18</v>
       </c>
@@ -9851,13 +9895,13 @@
         <v>1</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E62" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G62" s="21" t="s">
         <v>90</v>
@@ -9869,7 +9913,7 @@
       </c>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:11" hidden="1">
+    <row r="63" spans="1:11">
       <c r="A63" s="25" t="s">
         <v>17</v>
       </c>
@@ -9880,13 +9924,13 @@
         <v>1</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E63" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G63" s="18" t="s">
         <v>88</v>
@@ -9898,7 +9942,7 @@
       </c>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:11" ht="42">
+    <row r="64" spans="1:11">
       <c r="A64" s="15" t="s">
         <v>15</v>
       </c>
@@ -9909,27 +9953,29 @@
         <v>1</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="E64" s="23" t="s">
-        <v>108</v>
+        <v>204</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="G64" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G64" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="H64" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="I64" s="43" t="s">
-        <v>203</v>
+      <c r="H64" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="J64" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="K64" s="16"/>
+        <v>88</v>
+      </c>
+      <c r="K64" s="16" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="15" t="s">
@@ -9942,19 +9988,19 @@
         <v>1</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E65" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G65" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I65" s="16"/>
       <c r="J65" s="16" t="s">
@@ -9962,7 +10008,7 @@
       </c>
       <c r="K65" s="16"/>
     </row>
-    <row r="66" spans="1:11" hidden="1">
+    <row r="66" spans="1:11">
       <c r="A66" s="19" t="s">
         <v>14</v>
       </c>
@@ -9973,7 +10019,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>86</v>
@@ -9985,7 +10031,7 @@
         <v>88</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="I66" s="16"/>
       <c r="J66" s="16" t="s">
@@ -9993,7 +10039,7 @@
       </c>
       <c r="K66" s="16"/>
     </row>
-    <row r="67" spans="1:11" hidden="1">
+    <row r="67" spans="1:11">
       <c r="A67" s="22" t="s">
         <v>16</v>
       </c>
@@ -10004,19 +10050,19 @@
         <v>1</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E67" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G67" s="21" t="s">
         <v>90</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I67" s="16"/>
       <c r="J67" s="16" t="s">
@@ -10024,7 +10070,7 @@
       </c>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="1:11" hidden="1">
+    <row r="68" spans="1:11">
       <c r="A68" s="22" t="s">
         <v>16</v>
       </c>
@@ -10035,7 +10081,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E68" s="20" t="s">
         <v>92</v>
@@ -10051,7 +10097,7 @@
       </c>
       <c r="K68" s="16"/>
     </row>
-    <row r="69" spans="1:11" hidden="1">
+    <row r="69" spans="1:11">
       <c r="A69" s="24" t="s">
         <v>18</v>
       </c>
@@ -10062,7 +10108,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E69" s="20" t="s">
         <v>92</v>
@@ -10079,13 +10125,7 @@
       <c r="K69" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G69" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Gabriel"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <conditionalFormatting sqref="G2:G69">
     <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -10139,12 +10179,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H33" sqref="H33"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10154,12 +10193,12 @@
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="75" customWidth="1"/>
+    <col min="6" max="6" width="51" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="153" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="8" max="8" width="344" customWidth="1"/>
+    <col min="9" max="9" width="38" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="26" customWidth="1"/>
+    <col min="11" max="11" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -10215,13 +10254,13 @@
         <v>86</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="16" t="s">
@@ -10229,7 +10268,7 @@
       </c>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11" hidden="1">
+    <row r="3" spans="1:11">
       <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
@@ -10253,7 +10292,7 @@
         <v>88</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="16" t="s">
@@ -10279,13 +10318,13 @@
         <v>86</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="G4" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16" t="s">
@@ -10293,7 +10332,7 @@
       </c>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:11" hidden="1">
+    <row r="5" spans="1:11">
       <c r="A5" s="19" t="s">
         <v>14</v>
       </c>
@@ -10311,13 +10350,13 @@
         <v>86</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16" t="s">
@@ -10325,7 +10364,7 @@
       </c>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11" hidden="1">
+    <row r="6" spans="1:11">
       <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
@@ -10343,7 +10382,7 @@
         <v>86</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>90</v>
@@ -10379,7 +10418,7 @@
         <v>88</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16" t="s">
@@ -10387,7 +10426,7 @@
       </c>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:11" hidden="1">
+    <row r="8" spans="1:11">
       <c r="A8" s="22" t="s">
         <v>16</v>
       </c>
@@ -10417,7 +10456,7 @@
       </c>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11" hidden="1">
+    <row r="9" spans="1:11">
       <c r="A9" s="19" t="s">
         <v>14</v>
       </c>
@@ -10445,7 +10484,7 @@
       </c>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11" hidden="1">
+    <row r="10" spans="1:11">
       <c r="A10" s="19" t="s">
         <v>14</v>
       </c>
@@ -10463,7 +10502,7 @@
         <v>86</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>88</v>
@@ -10475,7 +10514,7 @@
       </c>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:11" hidden="1">
+    <row r="11" spans="1:11">
       <c r="A11" s="22" t="s">
         <v>16</v>
       </c>
@@ -10505,7 +10544,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11" hidden="1">
+    <row r="12" spans="1:11">
       <c r="A12" s="22" t="s">
         <v>16</v>
       </c>
@@ -10535,7 +10574,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11" hidden="1">
+    <row r="13" spans="1:11">
       <c r="A13" s="22" t="s">
         <v>16</v>
       </c>
@@ -10565,7 +10604,7 @@
       </c>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:11" hidden="1">
+    <row r="14" spans="1:11">
       <c r="A14" s="22" t="s">
         <v>16</v>
       </c>
@@ -10575,15 +10614,15 @@
       <c r="C14" s="16">
         <v>4</v>
       </c>
-      <c r="D14" s="16" t="str" cm="1">
-        <f t="array" ref="D14">IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+      <c r="D14" s="16" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Mauricio Pinto de Lima</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>108</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>90</v>
@@ -10595,7 +10634,7 @@
       </c>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:11" hidden="1">
+    <row r="15" spans="1:11">
       <c r="A15" s="22" t="s">
         <v>16</v>
       </c>
@@ -10613,7 +10652,7 @@
         <v>86</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G15" s="21" t="s">
         <v>90</v>
@@ -10625,7 +10664,7 @@
       </c>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:11" hidden="1">
+    <row r="16" spans="1:11">
       <c r="A16" s="22" t="s">
         <v>16</v>
       </c>
@@ -10643,7 +10682,7 @@
         <v>86</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="G16" s="21" t="s">
         <v>90</v>
@@ -10655,7 +10694,7 @@
       </c>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" hidden="1">
+    <row r="17" spans="1:11">
       <c r="A17" s="19" t="s">
         <v>14</v>
       </c>
@@ -10685,7 +10724,7 @@
       </c>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11" hidden="1">
+    <row r="18" spans="1:11">
       <c r="A18" s="24" t="s">
         <v>18</v>
       </c>
@@ -10713,7 +10752,7 @@
       </c>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11" hidden="1">
+    <row r="19" spans="1:11">
       <c r="A19" s="19" t="s">
         <v>14</v>
       </c>
@@ -10741,7 +10780,7 @@
       </c>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" hidden="1">
+    <row r="20" spans="1:11">
       <c r="A20" s="24" t="s">
         <v>18</v>
       </c>
@@ -10771,7 +10810,7 @@
       </c>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" hidden="1">
+    <row r="21" spans="1:11">
       <c r="A21" s="19" t="s">
         <v>14</v>
       </c>
@@ -10789,7 +10828,7 @@
         <v>86</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>88</v>
@@ -10801,7 +10840,7 @@
       </c>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" hidden="1">
+    <row r="22" spans="1:11">
       <c r="A22" s="24" t="s">
         <v>18</v>
       </c>
@@ -10819,7 +10858,7 @@
         <v>86</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G22" s="21" t="s">
         <v>90</v>
@@ -10831,7 +10870,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" hidden="1">
+    <row r="23" spans="1:11">
       <c r="A23" s="22" t="s">
         <v>16</v>
       </c>
@@ -10849,7 +10888,7 @@
         <v>86</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G23" s="21" t="s">
         <v>90</v>
@@ -10861,7 +10900,7 @@
       </c>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" hidden="1">
+    <row r="24" spans="1:11">
       <c r="A24" s="25" t="s">
         <v>17</v>
       </c>
@@ -10879,19 +10918,21 @@
         <v>86</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="16"/>
+        <v>193</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>233</v>
+      </c>
       <c r="I24" s="16"/>
       <c r="J24" s="16" t="s">
         <v>90</v>
       </c>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" hidden="1">
+    <row r="25" spans="1:11">
       <c r="A25" s="25" t="s">
         <v>17</v>
       </c>
@@ -10909,19 +10950,21 @@
         <v>86</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25" s="16"/>
+        <v>234</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>235</v>
+      </c>
       <c r="I25" s="16"/>
       <c r="J25" s="16" t="s">
         <v>90</v>
       </c>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" hidden="1">
+    <row r="26" spans="1:11">
       <c r="A26" s="25" t="s">
         <v>17</v>
       </c>
@@ -10941,17 +10984,19 @@
       <c r="F26" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="G26" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H26" s="16"/>
+      <c r="G26" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>236</v>
+      </c>
       <c r="I26" s="16"/>
       <c r="J26" s="16" t="s">
         <v>90</v>
       </c>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" hidden="1">
+    <row r="27" spans="1:11">
       <c r="A27" s="25" t="s">
         <v>17</v>
       </c>
@@ -10969,10 +11014,10 @@
         <v>86</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>90</v>
+        <v>237</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
@@ -10981,7 +11026,7 @@
       </c>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" hidden="1">
+    <row r="28" spans="1:11">
       <c r="A28" s="25" t="s">
         <v>17</v>
       </c>
@@ -11005,7 +11050,7 @@
         <v>88</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="I28" s="16"/>
       <c r="J28" s="16" t="s">
@@ -11013,7 +11058,7 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" hidden="1">
+    <row r="29" spans="1:11">
       <c r="A29" s="25" t="s">
         <v>17</v>
       </c>
@@ -11031,13 +11076,13 @@
         <v>86</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G29" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="I29" s="16"/>
       <c r="J29" s="16" t="s">
@@ -11045,7 +11090,7 @@
       </c>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" hidden="1">
+    <row r="30" spans="1:11">
       <c r="A30" s="25" t="s">
         <v>17</v>
       </c>
@@ -11063,13 +11108,13 @@
         <v>86</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="16" t="s">
@@ -11077,7 +11122,7 @@
       </c>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" hidden="1">
+    <row r="31" spans="1:11">
       <c r="A31" s="25" t="s">
         <v>17</v>
       </c>
@@ -11095,7 +11140,7 @@
         <v>86</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G31" s="21" t="s">
         <v>90</v>
@@ -11163,7 +11208,7 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:11" hidden="1">
+    <row r="34" spans="1:11">
       <c r="A34" s="19" t="s">
         <v>14</v>
       </c>
@@ -11181,7 +11226,7 @@
         <v>86</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="G34" s="18" t="s">
         <v>88</v>
@@ -11193,7 +11238,7 @@
       </c>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:11" hidden="1">
+    <row r="35" spans="1:11">
       <c r="A35" s="19" t="s">
         <v>14</v>
       </c>
@@ -11211,7 +11256,7 @@
         <v>86</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>88</v>
@@ -11223,7 +11268,7 @@
       </c>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:11" hidden="1">
+    <row r="36" spans="1:11">
       <c r="A36" s="19" t="s">
         <v>14</v>
       </c>
@@ -11241,7 +11286,7 @@
         <v>86</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>88</v>
@@ -11253,7 +11298,7 @@
       </c>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:11" hidden="1">
+    <row r="37" spans="1:11">
       <c r="A37" s="22" t="s">
         <v>16</v>
       </c>
@@ -11271,7 +11316,7 @@
         <v>86</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G37" s="21" t="s">
         <v>90</v>
@@ -11283,7 +11328,7 @@
       </c>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:11" hidden="1">
+    <row r="38" spans="1:11">
       <c r="A38" s="24" t="s">
         <v>18</v>
       </c>
@@ -11301,7 +11346,7 @@
         <v>86</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>90</v>
@@ -11313,7 +11358,7 @@
       </c>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:11" hidden="1">
+    <row r="39" spans="1:11">
       <c r="A39" s="22" t="s">
         <v>16</v>
       </c>
@@ -11341,7 +11386,7 @@
       </c>
       <c r="K39" s="16"/>
     </row>
-    <row r="40" spans="1:11" hidden="1">
+    <row r="40" spans="1:11">
       <c r="A40" s="19" t="s">
         <v>14</v>
       </c>
@@ -11369,7 +11414,7 @@
       </c>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:11" hidden="1">
+    <row r="41" spans="1:11">
       <c r="A41" s="24" t="s">
         <v>18</v>
       </c>
@@ -11387,7 +11432,7 @@
         <v>86</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G41" s="21" t="s">
         <v>90</v>
@@ -11399,7 +11444,7 @@
       </c>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:11" hidden="1">
+    <row r="42" spans="1:11">
       <c r="A42" s="24" t="s">
         <v>18</v>
       </c>
@@ -11417,7 +11462,7 @@
         <v>86</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G42" s="21" t="s">
         <v>90</v>
@@ -11457,7 +11502,7 @@
       </c>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:11" hidden="1">
+    <row r="44" spans="1:11">
       <c r="A44" s="25" t="s">
         <v>17</v>
       </c>
@@ -11475,10 +11520,10 @@
         <v>86</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G44" s="21" t="s">
-        <v>90</v>
+        <v>163</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="H44" s="16"/>
       <c r="I44" s="16"/>
@@ -11487,7 +11532,7 @@
       </c>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:11" hidden="1">
+    <row r="45" spans="1:11">
       <c r="A45" s="25" t="s">
         <v>17</v>
       </c>
@@ -11505,13 +11550,13 @@
         <v>86</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G45" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="I45" s="16"/>
       <c r="J45" s="16" t="s">
@@ -11547,7 +11592,7 @@
       </c>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:11" hidden="1">
+    <row r="47" spans="1:11">
       <c r="A47" s="24" t="s">
         <v>18</v>
       </c>
@@ -11565,7 +11610,7 @@
         <v>86</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G47" s="18" t="s">
         <v>88</v>
@@ -11577,7 +11622,7 @@
       </c>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:11" ht="42">
+    <row r="48" spans="1:11">
       <c r="A48" s="15" t="s">
         <v>15</v>
       </c>
@@ -11591,17 +11636,17 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Jaqueline Meireles / Margarete Pusippe</v>
       </c>
-      <c r="E48" s="17" t="s">
-        <v>86</v>
+      <c r="E48" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>166</v>
+        <v>242</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="H48" s="43" t="s">
-        <v>234</v>
+        <v>90</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>243</v>
       </c>
       <c r="I48" s="16"/>
       <c r="J48" s="16" t="s">
@@ -11609,7 +11654,7 @@
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:11" hidden="1">
+    <row r="49" spans="1:11">
       <c r="A49" s="22" t="s">
         <v>16</v>
       </c>
@@ -11627,7 +11672,7 @@
         <v>108</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="G49" s="21" t="s">
         <v>90</v>
@@ -11657,13 +11702,13 @@
         <v>86</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G50" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="I50" s="16"/>
       <c r="J50" s="16" t="s">
@@ -11689,13 +11734,13 @@
         <v>86</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G51" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="I51" s="16"/>
       <c r="J51" s="16" t="s">
@@ -11717,10 +11762,12 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B52&amp;C52, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B52&amp;C52, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Dorival Manoel Canhete</v>
       </c>
-      <c r="E52" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F52" s="16"/>
+      <c r="E52" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>179</v>
+      </c>
       <c r="G52" s="21" t="s">
         <v>90</v>
       </c>
@@ -11731,7 +11778,7 @@
       </c>
       <c r="K52" s="16"/>
     </row>
-    <row r="53" spans="1:11" hidden="1">
+    <row r="53" spans="1:11">
       <c r="A53" s="24" t="s">
         <v>18</v>
       </c>
@@ -11749,7 +11796,7 @@
         <v>86</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G53" s="18" t="s">
         <v>88</v>
@@ -11779,13 +11826,13 @@
         <v>86</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G54" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="I54" s="16"/>
       <c r="J54" s="16" t="s">
@@ -11793,7 +11840,7 @@
       </c>
       <c r="K54" s="16"/>
     </row>
-    <row r="55" spans="1:11" hidden="1">
+    <row r="55" spans="1:11">
       <c r="A55" s="24" t="s">
         <v>18</v>
       </c>
@@ -11821,7 +11868,7 @@
       </c>
       <c r="K55" s="16"/>
     </row>
-    <row r="56" spans="1:11" hidden="1">
+    <row r="56" spans="1:11">
       <c r="A56" s="24" t="s">
         <v>18</v>
       </c>
@@ -11839,7 +11886,7 @@
         <v>86</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G56" s="21" t="s">
         <v>90</v>
@@ -11851,7 +11898,7 @@
       </c>
       <c r="K56" s="16"/>
     </row>
-    <row r="57" spans="1:11" hidden="1">
+    <row r="57" spans="1:11">
       <c r="A57" s="19" t="s">
         <v>14</v>
       </c>
@@ -11869,13 +11916,13 @@
         <v>86</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G57" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="I57" s="16"/>
       <c r="J57" s="16" t="s">
@@ -11883,7 +11930,7 @@
       </c>
       <c r="K57" s="16"/>
     </row>
-    <row r="58" spans="1:11" hidden="1">
+    <row r="58" spans="1:11">
       <c r="A58" s="24" t="s">
         <v>18</v>
       </c>
@@ -11901,7 +11948,7 @@
         <v>86</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G58" s="18" t="s">
         <v>88</v>
@@ -11913,7 +11960,7 @@
       </c>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:11" hidden="1">
+    <row r="59" spans="1:11">
       <c r="A59" s="25" t="s">
         <v>17</v>
       </c>
@@ -11927,12 +11974,14 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B59&amp;C59, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B59&amp;C59, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Taiane Amélia Mondardo</v>
       </c>
-      <c r="E59" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F59" s="16"/>
+      <c r="E59" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>251</v>
+      </c>
       <c r="G59" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H59" s="16"/>
       <c r="I59" s="16"/>
@@ -11941,7 +11990,7 @@
       </c>
       <c r="K59" s="16"/>
     </row>
-    <row r="60" spans="1:11" hidden="1">
+    <row r="60" spans="1:11">
       <c r="A60" s="24" t="s">
         <v>18</v>
       </c>
@@ -11959,13 +12008,13 @@
         <v>86</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G60" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="I60" s="16"/>
       <c r="J60" s="16" t="s">
@@ -11973,7 +12022,7 @@
       </c>
       <c r="K60" s="16"/>
     </row>
-    <row r="61" spans="1:11" hidden="1">
+    <row r="61" spans="1:11">
       <c r="A61" s="25" t="s">
         <v>17</v>
       </c>
@@ -11991,23 +12040,23 @@
         <v>86</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G61" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="16" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="J61" s="16" t="s">
         <v>88</v>
       </c>
       <c r="K61" s="16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" hidden="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="24" t="s">
         <v>18</v>
       </c>
@@ -12025,7 +12074,7 @@
         <v>86</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G62" s="21" t="s">
         <v>90</v>
@@ -12037,7 +12086,7 @@
       </c>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:11" hidden="1">
+    <row r="63" spans="1:11">
       <c r="A63" s="25" t="s">
         <v>17</v>
       </c>
@@ -12055,13 +12104,13 @@
         <v>86</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G63" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="I63" s="16"/>
       <c r="J63" s="16" t="s">
@@ -12069,7 +12118,7 @@
       </c>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:11" ht="42">
+    <row r="64" spans="1:11">
       <c r="A64" s="15" t="s">
         <v>15</v>
       </c>
@@ -12083,25 +12132,27 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B64&amp;C64, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B64&amp;C64, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Adriano Pereira Guedes</v>
       </c>
-      <c r="E64" s="23" t="s">
-        <v>108</v>
+      <c r="E64" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="G64" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G64" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="H64" s="43" t="s">
-        <v>247</v>
+      <c r="H64" s="16" t="s">
+        <v>256</v>
       </c>
       <c r="I64" s="16" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="J64" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="K64" s="16"/>
+        <v>88</v>
+      </c>
+      <c r="K64" s="16" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="15" t="s">
@@ -12131,7 +12182,7 @@
       </c>
       <c r="K65" s="16"/>
     </row>
-    <row r="66" spans="1:11" hidden="1">
+    <row r="66" spans="1:11">
       <c r="A66" s="19" t="s">
         <v>14</v>
       </c>
@@ -12155,7 +12206,7 @@
         <v>88</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="I66" s="16"/>
       <c r="J66" s="16" t="s">
@@ -12163,7 +12214,7 @@
       </c>
       <c r="K66" s="16"/>
     </row>
-    <row r="67" spans="1:11" hidden="1">
+    <row r="67" spans="1:11">
       <c r="A67" s="22" t="s">
         <v>16</v>
       </c>
@@ -12181,7 +12232,7 @@
         <v>86</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G67" s="21" t="s">
         <v>90</v>
@@ -12193,7 +12244,7 @@
       </c>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="1:11" hidden="1">
+    <row r="68" spans="1:11">
       <c r="A68" s="22" t="s">
         <v>16</v>
       </c>
@@ -12211,7 +12262,7 @@
         <v>86</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G68" s="21" t="s">
         <v>90</v>
@@ -12223,7 +12274,7 @@
       </c>
       <c r="K68" s="16"/>
     </row>
-    <row r="69" spans="1:11" hidden="1">
+    <row r="69" spans="1:11">
       <c r="A69" s="24" t="s">
         <v>18</v>
       </c>
@@ -12252,13 +12303,7 @@
       <c r="K69" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G69" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Gabriel"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <conditionalFormatting sqref="G2:G69">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -12312,12 +12357,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H43" sqref="H43"/>
+      <selection pane="topRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12327,12 +12371,11 @@
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="75" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="73" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="6" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="251" customWidth="1"/>
+    <col min="9" max="9" width="38" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="26" customWidth="1"/>
+    <col min="11" max="11" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -12398,7 +12441,7 @@
       </c>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11" hidden="1">
+    <row r="3" spans="1:11">
       <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
@@ -12416,7 +12459,7 @@
         <v>86</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>90</v>
@@ -12446,9 +12489,9 @@
         <v>86</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="G4" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H4" s="16" t="s">
@@ -12460,7 +12503,7 @@
       </c>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:11" hidden="1">
+    <row r="5" spans="1:11">
       <c r="A5" s="19" t="s">
         <v>14</v>
       </c>
@@ -12478,13 +12521,13 @@
         <v>86</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16" t="s">
@@ -12492,7 +12535,7 @@
       </c>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11" hidden="1">
+    <row r="6" spans="1:11">
       <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
@@ -12510,7 +12553,7 @@
         <v>86</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>90</v>
@@ -12546,7 +12589,7 @@
         <v>88</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16" t="s">
@@ -12554,7 +12597,7 @@
       </c>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:11" hidden="1">
+    <row r="8" spans="1:11">
       <c r="A8" s="22" t="s">
         <v>16</v>
       </c>
@@ -12582,7 +12625,7 @@
       </c>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11" hidden="1">
+    <row r="9" spans="1:11">
       <c r="A9" s="19" t="s">
         <v>14</v>
       </c>
@@ -12610,7 +12653,7 @@
       </c>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11" hidden="1">
+    <row r="10" spans="1:11">
       <c r="A10" s="19" t="s">
         <v>14</v>
       </c>
@@ -12628,7 +12671,7 @@
         <v>108</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>90</v>
@@ -12640,7 +12683,7 @@
       </c>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:11" hidden="1">
+    <row r="11" spans="1:11">
       <c r="A11" s="22" t="s">
         <v>16</v>
       </c>
@@ -12670,7 +12713,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11" hidden="1">
+    <row r="12" spans="1:11">
       <c r="A12" s="22" t="s">
         <v>16</v>
       </c>
@@ -12700,7 +12743,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11" hidden="1">
+    <row r="13" spans="1:11">
       <c r="A13" s="22" t="s">
         <v>16</v>
       </c>
@@ -12730,7 +12773,7 @@
       </c>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:11" hidden="1">
+    <row r="14" spans="1:11">
       <c r="A14" s="22" t="s">
         <v>16</v>
       </c>
@@ -12748,7 +12791,7 @@
         <v>108</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>90</v>
@@ -12760,7 +12803,7 @@
       </c>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:11" hidden="1">
+    <row r="15" spans="1:11">
       <c r="A15" s="22" t="s">
         <v>16</v>
       </c>
@@ -12778,7 +12821,7 @@
         <v>86</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G15" s="21" t="s">
         <v>90</v>
@@ -12790,7 +12833,7 @@
       </c>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:11" hidden="1">
+    <row r="16" spans="1:11">
       <c r="A16" s="22" t="s">
         <v>16</v>
       </c>
@@ -12808,7 +12851,7 @@
         <v>86</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="G16" s="21" t="s">
         <v>90</v>
@@ -12820,7 +12863,7 @@
       </c>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" hidden="1">
+    <row r="17" spans="1:11">
       <c r="A17" s="19" t="s">
         <v>14</v>
       </c>
@@ -12850,7 +12893,7 @@
       </c>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11" hidden="1">
+    <row r="18" spans="1:11">
       <c r="A18" s="24" t="s">
         <v>18</v>
       </c>
@@ -12878,7 +12921,7 @@
       </c>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11" hidden="1">
+    <row r="19" spans="1:11">
       <c r="A19" s="19" t="s">
         <v>14</v>
       </c>
@@ -12906,7 +12949,7 @@
       </c>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" hidden="1">
+    <row r="20" spans="1:11">
       <c r="A20" s="24" t="s">
         <v>18</v>
       </c>
@@ -12924,7 +12967,7 @@
         <v>86</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>88</v>
@@ -12936,7 +12979,7 @@
       </c>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" hidden="1">
+    <row r="21" spans="1:11">
       <c r="A21" s="19" t="s">
         <v>14</v>
       </c>
@@ -12954,13 +12997,13 @@
         <v>86</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="16" t="s">
@@ -12968,7 +13011,7 @@
       </c>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" hidden="1">
+    <row r="22" spans="1:11">
       <c r="A22" s="24" t="s">
         <v>18</v>
       </c>
@@ -12982,10 +13025,12 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Carmen Maria Stein Weiler</v>
       </c>
-      <c r="E22" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="16"/>
+      <c r="E22" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>130</v>
+      </c>
       <c r="G22" s="21" t="s">
         <v>90</v>
       </c>
@@ -12996,7 +13041,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" hidden="1">
+    <row r="23" spans="1:11">
       <c r="A23" s="22" t="s">
         <v>16</v>
       </c>
@@ -13014,7 +13059,7 @@
         <v>86</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G23" s="21" t="s">
         <v>90</v>
@@ -13026,7 +13071,7 @@
       </c>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" hidden="1">
+    <row r="24" spans="1:11">
       <c r="A24" s="25" t="s">
         <v>17</v>
       </c>
@@ -13040,12 +13085,14 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Andrea Carla Winkelmann</v>
       </c>
-      <c r="E24" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" s="16"/>
+      <c r="E24" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>266</v>
+      </c>
       <c r="G24" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
@@ -13054,7 +13101,7 @@
       </c>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" hidden="1">
+    <row r="25" spans="1:11">
       <c r="A25" s="25" t="s">
         <v>17</v>
       </c>
@@ -13072,10 +13119,10 @@
         <v>86</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>90</v>
+        <v>172</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
@@ -13084,7 +13131,7 @@
       </c>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" hidden="1">
+    <row r="26" spans="1:11">
       <c r="A26" s="25" t="s">
         <v>17</v>
       </c>
@@ -13104,8 +13151,8 @@
       <c r="F26" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G26" s="21" t="s">
-        <v>90</v>
+      <c r="G26" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -13114,7 +13161,7 @@
       </c>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" hidden="1">
+    <row r="27" spans="1:11">
       <c r="A27" s="25" t="s">
         <v>17</v>
       </c>
@@ -13132,10 +13179,10 @@
         <v>86</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>90</v>
+        <v>237</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
@@ -13144,7 +13191,7 @@
       </c>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" hidden="1">
+    <row r="28" spans="1:11">
       <c r="A28" s="25" t="s">
         <v>17</v>
       </c>
@@ -13168,7 +13215,7 @@
         <v>88</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="I28" s="16"/>
       <c r="J28" s="16" t="s">
@@ -13176,7 +13223,7 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" hidden="1">
+    <row r="29" spans="1:11">
       <c r="A29" s="25" t="s">
         <v>17</v>
       </c>
@@ -13194,13 +13241,13 @@
         <v>86</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G29" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="I29" s="16"/>
       <c r="J29" s="16" t="s">
@@ -13208,7 +13255,7 @@
       </c>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" hidden="1">
+    <row r="30" spans="1:11">
       <c r="A30" s="25" t="s">
         <v>17</v>
       </c>
@@ -13226,13 +13273,13 @@
         <v>86</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="16" t="s">
@@ -13240,7 +13287,7 @@
       </c>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" hidden="1">
+    <row r="31" spans="1:11">
       <c r="A31" s="25" t="s">
         <v>17</v>
       </c>
@@ -13324,7 +13371,7 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:11" hidden="1">
+    <row r="34" spans="1:11">
       <c r="A34" s="19" t="s">
         <v>14</v>
       </c>
@@ -13342,7 +13389,7 @@
         <v>86</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>90</v>
@@ -13354,7 +13401,7 @@
       </c>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:11" hidden="1">
+    <row r="35" spans="1:11">
       <c r="A35" s="19" t="s">
         <v>14</v>
       </c>
@@ -13372,7 +13419,7 @@
         <v>86</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>88</v>
@@ -13384,7 +13431,7 @@
       </c>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:11" hidden="1">
+    <row r="36" spans="1:11">
       <c r="A36" s="19" t="s">
         <v>14</v>
       </c>
@@ -13402,7 +13449,7 @@
         <v>86</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>88</v>
@@ -13414,7 +13461,7 @@
       </c>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:11" hidden="1">
+    <row r="37" spans="1:11">
       <c r="A37" s="22" t="s">
         <v>16</v>
       </c>
@@ -13432,7 +13479,7 @@
         <v>86</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G37" s="21" t="s">
         <v>90</v>
@@ -13444,7 +13491,7 @@
       </c>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:11" hidden="1">
+    <row r="38" spans="1:11">
       <c r="A38" s="24" t="s">
         <v>18</v>
       </c>
@@ -13462,7 +13509,7 @@
         <v>86</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>90</v>
@@ -13474,7 +13521,7 @@
       </c>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:11" hidden="1">
+    <row r="39" spans="1:11">
       <c r="A39" s="22" t="s">
         <v>16</v>
       </c>
@@ -13492,7 +13539,7 @@
         <v>86</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>90</v>
@@ -13504,7 +13551,7 @@
       </c>
       <c r="K39" s="16"/>
     </row>
-    <row r="40" spans="1:11" hidden="1">
+    <row r="40" spans="1:11">
       <c r="A40" s="19" t="s">
         <v>14</v>
       </c>
@@ -13532,7 +13579,7 @@
       </c>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:11" hidden="1">
+    <row r="41" spans="1:11">
       <c r="A41" s="24" t="s">
         <v>18</v>
       </c>
@@ -13550,7 +13597,7 @@
         <v>86</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G41" s="21" t="s">
         <v>90</v>
@@ -13562,7 +13609,7 @@
       </c>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:11" hidden="1">
+    <row r="42" spans="1:11">
       <c r="A42" s="24" t="s">
         <v>18</v>
       </c>
@@ -13580,7 +13627,7 @@
         <v>86</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G42" s="21" t="s">
         <v>90</v>
@@ -13620,7 +13667,7 @@
       </c>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:11" hidden="1">
+    <row r="44" spans="1:11">
       <c r="A44" s="25" t="s">
         <v>17</v>
       </c>
@@ -13638,7 +13685,7 @@
         <v>86</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G44" s="18" t="s">
         <v>88</v>
@@ -13650,7 +13697,7 @@
       </c>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:11" hidden="1">
+    <row r="45" spans="1:11">
       <c r="A45" s="25" t="s">
         <v>17</v>
       </c>
@@ -13668,13 +13715,13 @@
         <v>86</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="G45" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="I45" s="16"/>
       <c r="J45" s="16" t="s">
@@ -13710,7 +13757,7 @@
       </c>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:11" hidden="1">
+    <row r="47" spans="1:11">
       <c r="A47" s="24" t="s">
         <v>18</v>
       </c>
@@ -13728,7 +13775,7 @@
         <v>86</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G47" s="18" t="s">
         <v>88</v>
@@ -13758,13 +13805,13 @@
         <v>86</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="G48" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G48" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="I48" s="16"/>
       <c r="J48" s="16" t="s">
@@ -13772,7 +13819,7 @@
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:11" hidden="1">
+    <row r="49" spans="1:11">
       <c r="A49" s="22" t="s">
         <v>16</v>
       </c>
@@ -13790,7 +13837,7 @@
         <v>86</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G49" s="21" t="s">
         <v>90</v>
@@ -13820,13 +13867,13 @@
         <v>86</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G50" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="I50" s="16"/>
       <c r="J50" s="16" t="s">
@@ -13852,13 +13899,13 @@
         <v>86</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G51" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="I51" s="16"/>
       <c r="J51" s="16" t="s">
@@ -13880,10 +13927,12 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B52&amp;C52, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B52&amp;C52, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Dorival Manoel Canhete</v>
       </c>
-      <c r="E52" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F52" s="16"/>
+      <c r="E52" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>179</v>
+      </c>
       <c r="G52" s="21" t="s">
         <v>90</v>
       </c>
@@ -13894,7 +13943,7 @@
       </c>
       <c r="K52" s="16"/>
     </row>
-    <row r="53" spans="1:11" hidden="1">
+    <row r="53" spans="1:11">
       <c r="A53" s="24" t="s">
         <v>18</v>
       </c>
@@ -13912,7 +13961,7 @@
         <v>86</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G53" s="18" t="s">
         <v>88</v>
@@ -13942,13 +13991,13 @@
         <v>86</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G54" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="I54" s="16"/>
       <c r="J54" s="16" t="s">
@@ -13956,7 +14005,7 @@
       </c>
       <c r="K54" s="16"/>
     </row>
-    <row r="55" spans="1:11" hidden="1">
+    <row r="55" spans="1:11">
       <c r="A55" s="24" t="s">
         <v>18</v>
       </c>
@@ -13984,7 +14033,7 @@
       </c>
       <c r="K55" s="16"/>
     </row>
-    <row r="56" spans="1:11" hidden="1">
+    <row r="56" spans="1:11">
       <c r="A56" s="24" t="s">
         <v>18</v>
       </c>
@@ -14002,7 +14051,7 @@
         <v>86</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="G56" s="21" t="s">
         <v>90</v>
@@ -14014,7 +14063,7 @@
       </c>
       <c r="K56" s="16"/>
     </row>
-    <row r="57" spans="1:11" hidden="1">
+    <row r="57" spans="1:11">
       <c r="A57" s="19" t="s">
         <v>14</v>
       </c>
@@ -14042,7 +14091,7 @@
       </c>
       <c r="K57" s="16"/>
     </row>
-    <row r="58" spans="1:11" hidden="1">
+    <row r="58" spans="1:11">
       <c r="A58" s="24" t="s">
         <v>18</v>
       </c>
@@ -14072,7 +14121,7 @@
       </c>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:11" hidden="1">
+    <row r="59" spans="1:11">
       <c r="A59" s="25" t="s">
         <v>17</v>
       </c>
@@ -14086,12 +14135,14 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B59&amp;C59, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B59&amp;C59, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Taiane Amélia Mondardo</v>
       </c>
-      <c r="E59" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F59" s="16"/>
+      <c r="E59" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>251</v>
+      </c>
       <c r="G59" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H59" s="16"/>
       <c r="I59" s="16"/>
@@ -14100,7 +14151,7 @@
       </c>
       <c r="K59" s="16"/>
     </row>
-    <row r="60" spans="1:11" hidden="1">
+    <row r="60" spans="1:11">
       <c r="A60" s="24" t="s">
         <v>18</v>
       </c>
@@ -14118,7 +14169,7 @@
         <v>86</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G60" s="18" t="s">
         <v>88</v>
@@ -14130,7 +14181,7 @@
       </c>
       <c r="K60" s="16"/>
     </row>
-    <row r="61" spans="1:11" hidden="1">
+    <row r="61" spans="1:11">
       <c r="A61" s="25" t="s">
         <v>17</v>
       </c>
@@ -14148,7 +14199,7 @@
         <v>86</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="G61" s="21" t="s">
         <v>90</v>
@@ -14160,7 +14211,7 @@
       </c>
       <c r="K61" s="16"/>
     </row>
-    <row r="62" spans="1:11" hidden="1">
+    <row r="62" spans="1:11">
       <c r="A62" s="24" t="s">
         <v>18</v>
       </c>
@@ -14178,7 +14229,7 @@
         <v>86</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G62" s="21" t="s">
         <v>90</v>
@@ -14190,7 +14241,7 @@
       </c>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:11" hidden="1">
+    <row r="63" spans="1:11">
       <c r="A63" s="25" t="s">
         <v>17</v>
       </c>
@@ -14208,7 +14259,7 @@
         <v>86</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G63" s="18" t="s">
         <v>88</v>
@@ -14220,7 +14271,7 @@
       </c>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:11" ht="70.5">
+    <row r="64" spans="1:11">
       <c r="A64" s="15" t="s">
         <v>15</v>
       </c>
@@ -14234,25 +14285,27 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B64&amp;C64, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B64&amp;C64, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Adriano Pereira Guedes</v>
       </c>
-      <c r="E64" s="23" t="s">
-        <v>108</v>
+      <c r="E64" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="G64" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G64" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="H64" s="43" t="s">
-        <v>265</v>
+      <c r="H64" s="16" t="s">
+        <v>276</v>
       </c>
       <c r="I64" s="16" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="J64" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="K64" s="16"/>
+        <v>88</v>
+      </c>
+      <c r="K64" s="16" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="15" t="s">
@@ -14268,27 +14321,29 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B65&amp;C65, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B65&amp;C65, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Graziela Gobbato / Suzana Cristina de Almeida </v>
       </c>
-      <c r="E65" s="23" t="s">
-        <v>108</v>
+      <c r="E65" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>267</v>
+        <v>210</v>
       </c>
       <c r="G65" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="J65" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="K65" s="16"/>
-    </row>
-    <row r="66" spans="1:11" hidden="1">
+        <v>88</v>
+      </c>
+      <c r="K65" s="16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="19" t="s">
         <v>14</v>
       </c>
@@ -14318,7 +14373,7 @@
       </c>
       <c r="K66" s="16"/>
     </row>
-    <row r="67" spans="1:11" hidden="1">
+    <row r="67" spans="1:11">
       <c r="A67" s="22" t="s">
         <v>16</v>
       </c>
@@ -14336,7 +14391,7 @@
         <v>86</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G67" s="21" t="s">
         <v>90</v>
@@ -14348,7 +14403,7 @@
       </c>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="1:11" hidden="1">
+    <row r="68" spans="1:11">
       <c r="A68" s="22" t="s">
         <v>16</v>
       </c>
@@ -14366,7 +14421,7 @@
         <v>86</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="G68" s="21" t="s">
         <v>90</v>
@@ -14378,7 +14433,7 @@
       </c>
       <c r="K68" s="16"/>
     </row>
-    <row r="69" spans="1:11" hidden="1">
+    <row r="69" spans="1:11">
       <c r="A69" s="24" t="s">
         <v>18</v>
       </c>
@@ -14407,13 +14462,7 @@
       <c r="K69" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G69" xr:uid="{00000000-0009-0000-0000-000004000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Gabriel"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <conditionalFormatting sqref="G2:G69">
     <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>

--- a/inputs/0 - GRS II/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - GRS II/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29225"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_68577633C20DF4F615ED63F4E47EEA0B2AAEC04D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7416B282-11D5-44BC-B7FF-79BB9F4C9EA8}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_68577633C23DF5F921BEF2A4E45DFE5DC2E8DA03" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21D6FF86-232B-4AF5-8A85-9959A1322526}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="284">
   <si>
     <t>Formulário</t>
   </si>
@@ -734,6 +734,9 @@
   </si>
   <si>
     <t>20/05/2025</t>
+  </si>
+  <si>
+    <t>22/08/2025</t>
   </si>
   <si>
     <t>10/07/2025</t>
@@ -2211,9 +2214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2292,19 +2293,19 @@
       </c>
       <c r="B3" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!E2:E100"),"Enviado")</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="27">
         <f ca="1">B3/SUM($B3,$D3,$F3)</f>
-        <v>0.81538461538461537</v>
+        <v>0.83076923076923082</v>
       </c>
       <c r="D3" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!E2:E100"),"Atrasado")</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="27">
         <f ca="1">D3/SUM($B3,$D3,$F3)</f>
-        <v>0.18461538461538463</v>
+        <v>0.16923076923076924</v>
       </c>
       <c r="F3" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!E2:E100"),"Sem Técnico")</f>
@@ -2325,19 +2326,19 @@
       </c>
       <c r="B4" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!E2:E100"),"Enviado")</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" s="27">
         <f ca="1">B4/SUM($B4,$D4,$F4)</f>
-        <v>0.78787878787878785</v>
+        <v>0.80303030303030298</v>
       </c>
       <c r="D4" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!E2:E100"),"Atrasado")</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="27">
         <f ca="1">D4/SUM($B4,$D4,$F4)</f>
-        <v>0.21212121212121213</v>
+        <v>0.19696969696969696</v>
       </c>
       <c r="F4" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!E2:E100"),"Sem Técnico")</f>
@@ -2358,19 +2359,19 @@
       </c>
       <c r="B5" s="28">
         <f ca="1">SUM(B2:B4)</f>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C5" s="27">
         <f ca="1">B5/SUM($B5,$D5,$F5)</f>
-        <v>0.80729166666666663</v>
+        <v>0.81770833333333337</v>
       </c>
       <c r="D5" s="28">
         <f ca="1">SUM(D2:D4)</f>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" s="27">
         <f ca="1">D5/SUM($B5,$D5,$F5)</f>
-        <v>0.19270833333333334</v>
+        <v>0.18229166666666666</v>
       </c>
       <c r="F5" s="28">
         <f ca="1">SUM(F2:F4)</f>
@@ -2415,11 +2416,11 @@
       </c>
       <c r="B11" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!G2:G100"),"Sim")</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="29">
         <f ca="1">$B$11/$B$3</f>
-        <v>0.64150943396226412</v>
+        <v>0.64814814814814814</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
@@ -2428,11 +2429,11 @@
       </c>
       <c r="B12" s="26">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!G2:G100"),"Sim")</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="29">
         <f ca="1">$B$12/$B$4</f>
-        <v>0.55769230769230771</v>
+        <v>0.56603773584905659</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
@@ -2491,7 +2492,7 @@
       </c>
       <c r="E17" s="29">
         <f ca="1">D17/B3</f>
-        <v>0.18867924528301888</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="F17" s="30">
         <f t="array" aca="1" ref="F17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
@@ -2499,7 +2500,7 @@
       </c>
       <c r="G17" s="29">
         <f ca="1">F17/B4</f>
-        <v>9.6153846153846159E-2</v>
+        <v>9.4339622641509441E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2520,7 +2521,7 @@
       </c>
       <c r="E18" s="29">
         <f ca="1">D18/B3</f>
-        <v>0.13207547169811321</v>
+        <v>0.12962962962962962</v>
       </c>
       <c r="F18" s="30">
         <f t="array" aca="1" ref="F18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
@@ -2528,7 +2529,7 @@
       </c>
       <c r="G18" s="29">
         <f ca="1">F18/B5</f>
-        <v>5.1612903225806452E-2</v>
+        <v>5.0955414012738856E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2574,19 +2575,19 @@
       </c>
       <c r="D20" s="30">
         <f t="array" aca="1" ref="D20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" s="29">
         <f ca="1">D20/B3</f>
-        <v>0.22641509433962265</v>
+        <v>0.24074074074074073</v>
       </c>
       <c r="F20" s="30">
         <f t="array" aca="1" ref="F20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" s="29">
         <f ca="1">F20/B5</f>
-        <v>7.0967741935483872E-2</v>
+        <v>7.6433121019108277E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2607,7 +2608,7 @@
       </c>
       <c r="E21" s="29">
         <f ca="1">D21/B3</f>
-        <v>9.4339622641509441E-2</v>
+        <v>9.2592592592592587E-2</v>
       </c>
       <c r="F21" s="30">
         <f t="array" aca="1" ref="F21" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
@@ -2615,7 +2616,7 @@
       </c>
       <c r="G21" s="29">
         <f ca="1">F21/B5</f>
-        <v>3.2258064516129031E-2</v>
+        <v>3.1847133757961783E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2632,19 +2633,19 @@
       </c>
       <c r="D22" s="31">
         <f ca="1">SUM(D17:D21)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E22" s="32">
         <f ca="1">SUM(E17:E21)</f>
-        <v>0.64150943396226423</v>
+        <v>0.64814814814814803</v>
       </c>
       <c r="F22" s="31">
         <f ca="1">SUM(F17:F21)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G22" s="32">
         <f ca="1">SUM(G17:G21)</f>
-        <v>0.25099255583126556</v>
+        <v>0.25357529143131835</v>
       </c>
     </row>
   </sheetData>
@@ -2662,9 +2663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4936,7 +4935,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="M18" s="13" t="str">
         <f t="array" aca="1" ref="M18" ca="1">IF(
@@ -4958,7 +4957,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -8057,7 +8056,7 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="H54" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -10182,8 +10181,8 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B24" sqref="B24"/>
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10738,10 +10737,12 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B18&amp;C18, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B18&amp;C18, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Douglas de Mattia / Alvaro Rodrigues</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="16"/>
+      <c r="E18" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>231</v>
+      </c>
       <c r="G18" s="21" t="s">
         <v>90</v>
       </c>
@@ -10858,7 +10859,7 @@
         <v>86</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G22" s="21" t="s">
         <v>90</v>
@@ -10888,7 +10889,7 @@
         <v>86</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G23" s="21" t="s">
         <v>90</v>
@@ -10924,7 +10925,7 @@
         <v>88</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="16" t="s">
@@ -10950,13 +10951,13 @@
         <v>86</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="16" t="s">
@@ -10988,7 +10989,7 @@
         <v>88</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I26" s="16"/>
       <c r="J26" s="16" t="s">
@@ -11014,7 +11015,7 @@
         <v>86</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>88</v>
@@ -11050,7 +11051,7 @@
         <v>88</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I28" s="16"/>
       <c r="J28" s="16" t="s">
@@ -11082,7 +11083,7 @@
         <v>88</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I29" s="16"/>
       <c r="J29" s="16" t="s">
@@ -11108,13 +11109,13 @@
         <v>86</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="16" t="s">
@@ -11142,8 +11143,8 @@
       <c r="F31" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="G31" s="21" t="s">
-        <v>90</v>
+      <c r="G31" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
@@ -11226,7 +11227,7 @@
         <v>86</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G34" s="18" t="s">
         <v>88</v>
@@ -11286,7 +11287,7 @@
         <v>86</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>88</v>
@@ -11556,7 +11557,7 @@
         <v>88</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I45" s="16"/>
       <c r="J45" s="16" t="s">
@@ -11640,13 +11641,13 @@
         <v>108</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G48" s="21" t="s">
         <v>90</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I48" s="16"/>
       <c r="J48" s="16" t="s">
@@ -11672,7 +11673,7 @@
         <v>108</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G49" s="21" t="s">
         <v>90</v>
@@ -11708,7 +11709,7 @@
         <v>88</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I50" s="16"/>
       <c r="J50" s="16" t="s">
@@ -11740,7 +11741,7 @@
         <v>88</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I51" s="16"/>
       <c r="J51" s="16" t="s">
@@ -11796,7 +11797,7 @@
         <v>86</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G53" s="18" t="s">
         <v>88</v>
@@ -11832,7 +11833,7 @@
         <v>88</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I54" s="16"/>
       <c r="J54" s="16" t="s">
@@ -11886,7 +11887,7 @@
         <v>86</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G56" s="21" t="s">
         <v>90</v>
@@ -11922,7 +11923,7 @@
         <v>88</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I57" s="16"/>
       <c r="J57" s="16" t="s">
@@ -11978,9 +11979,9 @@
         <v>86</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="G59" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="G59" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H59" s="16"/>
@@ -12014,7 +12015,7 @@
         <v>88</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I60" s="16"/>
       <c r="J60" s="16" t="s">
@@ -12047,13 +12048,13 @@
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="16" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J61" s="16" t="s">
         <v>88</v>
       </c>
       <c r="K61" s="16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -12110,7 +12111,7 @@
         <v>88</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I63" s="16"/>
       <c r="J63" s="16" t="s">
@@ -12142,16 +12143,16 @@
         <v>88</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I64" s="16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J64" s="16" t="s">
         <v>88</v>
       </c>
       <c r="K64" s="16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -12206,7 +12207,7 @@
         <v>88</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I66" s="16"/>
       <c r="J66" s="16" t="s">
@@ -12360,8 +12361,8 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G24" sqref="G24"/>
+      <pane xSplit="3" topLeftCell="D18" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12527,7 +12528,7 @@
         <v>88</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16" t="s">
@@ -12589,7 +12590,7 @@
         <v>88</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16" t="s">
@@ -12671,7 +12672,7 @@
         <v>108</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>90</v>
@@ -12791,7 +12792,7 @@
         <v>108</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>90</v>
@@ -12851,7 +12852,7 @@
         <v>86</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G16" s="21" t="s">
         <v>90</v>
@@ -12907,10 +12908,12 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B18&amp;C18, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B18&amp;C18, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Douglas de Mattia / Alvaro Rodrigues</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="16"/>
+      <c r="E18" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>231</v>
+      </c>
       <c r="G18" s="21" t="s">
         <v>90</v>
       </c>
@@ -13003,7 +13006,7 @@
         <v>88</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="16" t="s">
@@ -13089,9 +13092,9 @@
         <v>86</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="G24" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="G24" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H24" s="16"/>
@@ -13179,7 +13182,7 @@
         <v>86</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>88</v>
@@ -13215,7 +13218,7 @@
         <v>88</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I28" s="16"/>
       <c r="J28" s="16" t="s">
@@ -13247,7 +13250,7 @@
         <v>88</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I29" s="16"/>
       <c r="J29" s="16" t="s">
@@ -13273,13 +13276,13 @@
         <v>86</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="16" t="s">
@@ -13715,13 +13718,13 @@
         <v>86</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G45" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I45" s="16"/>
       <c r="J45" s="16" t="s">
@@ -13811,7 +13814,7 @@
         <v>88</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I48" s="16"/>
       <c r="J48" s="16" t="s">
@@ -13873,7 +13876,7 @@
         <v>88</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I50" s="16"/>
       <c r="J50" s="16" t="s">
@@ -13905,7 +13908,7 @@
         <v>88</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I51" s="16"/>
       <c r="J51" s="16" t="s">
@@ -13997,7 +14000,7 @@
         <v>88</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I54" s="16"/>
       <c r="J54" s="16" t="s">
@@ -14051,7 +14054,7 @@
         <v>86</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G56" s="21" t="s">
         <v>90</v>
@@ -14139,9 +14142,9 @@
         <v>86</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="G59" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="G59" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H59" s="16"/>
@@ -14199,10 +14202,10 @@
         <v>86</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G61" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
@@ -14295,16 +14298,16 @@
         <v>88</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I64" s="16" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J64" s="16" t="s">
         <v>88</v>
       </c>
       <c r="K64" s="16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -14331,16 +14334,16 @@
         <v>88</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J65" s="16" t="s">
         <v>88</v>
       </c>
       <c r="K65" s="16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -14421,7 +14424,7 @@
         <v>86</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G68" s="21" t="s">
         <v>90</v>

--- a/inputs/0 - GRS II/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - GRS II/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_48BE6F8777F0B5F0D70FFAF3AC0EFB052E9A864A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADEDD6D3-B710-43BC-9905-5C452DFA091A}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_48BE6F872B587F94F7FE75D704CDE384FEDB802B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7500CDB-D941-43BC-AA7F-56E83A8F77D1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2410,7 +2410,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2931,11 +2933,11 @@
       </c>
       <c r="B10" s="33">
         <f ca="1">COUNTIF(INDIRECT("'Form 1 - Município'!G2:G100"),"Sim")</f>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C10" s="37">
         <f ca="1">$B$10/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
-        <v>0.50724637681159424</v>
+        <v>0.60869565217391308</v>
       </c>
       <c r="AC10" s="4"/>
       <c r="AD10" s="36" t="str">
@@ -2970,11 +2972,11 @@
       </c>
       <c r="B11" s="33">
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!G2:G100"),"Sim")</f>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C11" s="37">
         <f ca="1">$B$11/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
-        <v>0.50724637681159424</v>
+        <v>0.60869565217391308</v>
       </c>
       <c r="AC11" s="4"/>
       <c r="AD11" s="36" t="str">
@@ -3009,11 +3011,11 @@
       </c>
       <c r="B12" s="33">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!G2:G100"),"Sim")</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C12" s="37">
         <f ca="1">$B$12/(COUNTA(INDIRECT("'Form 3 - Empreendimento'!B2:B70")))</f>
-        <v>0.44927536231884058</v>
+        <v>0.55072463768115942</v>
       </c>
       <c r="AC12" s="4"/>
       <c r="AD12" s="36" t="str">
@@ -3420,27 +3422,27 @@
       </c>
       <c r="B21" s="36">
         <f t="array" aca="1" ref="B21" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C21" s="37">
         <f ca="1">B21/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
-        <v>8.6956521739130432E-2</v>
+        <v>0.18840579710144928</v>
       </c>
       <c r="D21" s="36">
         <f t="array" aca="1" ref="D21" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E21" s="37">
         <f ca="1">D21/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
-        <v>7.2463768115942032E-2</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="F21" s="36">
         <f t="array" aca="1" ref="F21" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G21" s="37">
         <f ca="1">F21/(COUNTA(INDIRECT("'Form 3 - Empreendimento'!B2:B70")))</f>
-        <v>7.2463768115942032E-2</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -3477,27 +3479,27 @@
       </c>
       <c r="B22" s="38">
         <f ca="1">SUM(B17:B21)</f>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C22" s="39">
         <f ca="1">SUM(C17:C21)</f>
-        <v>0.50724637681159424</v>
+        <v>0.60869565217391308</v>
       </c>
       <c r="D22" s="38">
         <f ca="1">SUM(D17:D21)</f>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E22" s="39">
         <f ca="1">SUM(E17:E21)</f>
-        <v>0.50724637681159424</v>
+        <v>0.60869565217391308</v>
       </c>
       <c r="F22" s="38">
         <f ca="1">SUM(F17:F21)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G22" s="39">
         <f ca="1">SUM(G17:G21)</f>
-        <v>0.44927536231884058</v>
+        <v>0.55072463768115942</v>
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
@@ -10639,7 +10641,7 @@
         <v>135</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
@@ -11152,7 +11154,7 @@
         <v>164</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
@@ -11237,7 +11239,7 @@
         <v>169</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
@@ -11266,7 +11268,7 @@
         <v>169</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
@@ -11651,7 +11653,7 @@
         <v>197</v>
       </c>
       <c r="G56" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="23"/>
@@ -11680,7 +11682,7 @@
         <v>199</v>
       </c>
       <c r="G57" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
@@ -11858,7 +11860,7 @@
         <v>194</v>
       </c>
       <c r="G63" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H63" s="23"/>
       <c r="I63" s="23"/>
@@ -12698,8 +12700,8 @@
       <c r="F18" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="G18" s="28" t="s">
-        <v>101</v>
+      <c r="G18" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
@@ -12816,8 +12818,8 @@
       <c r="F22" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="G22" s="28" t="s">
-        <v>101</v>
+      <c r="G22" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
@@ -13334,8 +13336,8 @@
       <c r="F39" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="G39" s="28" t="s">
-        <v>101</v>
+      <c r="G39" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
@@ -13420,8 +13422,8 @@
       <c r="F42" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="G42" s="28" t="s">
-        <v>101</v>
+      <c r="G42" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
@@ -13450,8 +13452,8 @@
       <c r="F43" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="G43" s="28" t="s">
-        <v>101</v>
+      <c r="G43" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
@@ -13874,8 +13876,8 @@
       <c r="F57" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="G57" s="28" t="s">
-        <v>101</v>
+      <c r="G57" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
@@ -14062,8 +14064,8 @@
       <c r="F63" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="G63" s="28" t="s">
-        <v>101</v>
+      <c r="G63" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="H63" s="23"/>
       <c r="I63" s="23"/>
@@ -14346,7 +14348,7 @@
   <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D24" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -14899,8 +14901,8 @@
       <c r="F18" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="G18" s="28" t="s">
-        <v>101</v>
+      <c r="G18" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
@@ -15019,8 +15021,8 @@
       <c r="F22" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="G22" s="28" t="s">
-        <v>101</v>
+      <c r="G22" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
@@ -15531,8 +15533,8 @@
       <c r="F39" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="G39" s="28" t="s">
-        <v>101</v>
+      <c r="G39" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
@@ -15619,8 +15621,8 @@
       <c r="F42" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="G42" s="28" t="s">
-        <v>101</v>
+      <c r="G42" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
@@ -15649,8 +15651,8 @@
       <c r="F43" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="G43" s="28" t="s">
-        <v>101</v>
+      <c r="G43" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
@@ -16073,8 +16075,8 @@
       <c r="F57" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="G57" s="28" t="s">
-        <v>101</v>
+      <c r="G57" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
@@ -16251,8 +16253,8 @@
       <c r="F63" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="G63" s="28" t="s">
-        <v>101</v>
+      <c r="G63" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="H63" s="23"/>
       <c r="I63" s="23"/>
